--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7002,28 +7002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3463.480075437824</v>
+        <v>3952.736322891195</v>
       </c>
       <c r="AB2" t="n">
-        <v>4738.886237171292</v>
+        <v>5408.308219399315</v>
       </c>
       <c r="AC2" t="n">
-        <v>4286.613585764091</v>
+        <v>4892.146873547899</v>
       </c>
       <c r="AD2" t="n">
-        <v>3463480.075437824</v>
+        <v>3952736.322891195</v>
       </c>
       <c r="AE2" t="n">
-        <v>4738886.237171292</v>
+        <v>5408308.219399315</v>
       </c>
       <c r="AF2" t="n">
         <v>1.612496145396356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>98</v>
+        <v>97.33796296296295</v>
       </c>
       <c r="AH2" t="n">
-        <v>4286613.585764091</v>
+        <v>4892146.8735479</v>
       </c>
     </row>
     <row r="3">
@@ -7108,28 +7108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2129.624963246963</v>
+        <v>2472.121722482673</v>
       </c>
       <c r="AB3" t="n">
-        <v>2913.846827137044</v>
+        <v>3382.466003014152</v>
       </c>
       <c r="AC3" t="n">
-        <v>2635.753375564791</v>
+        <v>3059.648195007204</v>
       </c>
       <c r="AD3" t="n">
-        <v>2129624.963246963</v>
+        <v>2472121.722482673</v>
       </c>
       <c r="AE3" t="n">
-        <v>2913846.827137044</v>
+        <v>3382466.003014152</v>
       </c>
       <c r="AF3" t="n">
         <v>2.274526772074096e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>70</v>
+        <v>69.00462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>2635753.375564791</v>
+        <v>3059648.195007204</v>
       </c>
     </row>
     <row r="4">
@@ -7214,28 +7214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1827.872118003334</v>
+        <v>2141.036467816919</v>
       </c>
       <c r="AB4" t="n">
-        <v>2500.97527187872</v>
+        <v>2929.460551129709</v>
       </c>
       <c r="AC4" t="n">
-        <v>2262.285702071455</v>
+        <v>2649.876947653595</v>
       </c>
       <c r="AD4" t="n">
-        <v>1827872.118003334</v>
+        <v>2141036.46781692</v>
       </c>
       <c r="AE4" t="n">
-        <v>2500975.27187872</v>
+        <v>2929460.551129709</v>
       </c>
       <c r="AF4" t="n">
         <v>2.532585822169905e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>62</v>
+        <v>61.96759259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>2262285.702071454</v>
+        <v>2649876.947653595</v>
       </c>
     </row>
     <row r="5">
@@ -7320,28 +7320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1699.874930819684</v>
+        <v>2003.21659394414</v>
       </c>
       <c r="AB5" t="n">
-        <v>2325.843873536685</v>
+        <v>2740.889319513255</v>
       </c>
       <c r="AC5" t="n">
-        <v>2103.868598588722</v>
+        <v>2479.302689721229</v>
       </c>
       <c r="AD5" t="n">
-        <v>1699874.930819684</v>
+        <v>2003216.59394414</v>
       </c>
       <c r="AE5" t="n">
-        <v>2325843.873536685</v>
+        <v>2740889.319513255</v>
       </c>
       <c r="AF5" t="n">
         <v>2.671446813918779e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>59</v>
+        <v>58.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>2103868.598588722</v>
+        <v>2479302.689721229</v>
       </c>
     </row>
     <row r="6">
@@ -7426,28 +7426,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1624.052521756396</v>
+        <v>1917.605663610504</v>
       </c>
       <c r="AB6" t="n">
-        <v>2222.100308407689</v>
+        <v>2623.752667743087</v>
       </c>
       <c r="AC6" t="n">
-        <v>2010.026173710629</v>
+        <v>2373.345395593684</v>
       </c>
       <c r="AD6" t="n">
-        <v>1624052.521756396</v>
+        <v>1917605.663610504</v>
       </c>
       <c r="AE6" t="n">
-        <v>2222100.308407689</v>
+        <v>2623752.667743087</v>
       </c>
       <c r="AF6" t="n">
         <v>2.757014475826534e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>57</v>
+        <v>56.93287037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>2010026.173710629</v>
+        <v>2373345.395593684</v>
       </c>
     </row>
     <row r="7">
@@ -7532,28 +7532,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1572.421343274094</v>
+        <v>1856.220129276635</v>
       </c>
       <c r="AB7" t="n">
-        <v>2151.456252201368</v>
+        <v>2539.762271528843</v>
       </c>
       <c r="AC7" t="n">
-        <v>1946.124287079084</v>
+        <v>2297.370924912865</v>
       </c>
       <c r="AD7" t="n">
-        <v>1572421.343274094</v>
+        <v>1856220.129276635</v>
       </c>
       <c r="AE7" t="n">
-        <v>2151456.252201369</v>
+        <v>2539762.271528843</v>
       </c>
       <c r="AF7" t="n">
         <v>2.821427533522545e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>56</v>
+        <v>55.625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1946124.287079084</v>
+        <v>2297370.924912865</v>
       </c>
     </row>
     <row r="8">
@@ -7638,28 +7638,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1538.504394074507</v>
+        <v>1822.269014658268</v>
       </c>
       <c r="AB8" t="n">
-        <v>2105.0495859963</v>
+        <v>2493.308858690526</v>
       </c>
       <c r="AC8" t="n">
-        <v>1904.146607964462</v>
+        <v>2255.350960598063</v>
       </c>
       <c r="AD8" t="n">
-        <v>1538504.394074508</v>
+        <v>1822269.014658268</v>
       </c>
       <c r="AE8" t="n">
-        <v>2105049.5859963</v>
+        <v>2493308.858690526</v>
       </c>
       <c r="AF8" t="n">
         <v>2.859397335953878e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>55</v>
+        <v>54.89583333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1904146.607964462</v>
+        <v>2255350.960598063</v>
       </c>
     </row>
     <row r="9">
@@ -7744,28 +7744,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1516.743281476766</v>
+        <v>1790.686226401254</v>
       </c>
       <c r="AB9" t="n">
-        <v>2075.275071707538</v>
+        <v>2450.095894462999</v>
       </c>
       <c r="AC9" t="n">
-        <v>1877.213731530627</v>
+        <v>2216.262181026636</v>
       </c>
       <c r="AD9" t="n">
-        <v>1516743.281476766</v>
+        <v>1790686.226401254</v>
       </c>
       <c r="AE9" t="n">
-        <v>2075275.071707538</v>
+        <v>2450095.894462999</v>
       </c>
       <c r="AF9" t="n">
         <v>2.892892125955803e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>55</v>
+        <v>54.24768518518518</v>
       </c>
       <c r="AH9" t="n">
-        <v>1877213.731530627</v>
+        <v>2216262.181026636</v>
       </c>
     </row>
     <row r="10">
@@ -7850,28 +7850,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1489.35519504181</v>
+        <v>1763.365459774002</v>
       </c>
       <c r="AB10" t="n">
-        <v>2037.801483570133</v>
+        <v>2412.714416256436</v>
       </c>
       <c r="AC10" t="n">
-        <v>1843.316570050544</v>
+        <v>2182.448338634872</v>
       </c>
       <c r="AD10" t="n">
-        <v>1489355.19504181</v>
+        <v>1763365.459774002</v>
       </c>
       <c r="AE10" t="n">
-        <v>2037801.483570133</v>
+        <v>2412714.416256436</v>
       </c>
       <c r="AF10" t="n">
         <v>2.918657349034208e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>54</v>
+        <v>53.77314814814815</v>
       </c>
       <c r="AH10" t="n">
-        <v>1843316.570050544</v>
+        <v>2182448.338634872</v>
       </c>
     </row>
     <row r="11">
@@ -7956,28 +7956,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1474.436260443986</v>
+        <v>1738.624849516906</v>
       </c>
       <c r="AB11" t="n">
-        <v>2017.388739076448</v>
+        <v>2378.863221823986</v>
       </c>
       <c r="AC11" t="n">
-        <v>1824.85198924187</v>
+        <v>2151.827854688605</v>
       </c>
       <c r="AD11" t="n">
-        <v>1474436.260443986</v>
+        <v>1738624.849516906</v>
       </c>
       <c r="AE11" t="n">
-        <v>2017388.739076448</v>
+        <v>2378863.221823986</v>
       </c>
       <c r="AF11" t="n">
         <v>2.939947559683206e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>54</v>
+        <v>53.37962962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>1824851.98924187</v>
+        <v>2151827.854688605</v>
       </c>
     </row>
     <row r="12">
@@ -8062,28 +8062,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1462.692787912899</v>
+        <v>1726.881376985819</v>
       </c>
       <c r="AB12" t="n">
-        <v>2001.320801873971</v>
+        <v>2362.795284621509</v>
       </c>
       <c r="AC12" t="n">
-        <v>1810.317553414505</v>
+        <v>2137.293418861241</v>
       </c>
       <c r="AD12" t="n">
-        <v>1462692.787912899</v>
+        <v>1726881.376985819</v>
       </c>
       <c r="AE12" t="n">
-        <v>2001320.801873971</v>
+        <v>2362795.284621509</v>
       </c>
       <c r="AF12" t="n">
         <v>2.956627151465541e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>54</v>
+        <v>53.09027777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1810317.553414505</v>
+        <v>2137293.418861241</v>
       </c>
     </row>
     <row r="13">
@@ -8168,28 +8168,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1437.848751039571</v>
+        <v>1702.104659920196</v>
       </c>
       <c r="AB13" t="n">
-        <v>1967.328094582332</v>
+        <v>2328.894687260711</v>
       </c>
       <c r="AC13" t="n">
-        <v>1779.569062397716</v>
+        <v>2106.628246932771</v>
       </c>
       <c r="AD13" t="n">
-        <v>1437848.751039571</v>
+        <v>1702104.659920196</v>
       </c>
       <c r="AE13" t="n">
-        <v>1967328.094582332</v>
+        <v>2328894.687260711</v>
       </c>
       <c r="AF13" t="n">
         <v>2.975612052681207e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>53</v>
+        <v>52.74305555555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>1779569.062397716</v>
+        <v>2106628.246932771</v>
       </c>
     </row>
     <row r="14">
@@ -8274,28 +8274,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1429.886709810147</v>
+        <v>1694.142618690771</v>
       </c>
       <c r="AB14" t="n">
-        <v>1956.434078511765</v>
+        <v>2318.000671190144</v>
       </c>
       <c r="AC14" t="n">
-        <v>1769.714755931076</v>
+        <v>2096.773940466132</v>
       </c>
       <c r="AD14" t="n">
-        <v>1429886.709810147</v>
+        <v>1694142.618690771</v>
       </c>
       <c r="AE14" t="n">
-        <v>1956434.078511765</v>
+        <v>2318000.671190144</v>
       </c>
       <c r="AF14" t="n">
         <v>2.984290864665512e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>53</v>
+        <v>52.59259259259259</v>
       </c>
       <c r="AH14" t="n">
-        <v>1769714.755931076</v>
+        <v>2096773.940466131</v>
       </c>
     </row>
     <row r="15">
@@ -8380,28 +8380,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1418.997042973962</v>
+        <v>1683.151466628101</v>
       </c>
       <c r="AB15" t="n">
-        <v>1941.534355928303</v>
+        <v>2302.962092042593</v>
       </c>
       <c r="AC15" t="n">
-        <v>1756.237041959087</v>
+        <v>2083.170622205644</v>
       </c>
       <c r="AD15" t="n">
-        <v>1418997.042973962</v>
+        <v>1683151.466628101</v>
       </c>
       <c r="AE15" t="n">
-        <v>1941534.355928303</v>
+        <v>2302962.092042593</v>
       </c>
       <c r="AF15" t="n">
         <v>2.996359837581185e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>53</v>
+        <v>52.38425925925926</v>
       </c>
       <c r="AH15" t="n">
-        <v>1756237.041959088</v>
+        <v>2083170.622205643</v>
       </c>
     </row>
     <row r="16">
@@ -8486,28 +8486,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1410.10754430909</v>
+        <v>1674.261967963229</v>
       </c>
       <c r="AB16" t="n">
-        <v>1929.371351678022</v>
+        <v>2290.799087792312</v>
       </c>
       <c r="AC16" t="n">
-        <v>1745.23485776357</v>
+        <v>2072.168438010126</v>
       </c>
       <c r="AD16" t="n">
-        <v>1410107.54430909</v>
+        <v>1674261.967963229</v>
       </c>
       <c r="AE16" t="n">
-        <v>1929371.351678022</v>
+        <v>2290799.087792312</v>
       </c>
       <c r="AF16" t="n">
         <v>3.005038649565491e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>53</v>
+        <v>52.2337962962963</v>
       </c>
       <c r="AH16" t="n">
-        <v>1745234.85776357</v>
+        <v>2072168.438010125</v>
       </c>
     </row>
     <row r="17">
@@ -8592,28 +8592,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1399.665746846196</v>
+        <v>1654.099980067548</v>
       </c>
       <c r="AB17" t="n">
-        <v>1915.084423729697</v>
+        <v>2263.212566469312</v>
       </c>
       <c r="AC17" t="n">
-        <v>1732.311454166804</v>
+        <v>2047.214735564267</v>
       </c>
       <c r="AD17" t="n">
-        <v>1399665.746846196</v>
+        <v>1654099.980067548</v>
       </c>
       <c r="AE17" t="n">
-        <v>1915084.423729697</v>
+        <v>2263212.566469312</v>
       </c>
       <c r="AF17" t="n">
         <v>3.015344738796852e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>53</v>
+        <v>52.04861111111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>1732311.454166804</v>
+        <v>2047214.735564267</v>
       </c>
     </row>
     <row r="18">
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1384.920665195438</v>
+        <v>1649.142408657282</v>
       </c>
       <c r="AB18" t="n">
-        <v>1894.909552508039</v>
+        <v>2256.429398553171</v>
       </c>
       <c r="AC18" t="n">
-        <v>1714.062044338932</v>
+        <v>2041.078943673807</v>
       </c>
       <c r="AD18" t="n">
-        <v>1384920.665195438</v>
+        <v>1649142.408657282</v>
       </c>
       <c r="AE18" t="n">
-        <v>1894909.552508039</v>
+        <v>2256429.398553171</v>
       </c>
       <c r="AF18" t="n">
         <v>3.01954853835175e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>52</v>
+        <v>51.97916666666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>1714062.044338932</v>
+        <v>2041078.943673807</v>
       </c>
     </row>
     <row r="19">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1376.051491214085</v>
+        <v>1640.273234675929</v>
       </c>
       <c r="AB19" t="n">
-        <v>1882.774357386411</v>
+        <v>2244.294203431543</v>
       </c>
       <c r="AC19" t="n">
-        <v>1703.085015207858</v>
+        <v>2030.101914542733</v>
       </c>
       <c r="AD19" t="n">
-        <v>1376051.491214085</v>
+        <v>1640273.234675929</v>
       </c>
       <c r="AE19" t="n">
-        <v>1882774.357386411</v>
+        <v>2244294.203431543</v>
       </c>
       <c r="AF19" t="n">
         <v>3.024294763655666e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>52</v>
+        <v>51.89814814814815</v>
       </c>
       <c r="AH19" t="n">
-        <v>1703085.015207858</v>
+        <v>2030101.914542733</v>
       </c>
     </row>
     <row r="20">
@@ -8910,28 +8910,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1368.883322758559</v>
+        <v>1633.105066220402</v>
       </c>
       <c r="AB20" t="n">
-        <v>1872.966553068286</v>
+        <v>2234.486399113418</v>
       </c>
       <c r="AC20" t="n">
-        <v>1694.213253968516</v>
+        <v>2021.230153303391</v>
       </c>
       <c r="AD20" t="n">
-        <v>1368883.322758559</v>
+        <v>1633105.066220402</v>
       </c>
       <c r="AE20" t="n">
-        <v>1872966.553068287</v>
+        <v>2234486.399113418</v>
       </c>
       <c r="AF20" t="n">
         <v>3.0337872142635e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>52</v>
+        <v>51.73611111111111</v>
       </c>
       <c r="AH20" t="n">
-        <v>1694213.253968516</v>
+        <v>2021230.153303391</v>
       </c>
     </row>
     <row r="21">
@@ -9016,28 +9016,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1362.698457506598</v>
+        <v>1626.920200968442</v>
       </c>
       <c r="AB21" t="n">
-        <v>1864.504147573556</v>
+        <v>2226.023993618688</v>
       </c>
       <c r="AC21" t="n">
-        <v>1686.558488577142</v>
+        <v>2013.575387912017</v>
       </c>
       <c r="AD21" t="n">
-        <v>1362698.457506598</v>
+        <v>1626920.200968442</v>
       </c>
       <c r="AE21" t="n">
-        <v>1864504.147573556</v>
+        <v>2226023.993618688</v>
       </c>
       <c r="AF21" t="n">
         <v>3.037041768757613e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>52</v>
+        <v>51.67824074074074</v>
       </c>
       <c r="AH21" t="n">
-        <v>1686558.488577142</v>
+        <v>2013575.387912017</v>
       </c>
     </row>
     <row r="22">
@@ -9122,28 +9122,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1355.768322216161</v>
+        <v>1619.990065678005</v>
       </c>
       <c r="AB22" t="n">
-        <v>1855.022030733189</v>
+        <v>2216.541876778321</v>
       </c>
       <c r="AC22" t="n">
-        <v>1677.981331659785</v>
+        <v>2004.998230994659</v>
       </c>
       <c r="AD22" t="n">
-        <v>1355768.322216161</v>
+        <v>1619990.065678005</v>
       </c>
       <c r="AE22" t="n">
-        <v>1855022.030733189</v>
+        <v>2216541.876778321</v>
       </c>
       <c r="AF22" t="n">
         <v>3.041245568312511e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>52</v>
+        <v>51.6087962962963</v>
       </c>
       <c r="AH22" t="n">
-        <v>1677981.331659785</v>
+        <v>2004998.230994659</v>
       </c>
     </row>
     <row r="23">
@@ -9228,28 +9228,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1345.177339055592</v>
+        <v>1609.297597290951</v>
       </c>
       <c r="AB23" t="n">
-        <v>1840.530980331698</v>
+        <v>2201.91196981274</v>
       </c>
       <c r="AC23" t="n">
-        <v>1664.873286770295</v>
+        <v>1991.764581816671</v>
       </c>
       <c r="AD23" t="n">
-        <v>1345177.339055592</v>
+        <v>1609297.597290951</v>
       </c>
       <c r="AE23" t="n">
-        <v>1840530.980331698</v>
+        <v>2201911.96981274</v>
       </c>
       <c r="AF23" t="n">
         <v>3.047890283737994e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>52</v>
+        <v>51.49305555555556</v>
       </c>
       <c r="AH23" t="n">
-        <v>1664873.286770295</v>
+        <v>1991764.581816671</v>
       </c>
     </row>
     <row r="24">
@@ -9334,28 +9334,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1339.280442496382</v>
+        <v>1593.680510298953</v>
       </c>
       <c r="AB24" t="n">
-        <v>1832.462586306671</v>
+        <v>2180.543982413037</v>
       </c>
       <c r="AC24" t="n">
-        <v>1657.574928946954</v>
+        <v>1972.435925144237</v>
       </c>
       <c r="AD24" t="n">
-        <v>1339280.442496381</v>
+        <v>1593680.510298953</v>
       </c>
       <c r="AE24" t="n">
-        <v>1832462.586306671</v>
+        <v>2180543.982413037</v>
       </c>
       <c r="AF24" t="n">
         <v>3.051551657543874e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>52</v>
+        <v>51.43518518518518</v>
       </c>
       <c r="AH24" t="n">
-        <v>1657574.928946954</v>
+        <v>1972435.925144237</v>
       </c>
     </row>
     <row r="25">
@@ -9440,28 +9440,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1334.625677349645</v>
+        <v>1589.025745152217</v>
       </c>
       <c r="AB25" t="n">
-        <v>1826.093731279161</v>
+        <v>2174.175127385528</v>
       </c>
       <c r="AC25" t="n">
-        <v>1651.813908504525</v>
+        <v>1966.674904701808</v>
       </c>
       <c r="AD25" t="n">
-        <v>1334625.677349645</v>
+        <v>1589025.745152217</v>
       </c>
       <c r="AE25" t="n">
-        <v>1826093.731279161</v>
+        <v>2174175.127385527</v>
       </c>
       <c r="AF25" t="n">
         <v>3.050873625357599e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>52</v>
+        <v>51.44675925925927</v>
       </c>
       <c r="AH25" t="n">
-        <v>1651813.908504525</v>
+        <v>1966674.904701808</v>
       </c>
     </row>
     <row r="26">
@@ -9546,28 +9546,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1331.897824940248</v>
+        <v>1586.297892742819</v>
       </c>
       <c r="AB26" t="n">
-        <v>1822.361363268268</v>
+        <v>2170.442759374635</v>
       </c>
       <c r="AC26" t="n">
-        <v>1648.437752458181</v>
+        <v>1963.298748655464</v>
       </c>
       <c r="AD26" t="n">
-        <v>1331897.824940247</v>
+        <v>1586297.892742819</v>
       </c>
       <c r="AE26" t="n">
-        <v>1822361.363268268</v>
+        <v>2170442.759374635</v>
       </c>
       <c r="AF26" t="n">
         <v>3.056569095722299e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>52</v>
+        <v>51.34259259259259</v>
       </c>
       <c r="AH26" t="n">
-        <v>1648437.752458181</v>
+        <v>1963298.748655464</v>
       </c>
     </row>
     <row r="27">
@@ -9652,28 +9652,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1331.829090685154</v>
+        <v>1586.229158487726</v>
       </c>
       <c r="AB27" t="n">
-        <v>1822.267318028109</v>
+        <v>2170.348714134475</v>
       </c>
       <c r="AC27" t="n">
-        <v>1648.352682763749</v>
+        <v>1963.213678961032</v>
       </c>
       <c r="AD27" t="n">
-        <v>1331829.090685154</v>
+        <v>1586229.158487726</v>
       </c>
       <c r="AE27" t="n">
-        <v>1822267.318028108</v>
+        <v>2170348.714134475</v>
       </c>
       <c r="AF27" t="n">
         <v>3.054534999163478e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>52</v>
+        <v>51.37731481481482</v>
       </c>
       <c r="AH27" t="n">
-        <v>1648352.682763749</v>
+        <v>1963213.678961032</v>
       </c>
     </row>
     <row r="28">
@@ -9758,28 +9758,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>1334.678525363658</v>
+        <v>1589.07859316623</v>
       </c>
       <c r="AB28" t="n">
-        <v>1826.166040263423</v>
+        <v>2174.24743636979</v>
       </c>
       <c r="AC28" t="n">
-        <v>1651.879316420816</v>
+        <v>1966.740312618099</v>
       </c>
       <c r="AD28" t="n">
-        <v>1334678.525363658</v>
+        <v>1589078.59316623</v>
       </c>
       <c r="AE28" t="n">
-        <v>1826166.040263423</v>
+        <v>2174247.43636979</v>
       </c>
       <c r="AF28" t="n">
         <v>3.054399392726223e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>52</v>
+        <v>51.38888888888889</v>
       </c>
       <c r="AH28" t="n">
-        <v>1651879.316420816</v>
+        <v>1966740.312618099</v>
       </c>
     </row>
     <row r="29">
@@ -9864,28 +9864,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>1338.01807254163</v>
+        <v>1592.418140344201</v>
       </c>
       <c r="AB29" t="n">
-        <v>1830.735356042747</v>
+        <v>2178.816752149114</v>
       </c>
       <c r="AC29" t="n">
-        <v>1656.012543115237</v>
+        <v>1970.873539312519</v>
       </c>
       <c r="AD29" t="n">
-        <v>1338018.07254163</v>
+        <v>1592418.140344201</v>
       </c>
       <c r="AE29" t="n">
-        <v>1830735.356042747</v>
+        <v>2178816.752149113</v>
       </c>
       <c r="AF29" t="n">
         <v>3.054399392726223e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>52</v>
+        <v>51.38888888888889</v>
       </c>
       <c r="AH29" t="n">
-        <v>1656012.543115237</v>
+        <v>1970873.539312519</v>
       </c>
     </row>
   </sheetData>
@@ -10161,28 +10161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2681.511550474224</v>
+        <v>3107.285897014935</v>
       </c>
       <c r="AB2" t="n">
-        <v>3668.962403299459</v>
+        <v>4251.525648074966</v>
       </c>
       <c r="AC2" t="n">
-        <v>3318.801780949495</v>
+        <v>3845.766007276254</v>
       </c>
       <c r="AD2" t="n">
-        <v>2681511.550474224</v>
+        <v>3107285.897014935</v>
       </c>
       <c r="AE2" t="n">
-        <v>3668962.403299459</v>
+        <v>4251525.648074966</v>
       </c>
       <c r="AF2" t="n">
         <v>2.015127150210137e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>86</v>
+        <v>85.2199074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>3318801.780949495</v>
+        <v>3845766.007276254</v>
       </c>
     </row>
     <row r="3">
@@ -10267,28 +10267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1802.610897940976</v>
+        <v>2121.933369249278</v>
       </c>
       <c r="AB3" t="n">
-        <v>2466.411756143026</v>
+        <v>2903.322848900232</v>
       </c>
       <c r="AC3" t="n">
-        <v>2231.020879767376</v>
+        <v>2626.233791040404</v>
       </c>
       <c r="AD3" t="n">
-        <v>1802610.897940976</v>
+        <v>2121933.369249278</v>
       </c>
       <c r="AE3" t="n">
-        <v>2466411.756143026</v>
+        <v>2903322.848900232</v>
       </c>
       <c r="AF3" t="n">
         <v>2.662798898289605e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>65</v>
+        <v>64.49074074074075</v>
       </c>
       <c r="AH3" t="n">
-        <v>2231020.879767376</v>
+        <v>2626233.791040404</v>
       </c>
     </row>
     <row r="4">
@@ -10373,28 +10373,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1597.851684038978</v>
+        <v>1888.166673315736</v>
       </c>
       <c r="AB4" t="n">
-        <v>2186.251166343337</v>
+        <v>2583.472942465196</v>
       </c>
       <c r="AC4" t="n">
-        <v>1977.598423450312</v>
+        <v>2336.909910763364</v>
       </c>
       <c r="AD4" t="n">
-        <v>1597851.684038978</v>
+        <v>1888166.673315736</v>
       </c>
       <c r="AE4" t="n">
-        <v>2186251.166343337</v>
+        <v>2583472.942465195</v>
       </c>
       <c r="AF4" t="n">
         <v>2.906584621564419e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>60</v>
+        <v>59.08564814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>1977598.423450312</v>
+        <v>2336909.910763364</v>
       </c>
     </row>
     <row r="5">
@@ -10479,28 +10479,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1496.429316590343</v>
+        <v>1777.131076524697</v>
       </c>
       <c r="AB5" t="n">
-        <v>2047.480608761053</v>
+        <v>2431.549140390888</v>
       </c>
       <c r="AC5" t="n">
-        <v>1852.07193311798</v>
+        <v>2199.485503132633</v>
       </c>
       <c r="AD5" t="n">
-        <v>1496429.316590343</v>
+        <v>1777131.076524697</v>
       </c>
       <c r="AE5" t="n">
-        <v>2047480.608761053</v>
+        <v>2431549.140390888</v>
       </c>
       <c r="AF5" t="n">
         <v>3.035525457550915e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>57</v>
+        <v>56.57407407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>1852071.93311798</v>
+        <v>2199485.503132633</v>
       </c>
     </row>
     <row r="6">
@@ -10585,28 +10585,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1445.038581055609</v>
+        <v>1715.992472032152</v>
       </c>
       <c r="AB6" t="n">
-        <v>1977.165537203189</v>
+        <v>2347.896604479318</v>
       </c>
       <c r="AC6" t="n">
-        <v>1788.467633301776</v>
+        <v>2123.816647841392</v>
       </c>
       <c r="AD6" t="n">
-        <v>1445038.58105561</v>
+        <v>1715992.472032152</v>
       </c>
       <c r="AE6" t="n">
-        <v>1977165.537203189</v>
+        <v>2347896.604479318</v>
       </c>
       <c r="AF6" t="n">
         <v>3.112385472557826e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>56</v>
+        <v>55.17361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1788467.633301776</v>
+        <v>2123816.647841392</v>
       </c>
     </row>
     <row r="7">
@@ -10691,28 +10691,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1404.487422402588</v>
+        <v>1675.407147960349</v>
       </c>
       <c r="AB7" t="n">
-        <v>1921.681652943266</v>
+        <v>2292.365973586147</v>
       </c>
       <c r="AC7" t="n">
-        <v>1738.2790530835</v>
+        <v>2073.585782422936</v>
       </c>
       <c r="AD7" t="n">
-        <v>1404487.422402588</v>
+        <v>1675407.147960349</v>
       </c>
       <c r="AE7" t="n">
-        <v>1921681.652943266</v>
+        <v>2292365.973586147</v>
       </c>
       <c r="AF7" t="n">
         <v>3.169362780979937e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>54.18981481481482</v>
       </c>
       <c r="AH7" t="n">
-        <v>1738279.0530835</v>
+        <v>2073585.782422936</v>
       </c>
     </row>
     <row r="8">
@@ -10797,28 +10797,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1373.292094557559</v>
+        <v>1644.279139923025</v>
       </c>
       <c r="AB8" t="n">
-        <v>1878.998829144963</v>
+        <v>2249.775259718685</v>
       </c>
       <c r="AC8" t="n">
-        <v>1699.669818082787</v>
+        <v>2035.059866510542</v>
       </c>
       <c r="AD8" t="n">
-        <v>1373292.094557559</v>
+        <v>1644279.139923024</v>
       </c>
       <c r="AE8" t="n">
-        <v>1878998.829144963</v>
+        <v>2249775.259718685</v>
       </c>
       <c r="AF8" t="n">
         <v>3.205863869187852e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>54</v>
+        <v>53.56481481481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>1699669.818082787</v>
+        <v>2035059.866510542</v>
       </c>
     </row>
     <row r="9">
@@ -10903,28 +10903,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1354.368330157083</v>
+        <v>1615.641671983517</v>
       </c>
       <c r="AB9" t="n">
-        <v>1853.106499834668</v>
+        <v>2210.592212687932</v>
       </c>
       <c r="AC9" t="n">
-        <v>1676.248616341754</v>
+        <v>1999.616394494652</v>
       </c>
       <c r="AD9" t="n">
-        <v>1354368.330157083</v>
+        <v>1615641.671983517</v>
       </c>
       <c r="AE9" t="n">
-        <v>1853106.499834668</v>
+        <v>2210592.212687932</v>
       </c>
       <c r="AF9" t="n">
         <v>3.235687929065051e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>54</v>
+        <v>53.0787037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>1676248.616341754</v>
+        <v>1999616.394494652</v>
       </c>
     </row>
     <row r="10">
@@ -11009,28 +11009,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1329.154538466488</v>
+        <v>1590.495200100626</v>
       </c>
       <c r="AB10" t="n">
-        <v>1818.607877689612</v>
+        <v>2176.185700473717</v>
       </c>
       <c r="AC10" t="n">
-        <v>1645.042494275102</v>
+        <v>1968.493591516318</v>
       </c>
       <c r="AD10" t="n">
-        <v>1329154.538466488</v>
+        <v>1590495.200100626</v>
       </c>
       <c r="AE10" t="n">
-        <v>1818607.877689612</v>
+        <v>2176185.700473717</v>
       </c>
       <c r="AF10" t="n">
         <v>3.258834960611533e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>53</v>
+        <v>52.69675925925927</v>
       </c>
       <c r="AH10" t="n">
-        <v>1645042.494275102</v>
+        <v>1968493.591516318</v>
       </c>
     </row>
     <row r="11">
@@ -11115,28 +11115,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1312.816337601454</v>
+        <v>1574.055514009107</v>
       </c>
       <c r="AB11" t="n">
-        <v>1796.253230475522</v>
+        <v>2153.692196695538</v>
       </c>
       <c r="AC11" t="n">
-        <v>1624.82134321618</v>
+        <v>1948.146836168897</v>
       </c>
       <c r="AD11" t="n">
-        <v>1312816.337601454</v>
+        <v>1574055.514009107</v>
       </c>
       <c r="AE11" t="n">
-        <v>1796253.230475522</v>
+        <v>2153692.196695538</v>
       </c>
       <c r="AF11" t="n">
         <v>3.280646586491873e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>53</v>
+        <v>52.34953703703704</v>
       </c>
       <c r="AH11" t="n">
-        <v>1624821.34321618</v>
+        <v>1948146.836168897</v>
       </c>
     </row>
     <row r="12">
@@ -11221,28 +11221,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1303.80780486889</v>
+        <v>1565.046981276543</v>
       </c>
       <c r="AB12" t="n">
-        <v>1783.927358562413</v>
+        <v>2141.366324782429</v>
       </c>
       <c r="AC12" t="n">
-        <v>1613.671835218988</v>
+        <v>1936.997328171706</v>
       </c>
       <c r="AD12" t="n">
-        <v>1303807.80486889</v>
+        <v>1565046.981276543</v>
       </c>
       <c r="AE12" t="n">
-        <v>1783927.358562413</v>
+        <v>2141366.324782429</v>
       </c>
       <c r="AF12" t="n">
         <v>3.29311037270921e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>53</v>
+        <v>52.15277777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1613671.835218988</v>
+        <v>1936997.328171706</v>
       </c>
     </row>
     <row r="13">
@@ -11327,28 +11327,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1281.424762042339</v>
+        <v>1542.731258257696</v>
       </c>
       <c r="AB13" t="n">
-        <v>1753.301891896968</v>
+        <v>2110.832968047825</v>
       </c>
       <c r="AC13" t="n">
-        <v>1585.969220108981</v>
+        <v>1909.378032150018</v>
       </c>
       <c r="AD13" t="n">
-        <v>1281424.762042339</v>
+        <v>1542731.258257696</v>
       </c>
       <c r="AE13" t="n">
-        <v>1753301.891896968</v>
+        <v>2110832.968047826</v>
       </c>
       <c r="AF13" t="n">
         <v>3.307503078222087e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>52</v>
+        <v>51.9212962962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>1585969.220108981</v>
+        <v>1909378.032150018</v>
       </c>
     </row>
     <row r="14">
@@ -11433,28 +11433,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1266.951083370485</v>
+        <v>1528.257579585843</v>
       </c>
       <c r="AB14" t="n">
-        <v>1733.4983662045</v>
+        <v>2091.029442355358</v>
       </c>
       <c r="AC14" t="n">
-        <v>1568.05571511418</v>
+        <v>1891.464527155216</v>
       </c>
       <c r="AD14" t="n">
-        <v>1266951.083370485</v>
+        <v>1528257.579585843</v>
       </c>
       <c r="AE14" t="n">
-        <v>1733498.3662045</v>
+        <v>2091029.442355358</v>
       </c>
       <c r="AF14" t="n">
         <v>3.321599026920265e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>52</v>
+        <v>51.70138888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>1568055.71511418</v>
+        <v>1891464.527155216</v>
       </c>
     </row>
     <row r="15">
@@ -11539,28 +11539,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1258.134247397807</v>
+        <v>1519.440743613164</v>
       </c>
       <c r="AB15" t="n">
-        <v>1721.434782255331</v>
+        <v>2078.965858406189</v>
       </c>
       <c r="AC15" t="n">
-        <v>1557.143462685773</v>
+        <v>1880.552274726809</v>
       </c>
       <c r="AD15" t="n">
-        <v>1258134.247397807</v>
+        <v>1519440.743613164</v>
       </c>
       <c r="AE15" t="n">
-        <v>1721434.782255331</v>
+        <v>2078965.858406188</v>
       </c>
       <c r="AF15" t="n">
         <v>3.328276055250982e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>52</v>
+        <v>51.59722222222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>1557143.462685773</v>
+        <v>1880552.274726809</v>
       </c>
     </row>
     <row r="16">
@@ -11645,28 +11645,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1246.975673356519</v>
+        <v>1508.282169571877</v>
       </c>
       <c r="AB16" t="n">
-        <v>1706.167128970498</v>
+        <v>2063.698205121355</v>
       </c>
       <c r="AC16" t="n">
-        <v>1543.332932802158</v>
+        <v>1866.741744843195</v>
       </c>
       <c r="AD16" t="n">
-        <v>1246975.673356519</v>
+        <v>1508282.169571877</v>
       </c>
       <c r="AE16" t="n">
-        <v>1706167.128970498</v>
+        <v>2063698.205121356</v>
       </c>
       <c r="AF16" t="n">
         <v>3.334211191544952e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>52</v>
+        <v>51.50462962962963</v>
       </c>
       <c r="AH16" t="n">
-        <v>1543332.932802158</v>
+        <v>1866741.744843195</v>
       </c>
     </row>
     <row r="17">
@@ -11751,28 +11751,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1238.240915614989</v>
+        <v>1489.833708291314</v>
       </c>
       <c r="AB17" t="n">
-        <v>1694.215848078221</v>
+        <v>2038.45620650862</v>
       </c>
       <c r="AC17" t="n">
-        <v>1532.522265384513</v>
+        <v>1843.908807150691</v>
       </c>
       <c r="AD17" t="n">
-        <v>1238240.915614989</v>
+        <v>1489833.708291315</v>
       </c>
       <c r="AE17" t="n">
-        <v>1694215.848078221</v>
+        <v>2038456.20650862</v>
       </c>
       <c r="AF17" t="n">
         <v>3.344004166430002e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>52</v>
+        <v>51.35416666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>1532522.265384512</v>
+        <v>1843908.807150692</v>
       </c>
     </row>
     <row r="18">
@@ -11857,28 +11857,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1230.999778265161</v>
+        <v>1482.592570941486</v>
       </c>
       <c r="AB18" t="n">
-        <v>1684.308204499752</v>
+        <v>2028.548562930151</v>
       </c>
       <c r="AC18" t="n">
-        <v>1523.560193403707</v>
+        <v>1834.946735169886</v>
       </c>
       <c r="AD18" t="n">
-        <v>1230999.778265161</v>
+        <v>1482592.570941486</v>
       </c>
       <c r="AE18" t="n">
-        <v>1684308.204499752</v>
+        <v>2028548.562930151</v>
       </c>
       <c r="AF18" t="n">
         <v>3.34637822094759e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>52</v>
+        <v>51.31944444444445</v>
       </c>
       <c r="AH18" t="n">
-        <v>1523560.193403707</v>
+        <v>1834946.735169886</v>
       </c>
     </row>
     <row r="19">
@@ -11963,28 +11963,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1226.38026062916</v>
+        <v>1477.973053305486</v>
       </c>
       <c r="AB19" t="n">
-        <v>1677.987576671442</v>
+        <v>2022.227935101841</v>
       </c>
       <c r="AC19" t="n">
-        <v>1517.842797424274</v>
+        <v>1829.229339190453</v>
       </c>
       <c r="AD19" t="n">
-        <v>1226380.26062916</v>
+        <v>1477973.053305486</v>
       </c>
       <c r="AE19" t="n">
-        <v>1677987.576671442</v>
+        <v>2022227.935101841</v>
       </c>
       <c r="AF19" t="n">
         <v>3.350532816353369e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>52</v>
+        <v>51.26157407407408</v>
       </c>
       <c r="AH19" t="n">
-        <v>1517842.797424274</v>
+        <v>1829229.339190453</v>
       </c>
     </row>
     <row r="20">
@@ -12069,28 +12069,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1230.249927461636</v>
+        <v>1481.842720137962</v>
       </c>
       <c r="AB20" t="n">
-        <v>1683.282225549288</v>
+        <v>2027.522583979686</v>
       </c>
       <c r="AC20" t="n">
-        <v>1522.632132444304</v>
+        <v>1834.018674210484</v>
       </c>
       <c r="AD20" t="n">
-        <v>1230249.927461636</v>
+        <v>1481842.720137962</v>
       </c>
       <c r="AE20" t="n">
-        <v>1683282.225549288</v>
+        <v>2027522.583979686</v>
       </c>
       <c r="AF20" t="n">
         <v>3.349790924316623e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>52</v>
+        <v>51.26157407407408</v>
       </c>
       <c r="AH20" t="n">
-        <v>1522632.132444304</v>
+        <v>1834018.674210484</v>
       </c>
     </row>
   </sheetData>
@@ -12366,28 +12366,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1402.627998153715</v>
+        <v>1711.290564727129</v>
       </c>
       <c r="AB2" t="n">
-        <v>1919.13750665395</v>
+        <v>2341.463247471076</v>
       </c>
       <c r="AC2" t="n">
-        <v>1735.977716545305</v>
+        <v>2117.997281396744</v>
       </c>
       <c r="AD2" t="n">
-        <v>1402627.998153715</v>
+        <v>1711290.564727129</v>
       </c>
       <c r="AE2" t="n">
-        <v>1919137.50665395</v>
+        <v>2341463.247471076</v>
       </c>
       <c r="AF2" t="n">
         <v>3.74796268441346e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.95833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1735977.716545305</v>
+        <v>2117997.281396744</v>
       </c>
     </row>
     <row r="3">
@@ -12472,28 +12472,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1146.364076387634</v>
+        <v>1417.604716002141</v>
       </c>
       <c r="AB3" t="n">
-        <v>1568.505903327276</v>
+        <v>1939.629312740326</v>
       </c>
       <c r="AC3" t="n">
-        <v>1418.809901325582</v>
+        <v>1754.513813419227</v>
       </c>
       <c r="AD3" t="n">
-        <v>1146364.076387634</v>
+        <v>1417604.716002141</v>
       </c>
       <c r="AE3" t="n">
-        <v>1568505.903327276</v>
+        <v>1939629.312740326</v>
       </c>
       <c r="AF3" t="n">
         <v>4.298238246798749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.76388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1418809.901325582</v>
+        <v>1754513.813419227</v>
       </c>
     </row>
     <row r="4">
@@ -12578,28 +12578,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1068.740063113415</v>
+        <v>1321.236584859545</v>
       </c>
       <c r="AB4" t="n">
-        <v>1462.297303835715</v>
+        <v>1807.774184249135</v>
       </c>
       <c r="AC4" t="n">
-        <v>1322.73770150479</v>
+        <v>1635.242753331399</v>
       </c>
       <c r="AD4" t="n">
-        <v>1068740.063113415</v>
+        <v>1321236.584859546</v>
       </c>
       <c r="AE4" t="n">
-        <v>1462297.303835715</v>
+        <v>1807774.184249135</v>
       </c>
       <c r="AF4" t="n">
         <v>4.488566903867654e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.40277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1322737.70150479</v>
+        <v>1635242.753331399</v>
       </c>
     </row>
     <row r="5">
@@ -12684,28 +12684,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1022.373327632005</v>
+        <v>1274.835683959355</v>
       </c>
       <c r="AB5" t="n">
-        <v>1398.85629079405</v>
+        <v>1744.286424574221</v>
       </c>
       <c r="AC5" t="n">
-        <v>1265.3514097078</v>
+        <v>1577.814176334229</v>
       </c>
       <c r="AD5" t="n">
-        <v>1022373.327632005</v>
+        <v>1274835.683959355</v>
       </c>
       <c r="AE5" t="n">
-        <v>1398856.29079405</v>
+        <v>1744286.424574221</v>
       </c>
       <c r="AF5" t="n">
         <v>4.58859817847514e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.2337962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>1265351.4097078</v>
+        <v>1577814.176334229</v>
       </c>
     </row>
     <row r="6">
@@ -12790,28 +12790,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>988.073638909447</v>
+        <v>1240.603315044502</v>
       </c>
       <c r="AB6" t="n">
-        <v>1351.925943488375</v>
+        <v>1697.448187199388</v>
       </c>
       <c r="AC6" t="n">
-        <v>1222.900028881823</v>
+        <v>1535.446114596571</v>
       </c>
       <c r="AD6" t="n">
-        <v>988073.638909447</v>
+        <v>1240603.315044502</v>
       </c>
       <c r="AE6" t="n">
-        <v>1351925.943488375</v>
+        <v>1697448.187199388</v>
       </c>
       <c r="AF6" t="n">
         <v>4.640167096440492e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.6550925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>1222900.028881823</v>
+        <v>1535446.114596571</v>
       </c>
     </row>
     <row r="7">
@@ -12896,28 +12896,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>988.7024543855621</v>
+        <v>1241.232130520617</v>
       </c>
       <c r="AB7" t="n">
-        <v>1352.786316564177</v>
+        <v>1698.308560275189</v>
       </c>
       <c r="AC7" t="n">
-        <v>1223.678289158811</v>
+        <v>1536.22437487356</v>
       </c>
       <c r="AD7" t="n">
-        <v>988702.4543855621</v>
+        <v>1241232.130520617</v>
       </c>
       <c r="AE7" t="n">
-        <v>1352786.316564177</v>
+        <v>1698308.560275189</v>
       </c>
       <c r="AF7" t="n">
         <v>4.64782994770442e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>52</v>
+        <v>51.57407407407408</v>
       </c>
       <c r="AH7" t="n">
-        <v>1223678.289158811</v>
+        <v>1536224.374873559</v>
       </c>
     </row>
   </sheetData>
@@ -13193,28 +13193,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1780.127731458065</v>
+        <v>2121.364605438039</v>
       </c>
       <c r="AB2" t="n">
-        <v>2435.649295873807</v>
+        <v>2902.544641161607</v>
       </c>
       <c r="AC2" t="n">
-        <v>2203.194345530867</v>
+        <v>2625.529854356133</v>
       </c>
       <c r="AD2" t="n">
-        <v>1780127.731458066</v>
+        <v>2121364.605438039</v>
       </c>
       <c r="AE2" t="n">
-        <v>2435649.295873807</v>
+        <v>2902544.641161607</v>
       </c>
       <c r="AF2" t="n">
         <v>2.953389061105387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.28935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>2203194.345530867</v>
+        <v>2625529.854356132</v>
       </c>
     </row>
     <row r="3">
@@ -13299,28 +13299,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1365.404681332636</v>
+        <v>1649.847619768222</v>
       </c>
       <c r="AB3" t="n">
-        <v>1868.206922402511</v>
+        <v>2257.394299506878</v>
       </c>
       <c r="AC3" t="n">
-        <v>1689.907875773299</v>
+        <v>2041.951755834739</v>
       </c>
       <c r="AD3" t="n">
-        <v>1365404.681332636</v>
+        <v>1649847.619768222</v>
       </c>
       <c r="AE3" t="n">
-        <v>1868206.922402511</v>
+        <v>2257394.299506878</v>
       </c>
       <c r="AF3" t="n">
         <v>3.546864764220571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.53009259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>1689907.875773299</v>
+        <v>2041951.755834739</v>
       </c>
     </row>
     <row r="4">
@@ -13405,28 +13405,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1254.505270859371</v>
+        <v>1519.915749230295</v>
       </c>
       <c r="AB4" t="n">
-        <v>1716.469456456298</v>
+        <v>2079.615782047316</v>
       </c>
       <c r="AC4" t="n">
-        <v>1552.652020612121</v>
+        <v>1881.140170567801</v>
       </c>
       <c r="AD4" t="n">
-        <v>1254505.270859371</v>
+        <v>1519915.749230295</v>
       </c>
       <c r="AE4" t="n">
-        <v>1716469.456456298</v>
+        <v>2079615.782047316</v>
       </c>
       <c r="AF4" t="n">
         <v>3.755989173356957e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>55.2662037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1552652.020612121</v>
+        <v>1881140.170567801</v>
       </c>
     </row>
     <row r="5">
@@ -13511,28 +13511,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1190.126393013914</v>
+        <v>1455.570025773761</v>
       </c>
       <c r="AB5" t="n">
-        <v>1628.383435592503</v>
+        <v>1991.575124481114</v>
       </c>
       <c r="AC5" t="n">
-        <v>1472.97280595006</v>
+        <v>1801.501989793879</v>
       </c>
       <c r="AD5" t="n">
-        <v>1190126.393013914</v>
+        <v>1455570.025773761</v>
       </c>
       <c r="AE5" t="n">
-        <v>1628383.435592503</v>
+        <v>1991575.124481114</v>
       </c>
       <c r="AF5" t="n">
         <v>3.870236384866287e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>54</v>
+        <v>53.63425925925927</v>
       </c>
       <c r="AH5" t="n">
-        <v>1472972.80595006</v>
+        <v>1801501.989793879</v>
       </c>
     </row>
     <row r="6">
@@ -13617,28 +13617,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1151.099157225678</v>
+        <v>1407.094385275827</v>
       </c>
       <c r="AB6" t="n">
-        <v>1574.984649826912</v>
+        <v>1925.248614557517</v>
       </c>
       <c r="AC6" t="n">
-        <v>1424.67032535227</v>
+        <v>1741.505588887548</v>
       </c>
       <c r="AD6" t="n">
-        <v>1151099.157225678</v>
+        <v>1407094.385275827</v>
       </c>
       <c r="AE6" t="n">
-        <v>1574984.649826912</v>
+        <v>1925248.614557517</v>
       </c>
       <c r="AF6" t="n">
         <v>3.93534115374837e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>53</v>
+        <v>52.75462962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>1424670.32535227</v>
+        <v>1741505.588887548</v>
       </c>
     </row>
     <row r="7">
@@ -13723,28 +13723,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1129.00128543701</v>
+        <v>1384.895028260673</v>
       </c>
       <c r="AB7" t="n">
-        <v>1544.749366756357</v>
+        <v>1894.874474922873</v>
       </c>
       <c r="AC7" t="n">
-        <v>1397.320655262482</v>
+        <v>1714.030314509261</v>
       </c>
       <c r="AD7" t="n">
-        <v>1129001.28543701</v>
+        <v>1384895.028260673</v>
       </c>
       <c r="AE7" t="n">
-        <v>1544749.366756357</v>
+        <v>1894874.474922873</v>
       </c>
       <c r="AF7" t="n">
         <v>3.980358500826614e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>53</v>
+        <v>52.15277777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1397320.655262482</v>
+        <v>1714030.314509261</v>
       </c>
     </row>
     <row r="8">
@@ -13829,28 +13829,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1095.907497412601</v>
+        <v>1351.868560043969</v>
       </c>
       <c r="AB8" t="n">
-        <v>1499.468985986474</v>
+        <v>1849.686204083831</v>
       </c>
       <c r="AC8" t="n">
-        <v>1356.361770481863</v>
+        <v>1673.154748816962</v>
       </c>
       <c r="AD8" t="n">
-        <v>1095907.497412601</v>
+        <v>1351868.560043969</v>
       </c>
       <c r="AE8" t="n">
-        <v>1499468.985986474</v>
+        <v>1849686.204083831</v>
       </c>
       <c r="AF8" t="n">
         <v>4.016408248885287e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>52</v>
+        <v>51.68981481481481</v>
       </c>
       <c r="AH8" t="n">
-        <v>1356361.770481864</v>
+        <v>1673154.748816962</v>
       </c>
     </row>
     <row r="9">
@@ -13935,28 +13935,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1080.93639366986</v>
+        <v>1327.381731783826</v>
       </c>
       <c r="AB9" t="n">
-        <v>1478.984861367173</v>
+        <v>1816.182245375684</v>
       </c>
       <c r="AC9" t="n">
-        <v>1337.83262196658</v>
+        <v>1642.848360904818</v>
       </c>
       <c r="AD9" t="n">
-        <v>1080936.39366986</v>
+        <v>1327381.731783826</v>
       </c>
       <c r="AE9" t="n">
-        <v>1478984.861367173</v>
+        <v>1816182.245375684</v>
       </c>
       <c r="AF9" t="n">
         <v>4.037571782571474e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>52</v>
+        <v>51.41203703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>1337832.62196658</v>
+        <v>1642848.360904818</v>
       </c>
     </row>
     <row r="10">
@@ -14041,28 +14041,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1074.700359537738</v>
+        <v>1321.145697651703</v>
       </c>
       <c r="AB10" t="n">
-        <v>1470.452444353194</v>
+        <v>1807.649828361704</v>
       </c>
       <c r="AC10" t="n">
-        <v>1330.114526857092</v>
+        <v>1635.130265795331</v>
       </c>
       <c r="AD10" t="n">
-        <v>1074700.359537737</v>
+        <v>1321145.697651703</v>
       </c>
       <c r="AE10" t="n">
-        <v>1470452.444353194</v>
+        <v>1807649.828361704</v>
       </c>
       <c r="AF10" t="n">
         <v>4.045283917728305e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>52</v>
+        <v>51.31944444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>1330114.526857092</v>
+        <v>1635130.265795331</v>
       </c>
     </row>
     <row r="11">
@@ -14147,28 +14147,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1078.071705535924</v>
+        <v>1324.51704364989</v>
       </c>
       <c r="AB11" t="n">
-        <v>1475.065268681201</v>
+        <v>1812.262652689711</v>
       </c>
       <c r="AC11" t="n">
-        <v>1334.287109705373</v>
+        <v>1639.302848643612</v>
       </c>
       <c r="AD11" t="n">
-        <v>1078071.705535924</v>
+        <v>1324517.04364989</v>
       </c>
       <c r="AE11" t="n">
-        <v>1475065.268681201</v>
+        <v>1812262.652689711</v>
       </c>
       <c r="AF11" t="n">
         <v>4.045104565747913e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>52</v>
+        <v>51.31944444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>1334287.109705373</v>
+        <v>1639302.848643612</v>
       </c>
     </row>
   </sheetData>
@@ -14444,28 +14444,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1164.86041088612</v>
+        <v>1451.580618975051</v>
       </c>
       <c r="AB2" t="n">
-        <v>1593.813404188794</v>
+        <v>1986.116642098913</v>
       </c>
       <c r="AC2" t="n">
-        <v>1441.702089824177</v>
+        <v>1796.564457309207</v>
       </c>
       <c r="AD2" t="n">
-        <v>1164860.41088612</v>
+        <v>1451580.618975051</v>
       </c>
       <c r="AE2" t="n">
-        <v>1593813.404188794</v>
+        <v>1986116.642098913</v>
       </c>
       <c r="AF2" t="n">
         <v>4.57909185949717e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.9537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1441702.089824177</v>
+        <v>1796564.457309207</v>
       </c>
     </row>
     <row r="3">
@@ -14550,28 +14550,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>984.9835944149053</v>
+        <v>1243.950072930305</v>
       </c>
       <c r="AB3" t="n">
-        <v>1347.698008287801</v>
+        <v>1702.027368987281</v>
       </c>
       <c r="AC3" t="n">
-        <v>1219.075601882847</v>
+        <v>1539.58826570155</v>
       </c>
       <c r="AD3" t="n">
-        <v>984983.5944149053</v>
+        <v>1243950.072930305</v>
       </c>
       <c r="AE3" t="n">
-        <v>1347698.008287801</v>
+        <v>1702027.368987281</v>
       </c>
       <c r="AF3" t="n">
         <v>5.095496903950409e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.87731481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>1219075.601882847</v>
+        <v>1539588.26570155</v>
       </c>
     </row>
     <row r="4">
@@ -14656,28 +14656,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>931.7755094333063</v>
+        <v>1181.423424949824</v>
       </c>
       <c r="AB4" t="n">
-        <v>1274.896359040938</v>
+        <v>1616.475650739362</v>
       </c>
       <c r="AC4" t="n">
-        <v>1153.222039862348</v>
+        <v>1462.201483370622</v>
       </c>
       <c r="AD4" t="n">
-        <v>931775.5094333063</v>
+        <v>1181423.424949824</v>
       </c>
       <c r="AE4" t="n">
-        <v>1274896.359040938</v>
+        <v>1616475.650739362</v>
       </c>
       <c r="AF4" t="n">
         <v>5.255376095480719e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.24537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1153222.039862348</v>
+        <v>1462201.483370622</v>
       </c>
     </row>
     <row r="5">
@@ -14762,28 +14762,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>930.5630901984484</v>
+        <v>1171.028093361351</v>
       </c>
       <c r="AB5" t="n">
-        <v>1273.237473555643</v>
+        <v>1602.25229945035</v>
       </c>
       <c r="AC5" t="n">
-        <v>1151.72147607951</v>
+        <v>1449.335588766034</v>
       </c>
       <c r="AD5" t="n">
-        <v>930563.0901984484</v>
+        <v>1171028.09336135</v>
       </c>
       <c r="AE5" t="n">
-        <v>1273237.473555643</v>
+        <v>1602252.29945035</v>
       </c>
       <c r="AF5" t="n">
         <v>5.2679481980788e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.11805555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1151721.47607951</v>
+        <v>1449335.588766034</v>
       </c>
     </row>
   </sheetData>
@@ -15059,28 +15059,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2846.974667838151</v>
+        <v>3293.448726309059</v>
       </c>
       <c r="AB2" t="n">
-        <v>3895.356340194346</v>
+        <v>4506.24184403959</v>
       </c>
       <c r="AC2" t="n">
-        <v>3523.588998253012</v>
+        <v>4076.172446994431</v>
       </c>
       <c r="AD2" t="n">
-        <v>2846974.667838151</v>
+        <v>3293448.726309059</v>
       </c>
       <c r="AE2" t="n">
-        <v>3895356.340194346</v>
+        <v>4506241.84403959</v>
       </c>
       <c r="AF2" t="n">
         <v>1.905488547223163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>88</v>
+        <v>87.95138888888887</v>
       </c>
       <c r="AH2" t="n">
-        <v>3523588.998253012</v>
+        <v>4076172.446994431</v>
       </c>
     </row>
     <row r="3">
@@ -15165,28 +15165,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1878.503418014253</v>
+        <v>2208.538662936805</v>
       </c>
       <c r="AB3" t="n">
-        <v>2570.25125024897</v>
+        <v>3021.820032479582</v>
       </c>
       <c r="AC3" t="n">
-        <v>2324.950078295494</v>
+        <v>2733.421769730669</v>
       </c>
       <c r="AD3" t="n">
-        <v>1878503.418014253</v>
+        <v>2208538.662936805</v>
       </c>
       <c r="AE3" t="n">
-        <v>2570251.25024897</v>
+        <v>3021820.032479581</v>
       </c>
       <c r="AF3" t="n">
         <v>2.55662699683278e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>66</v>
+        <v>65.55555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>2324950.078295494</v>
+        <v>2733421.769730669</v>
       </c>
     </row>
     <row r="4">
@@ -15271,28 +15271,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1648.593285252491</v>
+        <v>1949.501744078559</v>
       </c>
       <c r="AB4" t="n">
-        <v>2255.678063685121</v>
+        <v>2667.394292195238</v>
       </c>
       <c r="AC4" t="n">
-        <v>2040.399315151059</v>
+        <v>2412.821924659526</v>
       </c>
       <c r="AD4" t="n">
-        <v>1648593.285252491</v>
+        <v>1949501.744078559</v>
       </c>
       <c r="AE4" t="n">
-        <v>2255678.063685121</v>
+        <v>2667394.292195238</v>
       </c>
       <c r="AF4" t="n">
         <v>2.804948642614522e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>60</v>
+        <v>59.74537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>2040399.315151059</v>
+        <v>2412821.924659526</v>
       </c>
     </row>
     <row r="5">
@@ -15377,28 +15377,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1552.146621952948</v>
+        <v>1833.604068992439</v>
       </c>
       <c r="AB5" t="n">
-        <v>2123.715484032199</v>
+        <v>2508.817980097844</v>
       </c>
       <c r="AC5" t="n">
-        <v>1921.031058889568</v>
+        <v>2269.379913225456</v>
       </c>
       <c r="AD5" t="n">
-        <v>1552146.621952948</v>
+        <v>1833604.068992439</v>
       </c>
       <c r="AE5" t="n">
-        <v>2123715.484032199</v>
+        <v>2508817.980097844</v>
       </c>
       <c r="AF5" t="n">
         <v>2.933380887400764e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>58</v>
+        <v>57.12962962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>1921031.058889568</v>
+        <v>2269379.913225456</v>
       </c>
     </row>
     <row r="6">
@@ -15483,28 +15483,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1486.584918497382</v>
+        <v>1768.075519925796</v>
       </c>
       <c r="AB6" t="n">
-        <v>2034.011068986071</v>
+        <v>2419.158928349309</v>
       </c>
       <c r="AC6" t="n">
-        <v>1839.887907314504</v>
+        <v>2188.277795538532</v>
       </c>
       <c r="AD6" t="n">
-        <v>1486584.918497382</v>
+        <v>1768075.519925796</v>
       </c>
       <c r="AE6" t="n">
-        <v>2034011.068986071</v>
+        <v>2419158.92834931</v>
       </c>
       <c r="AF6" t="n">
         <v>3.014031124543872e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>56</v>
+        <v>55.60185185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>1839887.907314504</v>
+        <v>2188277.795538532</v>
       </c>
     </row>
     <row r="7">
@@ -15589,28 +15589,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1445.47672817632</v>
+        <v>1717.292566324689</v>
       </c>
       <c r="AB7" t="n">
-        <v>1977.765029423432</v>
+        <v>2349.675450846479</v>
       </c>
       <c r="AC7" t="n">
-        <v>1789.009910825912</v>
+        <v>2125.425723607898</v>
       </c>
       <c r="AD7" t="n">
-        <v>1445476.72817632</v>
+        <v>1717292.566324688</v>
       </c>
       <c r="AE7" t="n">
-        <v>1977765.029423432</v>
+        <v>2349675.450846479</v>
       </c>
       <c r="AF7" t="n">
         <v>3.070066388052638e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>54.58333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1789009.910825912</v>
+        <v>2125425.723607898</v>
       </c>
     </row>
     <row r="8">
@@ -15695,28 +15695,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1412.352743093297</v>
+        <v>1684.134415822884</v>
       </c>
       <c r="AB8" t="n">
-        <v>1932.443331705753</v>
+        <v>2304.307006495553</v>
       </c>
       <c r="AC8" t="n">
-        <v>1748.013652329006</v>
+        <v>2084.387179910812</v>
       </c>
       <c r="AD8" t="n">
-        <v>1412352.743093297</v>
+        <v>1684134.415822885</v>
       </c>
       <c r="AE8" t="n">
-        <v>1932443.331705753</v>
+        <v>2304307.006495553</v>
       </c>
       <c r="AF8" t="n">
         <v>3.110608697568025e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>54</v>
+        <v>53.87731481481481</v>
       </c>
       <c r="AH8" t="n">
-        <v>1748013.652329006</v>
+        <v>2084387.179910812</v>
       </c>
     </row>
     <row r="9">
@@ -15801,28 +15801,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1392.683680409084</v>
+        <v>1654.723270050921</v>
       </c>
       <c r="AB9" t="n">
-        <v>1905.53125240341</v>
+        <v>2264.065379322177</v>
       </c>
       <c r="AC9" t="n">
-        <v>1723.670024103938</v>
+        <v>2047.986157155385</v>
       </c>
       <c r="AD9" t="n">
-        <v>1392683.680409084</v>
+        <v>1654723.270050921</v>
       </c>
       <c r="AE9" t="n">
-        <v>1905531.25240341</v>
+        <v>2264065.379322177</v>
       </c>
       <c r="AF9" t="n">
         <v>3.141449811592229e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>54</v>
+        <v>53.34490740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>1723670.024103938</v>
+        <v>2047986.157155385</v>
       </c>
     </row>
     <row r="10">
@@ -15907,28 +15907,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1366.209923126702</v>
+        <v>1637.957430437508</v>
       </c>
       <c r="AB10" t="n">
-        <v>1869.308689749912</v>
+        <v>2241.125617906464</v>
       </c>
       <c r="AC10" t="n">
-        <v>1690.904491991404</v>
+        <v>2027.23573437303</v>
       </c>
       <c r="AD10" t="n">
-        <v>1366209.923126701</v>
+        <v>1637957.430437509</v>
       </c>
       <c r="AE10" t="n">
-        <v>1869308.689749912</v>
+        <v>2241125.617906463</v>
       </c>
       <c r="AF10" t="n">
         <v>3.166064785226571e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>53</v>
+        <v>52.92824074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>1690904.491991404</v>
+        <v>2027235.73437303</v>
       </c>
     </row>
     <row r="11">
@@ -16013,28 +16013,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1353.723901672881</v>
+        <v>1615.830811122423</v>
       </c>
       <c r="AB11" t="n">
-        <v>1852.224764352404</v>
+        <v>2210.851001202012</v>
       </c>
       <c r="AC11" t="n">
-        <v>1675.451032456394</v>
+        <v>1999.850484596161</v>
       </c>
       <c r="AD11" t="n">
-        <v>1353723.901672881</v>
+        <v>1615830.811122423</v>
       </c>
       <c r="AE11" t="n">
-        <v>1852224.764352404</v>
+        <v>2210851.001202012</v>
       </c>
       <c r="AF11" t="n">
         <v>3.184598412433605e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>53</v>
+        <v>52.62731481481482</v>
       </c>
       <c r="AH11" t="n">
-        <v>1675451.032456394</v>
+        <v>1999850.484596161</v>
       </c>
     </row>
     <row r="12">
@@ -16119,28 +16119,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1343.58554463423</v>
+        <v>1605.590968857287</v>
       </c>
       <c r="AB12" t="n">
-        <v>1838.353016979377</v>
+        <v>2196.840397264895</v>
       </c>
       <c r="AC12" t="n">
-        <v>1662.903185183529</v>
+        <v>1987.177033034796</v>
       </c>
       <c r="AD12" t="n">
-        <v>1343585.54463423</v>
+        <v>1605590.968857287</v>
       </c>
       <c r="AE12" t="n">
-        <v>1838353.016979377</v>
+        <v>2196840.397264895</v>
       </c>
       <c r="AF12" t="n">
         <v>3.196905899250776e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>53</v>
+        <v>52.41898148148149</v>
       </c>
       <c r="AH12" t="n">
-        <v>1662903.185183529</v>
+        <v>1987177.033034796</v>
       </c>
     </row>
     <row r="13">
@@ -16225,28 +16225,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1327.34290419118</v>
+        <v>1579.707730552971</v>
       </c>
       <c r="AB13" t="n">
-        <v>1816.129119750472</v>
+        <v>2161.425808729048</v>
       </c>
       <c r="AC13" t="n">
-        <v>1642.800305514715</v>
+        <v>1955.142363124122</v>
       </c>
       <c r="AD13" t="n">
-        <v>1327342.90419118</v>
+        <v>1579707.730552971</v>
       </c>
       <c r="AE13" t="n">
-        <v>1816129.119750472</v>
+        <v>2161425.808729048</v>
       </c>
       <c r="AF13" t="n">
         <v>3.216887466083359e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>53</v>
+        <v>52.09490740740741</v>
       </c>
       <c r="AH13" t="n">
-        <v>1642800.305514715</v>
+        <v>1955142.363124122</v>
       </c>
     </row>
     <row r="14">
@@ -16331,28 +16331,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1308.906607128763</v>
+        <v>1570.979351159524</v>
       </c>
       <c r="AB14" t="n">
-        <v>1790.903764757651</v>
+        <v>2149.483254974012</v>
       </c>
       <c r="AC14" t="n">
-        <v>1619.9824229984</v>
+        <v>1944.339589937987</v>
       </c>
       <c r="AD14" t="n">
-        <v>1308906.607128763</v>
+        <v>1570979.351159524</v>
       </c>
       <c r="AE14" t="n">
-        <v>1790903.764757651</v>
+        <v>2149483.254974012</v>
       </c>
       <c r="AF14" t="n">
         <v>3.224995927986437e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>52</v>
+        <v>51.96759259259259</v>
       </c>
       <c r="AH14" t="n">
-        <v>1619982.4229984</v>
+        <v>1944339.589937987</v>
       </c>
     </row>
     <row r="15">
@@ -16437,28 +16437,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1299.237598743593</v>
+        <v>1561.310342774354</v>
       </c>
       <c r="AB15" t="n">
-        <v>1777.674200918517</v>
+        <v>2136.253691134877</v>
       </c>
       <c r="AC15" t="n">
-        <v>1608.015470164264</v>
+        <v>1932.37263710385</v>
       </c>
       <c r="AD15" t="n">
-        <v>1299237.598743593</v>
+        <v>1561310.342774354</v>
       </c>
       <c r="AE15" t="n">
-        <v>1777674.200918517</v>
+        <v>2136253.691134877</v>
       </c>
       <c r="AF15" t="n">
         <v>3.232959595926959e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>52</v>
+        <v>51.84027777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>1608015.470164264</v>
+        <v>1932372.63710385</v>
       </c>
     </row>
     <row r="16">
@@ -16543,28 +16543,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1288.820931414968</v>
+        <v>1550.893675445729</v>
       </c>
       <c r="AB16" t="n">
-        <v>1763.421657128563</v>
+        <v>2122.001147344924</v>
       </c>
       <c r="AC16" t="n">
-        <v>1595.123169150052</v>
+        <v>1919.480336089639</v>
       </c>
       <c r="AD16" t="n">
-        <v>1288820.931414968</v>
+        <v>1550893.675445729</v>
       </c>
       <c r="AE16" t="n">
-        <v>1763421.657128563</v>
+        <v>2122001.147344924</v>
       </c>
       <c r="AF16" t="n">
         <v>3.241936821605366e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>52</v>
+        <v>51.68981481481481</v>
       </c>
       <c r="AH16" t="n">
-        <v>1595123.169150052</v>
+        <v>1919480.336089639</v>
       </c>
     </row>
     <row r="17">
@@ -16649,28 +16649,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1277.478527809941</v>
+        <v>1539.551271840702</v>
       </c>
       <c r="AB17" t="n">
-        <v>1747.902480124634</v>
+        <v>2106.481970340994</v>
       </c>
       <c r="AC17" t="n">
-        <v>1581.085120618076</v>
+        <v>1905.442287557663</v>
       </c>
       <c r="AD17" t="n">
-        <v>1277478.527809941</v>
+        <v>1539551.271840702</v>
       </c>
       <c r="AE17" t="n">
-        <v>1747902.480124634</v>
+        <v>2106481.970340994</v>
       </c>
       <c r="AF17" t="n">
         <v>3.252796368796987e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>52</v>
+        <v>51.5162037037037</v>
       </c>
       <c r="AH17" t="n">
-        <v>1581085.120618077</v>
+        <v>1905442.287557663</v>
       </c>
     </row>
     <row r="18">
@@ -16755,28 +16755,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1266.187060722275</v>
+        <v>1518.517721665285</v>
       </c>
       <c r="AB18" t="n">
-        <v>1732.452996710918</v>
+        <v>2077.702939056246</v>
       </c>
       <c r="AC18" t="n">
-        <v>1567.11011421788</v>
+        <v>1879.409886627107</v>
       </c>
       <c r="AD18" t="n">
-        <v>1266187.060722274</v>
+        <v>1518517.721665285</v>
       </c>
       <c r="AE18" t="n">
-        <v>1732452.996710918</v>
+        <v>2077702.939056246</v>
       </c>
       <c r="AF18" t="n">
         <v>3.257719363523855e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>52</v>
+        <v>51.44675925925927</v>
       </c>
       <c r="AH18" t="n">
-        <v>1567110.11421788</v>
+        <v>1879409.886627107</v>
       </c>
     </row>
     <row r="19">
@@ -16861,28 +16861,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1256.29103786862</v>
+        <v>1508.621698811631</v>
       </c>
       <c r="AB19" t="n">
-        <v>1718.912821660832</v>
+        <v>2064.16276400616</v>
       </c>
       <c r="AC19" t="n">
-        <v>1554.862194470819</v>
+        <v>1867.161966880046</v>
       </c>
       <c r="AD19" t="n">
-        <v>1256291.03786862</v>
+        <v>1508621.698811631</v>
       </c>
       <c r="AE19" t="n">
-        <v>1718912.821660832</v>
+        <v>2064162.76400616</v>
       </c>
       <c r="AF19" t="n">
         <v>3.265538237501823e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>52</v>
+        <v>51.31944444444445</v>
       </c>
       <c r="AH19" t="n">
-        <v>1554862.194470819</v>
+        <v>1867161.966880046</v>
       </c>
     </row>
     <row r="20">
@@ -16967,28 +16967,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1253.299704572596</v>
+        <v>1505.630365515606</v>
       </c>
       <c r="AB20" t="n">
-        <v>1714.8199474769</v>
+        <v>2060.069889822229</v>
       </c>
       <c r="AC20" t="n">
-        <v>1551.159938454617</v>
+        <v>1863.459710863844</v>
       </c>
       <c r="AD20" t="n">
-        <v>1253299.704572596</v>
+        <v>1505630.365515606</v>
       </c>
       <c r="AE20" t="n">
-        <v>1714819.9474769</v>
+        <v>2060069.889822228</v>
       </c>
       <c r="AF20" t="n">
         <v>3.265393443539268e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>52</v>
+        <v>51.31944444444445</v>
       </c>
       <c r="AH20" t="n">
-        <v>1551159.938454617</v>
+        <v>1863459.710863844</v>
       </c>
     </row>
     <row r="21">
@@ -17073,28 +17073,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1250.859753573306</v>
+        <v>1503.190414516317</v>
       </c>
       <c r="AB21" t="n">
-        <v>1711.481498876632</v>
+        <v>2056.731441221959</v>
       </c>
       <c r="AC21" t="n">
-        <v>1548.140106703216</v>
+        <v>1860.439879112442</v>
       </c>
       <c r="AD21" t="n">
-        <v>1250859.753573306</v>
+        <v>1503190.414516317</v>
       </c>
       <c r="AE21" t="n">
-        <v>1711481.498876632</v>
+        <v>2056731.441221959</v>
       </c>
       <c r="AF21" t="n">
         <v>3.270026850341027e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>52</v>
+        <v>51.25</v>
       </c>
       <c r="AH21" t="n">
-        <v>1548140.106703216</v>
+        <v>1860439.879112442</v>
       </c>
     </row>
     <row r="22">
@@ -17179,28 +17179,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1254.251303488789</v>
+        <v>1506.581964431799</v>
       </c>
       <c r="AB22" t="n">
-        <v>1716.121967095617</v>
+        <v>2061.371909440944</v>
       </c>
       <c r="AC22" t="n">
-        <v>1552.337695148319</v>
+        <v>1864.637467557546</v>
       </c>
       <c r="AD22" t="n">
-        <v>1254251.303488789</v>
+        <v>1506581.964431799</v>
       </c>
       <c r="AE22" t="n">
-        <v>1716121.967095617</v>
+        <v>2061371.909440944</v>
       </c>
       <c r="AF22" t="n">
         <v>3.269737262415917e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>52</v>
+        <v>51.25</v>
       </c>
       <c r="AH22" t="n">
-        <v>1552337.695148319</v>
+        <v>1864637.467557546</v>
       </c>
     </row>
   </sheetData>
@@ -17476,28 +17476,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1039.418161623183</v>
+        <v>1315.035381679477</v>
       </c>
       <c r="AB2" t="n">
-        <v>1422.177784625784</v>
+        <v>1799.289424480388</v>
       </c>
       <c r="AC2" t="n">
-        <v>1286.447132900156</v>
+        <v>1627.567767126547</v>
       </c>
       <c r="AD2" t="n">
-        <v>1039418.161623183</v>
+        <v>1315035.381679477</v>
       </c>
       <c r="AE2" t="n">
-        <v>1422177.784625784</v>
+        <v>1799289.424480388</v>
       </c>
       <c r="AF2" t="n">
         <v>5.196986557060359e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.80092592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>1286447.132900156</v>
+        <v>1627567.767126547</v>
       </c>
     </row>
     <row r="3">
@@ -17582,28 +17582,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>895.5428277169077</v>
+        <v>1152.746845628163</v>
       </c>
       <c r="AB3" t="n">
-        <v>1225.321205443458</v>
+        <v>1577.239089790074</v>
       </c>
       <c r="AC3" t="n">
-        <v>1108.378269345047</v>
+        <v>1426.709604729474</v>
       </c>
       <c r="AD3" t="n">
-        <v>895542.8277169077</v>
+        <v>1152746.845628163</v>
       </c>
       <c r="AE3" t="n">
-        <v>1225321.205443458</v>
+        <v>1577239.089790074</v>
       </c>
       <c r="AF3" t="n">
         <v>5.675079212411965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.93981481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>1108378.269345047</v>
+        <v>1426709.604729475</v>
       </c>
     </row>
     <row r="4">
@@ -17688,28 +17688,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>890.2533197426235</v>
+        <v>1138.336150128313</v>
       </c>
       <c r="AB4" t="n">
-        <v>1218.08386727642</v>
+        <v>1557.521740452162</v>
       </c>
       <c r="AC4" t="n">
-        <v>1101.831652575003</v>
+        <v>1408.874051538899</v>
       </c>
       <c r="AD4" t="n">
-        <v>890253.3197426235</v>
+        <v>1138336.150128312</v>
       </c>
       <c r="AE4" t="n">
-        <v>1218083.86727642</v>
+        <v>1557521.740452162</v>
       </c>
       <c r="AF4" t="n">
         <v>5.707782618804094e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.62731481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>1101831.652575003</v>
+        <v>1408874.051538899</v>
       </c>
     </row>
   </sheetData>
@@ -17985,28 +17985,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2194.349494091811</v>
+        <v>2577.717429371487</v>
       </c>
       <c r="AB2" t="n">
-        <v>3002.40578568391</v>
+        <v>3526.946707733237</v>
       </c>
       <c r="AC2" t="n">
-        <v>2715.860391401111</v>
+        <v>3190.339864047838</v>
       </c>
       <c r="AD2" t="n">
-        <v>2194349.494091811</v>
+        <v>2577717.429371486</v>
       </c>
       <c r="AE2" t="n">
-        <v>3002405.78568391</v>
+        <v>3526946.707733237</v>
       </c>
       <c r="AF2" t="n">
         <v>2.417051350708992e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.25694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2715860.391401111</v>
+        <v>3190339.864047837</v>
       </c>
     </row>
     <row r="3">
@@ -18091,28 +18091,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1579.78461488275</v>
+        <v>1876.92488694765</v>
       </c>
       <c r="AB3" t="n">
-        <v>2161.531005260948</v>
+        <v>2568.091434403767</v>
       </c>
       <c r="AC3" t="n">
-        <v>1955.237519846663</v>
+        <v>2322.996392243236</v>
       </c>
       <c r="AD3" t="n">
-        <v>1579784.61488275</v>
+        <v>1876924.88694765</v>
       </c>
       <c r="AE3" t="n">
-        <v>2161531.005260949</v>
+        <v>2568091.434403767</v>
       </c>
       <c r="AF3" t="n">
         <v>3.042732222349702e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>62</v>
+        <v>61.37731481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>1955237.519846662</v>
+        <v>2322996.392243236</v>
       </c>
     </row>
     <row r="4">
@@ -18197,28 +18197,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1425.030079327828</v>
+        <v>1702.993463825541</v>
       </c>
       <c r="AB4" t="n">
-        <v>1949.789022426441</v>
+        <v>2330.110787975266</v>
       </c>
       <c r="AC4" t="n">
-        <v>1763.703894672141</v>
+        <v>2107.728284701936</v>
       </c>
       <c r="AD4" t="n">
-        <v>1425030.079327828</v>
+        <v>1702993.463825541</v>
       </c>
       <c r="AE4" t="n">
-        <v>1949789.022426441</v>
+        <v>2330110.787975266</v>
       </c>
       <c r="AF4" t="n">
         <v>3.272804662514646e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>58</v>
+        <v>57.06018518518518</v>
       </c>
       <c r="AH4" t="n">
-        <v>1763703.894672141</v>
+        <v>2107728.284701936</v>
       </c>
     </row>
     <row r="5">
@@ -18303,28 +18303,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1351.562962714289</v>
+        <v>1619.937903428409</v>
       </c>
       <c r="AB5" t="n">
-        <v>1849.268072335361</v>
+        <v>2216.470506087188</v>
       </c>
       <c r="AC5" t="n">
-        <v>1672.776522975714</v>
+        <v>2004.933671822119</v>
       </c>
       <c r="AD5" t="n">
-        <v>1351562.962714289</v>
+        <v>1619937.903428409</v>
       </c>
       <c r="AE5" t="n">
-        <v>1849268.072335361</v>
+        <v>2216470.506087188</v>
       </c>
       <c r="AF5" t="n">
         <v>3.388647588207794e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>56</v>
+        <v>55.10416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1672776.522975713</v>
+        <v>2004933.671822119</v>
       </c>
     </row>
     <row r="6">
@@ -18409,28 +18409,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1298.006009622427</v>
+        <v>1566.41410472547</v>
       </c>
       <c r="AB6" t="n">
-        <v>1775.989086349059</v>
+        <v>2143.236883398481</v>
       </c>
       <c r="AC6" t="n">
-        <v>1606.491180564242</v>
+        <v>1938.689363298787</v>
       </c>
       <c r="AD6" t="n">
-        <v>1298006.009622426</v>
+        <v>1566414.10472547</v>
       </c>
       <c r="AE6" t="n">
-        <v>1775989.086349059</v>
+        <v>2143236.883398481</v>
       </c>
       <c r="AF6" t="n">
         <v>3.460121705313734e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>54</v>
+        <v>53.96990740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>1606491.180564242</v>
+        <v>1938689.363298787</v>
       </c>
     </row>
     <row r="7">
@@ -18515,28 +18515,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1271.675990742066</v>
+        <v>1530.462487672593</v>
       </c>
       <c r="AB7" t="n">
-        <v>1739.963192918499</v>
+        <v>2094.046294873329</v>
       </c>
       <c r="AC7" t="n">
-        <v>1573.903547840035</v>
+        <v>1894.193455503051</v>
       </c>
       <c r="AD7" t="n">
-        <v>1271675.990742066</v>
+        <v>1530462.487672593</v>
       </c>
       <c r="AE7" t="n">
-        <v>1739963.192918499</v>
+        <v>2094046.294873329</v>
       </c>
       <c r="AF7" t="n">
         <v>3.512557570007707e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>54</v>
+        <v>53.15972222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1573903.547840035</v>
+        <v>1894193.455503051</v>
       </c>
     </row>
     <row r="8">
@@ -18621,28 +18621,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1241.905970141162</v>
+        <v>1500.759786879394</v>
       </c>
       <c r="AB8" t="n">
-        <v>1699.230537371726</v>
+        <v>2053.405749257397</v>
       </c>
       <c r="AC8" t="n">
-        <v>1537.058359770005</v>
+        <v>1857.431586521341</v>
       </c>
       <c r="AD8" t="n">
-        <v>1241905.970141162</v>
+        <v>1500759.786879394</v>
       </c>
       <c r="AE8" t="n">
-        <v>1699230.537371726</v>
+        <v>2053405.749257398</v>
       </c>
       <c r="AF8" t="n">
         <v>3.547891275755339e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>53</v>
+        <v>52.63888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1537058.359770005</v>
+        <v>1857431.586521341</v>
       </c>
     </row>
     <row r="9">
@@ -18727,28 +18727,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1221.176919411649</v>
+        <v>1479.929250923395</v>
       </c>
       <c r="AB9" t="n">
-        <v>1670.86813566243</v>
+        <v>2024.904490984012</v>
       </c>
       <c r="AC9" t="n">
-        <v>1511.402825872964</v>
+        <v>1831.6504483358</v>
       </c>
       <c r="AD9" t="n">
-        <v>1221176.919411649</v>
+        <v>1479929.250923395</v>
       </c>
       <c r="AE9" t="n">
-        <v>1670868.13566243</v>
+        <v>2024904.490984012</v>
       </c>
       <c r="AF9" t="n">
         <v>3.578384747838912e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>53</v>
+        <v>52.18750000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>1511402.825872964</v>
+        <v>1831650.4483358</v>
       </c>
     </row>
     <row r="10">
@@ -18833,28 +18833,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1198.442567249926</v>
+        <v>1457.262218569377</v>
       </c>
       <c r="AB10" t="n">
-        <v>1639.761992065928</v>
+        <v>1993.890457318352</v>
       </c>
       <c r="AC10" t="n">
-        <v>1483.265408963566</v>
+        <v>1803.596350514721</v>
       </c>
       <c r="AD10" t="n">
-        <v>1198442.567249926</v>
+        <v>1457262.218569377</v>
       </c>
       <c r="AE10" t="n">
-        <v>1639761.992065928</v>
+        <v>1993890.457318353</v>
       </c>
       <c r="AF10" t="n">
         <v>3.596938976884472e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>52</v>
+        <v>51.9212962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>1483265.408963566</v>
+        <v>1803596.350514721</v>
       </c>
     </row>
     <row r="11">
@@ -18939,28 +18939,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1184.314241082779</v>
+        <v>1443.13389240223</v>
       </c>
       <c r="AB11" t="n">
-        <v>1620.430992906278</v>
+        <v>1974.559458158703</v>
       </c>
       <c r="AC11" t="n">
-        <v>1465.779333232485</v>
+        <v>1786.11027478364</v>
       </c>
       <c r="AD11" t="n">
-        <v>1184314.241082779</v>
+        <v>1443133.89240223</v>
       </c>
       <c r="AE11" t="n">
-        <v>1620430.992906278</v>
+        <v>1974559.458158703</v>
       </c>
       <c r="AF11" t="n">
         <v>3.613395771342272e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>52</v>
+        <v>51.67824074074074</v>
       </c>
       <c r="AH11" t="n">
-        <v>1465779.333232485</v>
+        <v>1786110.27478364</v>
       </c>
     </row>
     <row r="12">
@@ -19045,28 +19045,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1169.06928439273</v>
+        <v>1418.267337539663</v>
       </c>
       <c r="AB12" t="n">
-        <v>1599.57217060293</v>
+        <v>1940.535940760764</v>
       </c>
       <c r="AC12" t="n">
-        <v>1446.911247654228</v>
+        <v>1755.333914133854</v>
       </c>
       <c r="AD12" t="n">
-        <v>1169069.284392729</v>
+        <v>1418267.337539664</v>
       </c>
       <c r="AE12" t="n">
-        <v>1599572.17060293</v>
+        <v>1940535.940760764</v>
       </c>
       <c r="AF12" t="n">
         <v>3.628077813456585e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>52</v>
+        <v>51.46990740740741</v>
       </c>
       <c r="AH12" t="n">
-        <v>1446911.247654228</v>
+        <v>1755333.914133854</v>
       </c>
     </row>
     <row r="13">
@@ -19151,28 +19151,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1156.786471483155</v>
+        <v>1405.984524630089</v>
       </c>
       <c r="AB13" t="n">
-        <v>1582.766284100589</v>
+        <v>1923.730054258423</v>
       </c>
       <c r="AC13" t="n">
-        <v>1431.70929137246</v>
+        <v>1740.131957852087</v>
       </c>
       <c r="AD13" t="n">
-        <v>1156786.471483155</v>
+        <v>1405984.524630089</v>
       </c>
       <c r="AE13" t="n">
-        <v>1582766.284100589</v>
+        <v>1923730.054258422</v>
       </c>
       <c r="AF13" t="n">
         <v>3.640339738738869e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>52</v>
+        <v>51.2962962962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>1431709.29137246</v>
+        <v>1740131.957852087</v>
       </c>
     </row>
     <row r="14">
@@ -19257,28 +19257,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1153.227119321625</v>
+        <v>1402.425172468559</v>
       </c>
       <c r="AB14" t="n">
-        <v>1577.896221445648</v>
+        <v>1918.859991603482</v>
       </c>
       <c r="AC14" t="n">
-        <v>1427.304020662131</v>
+        <v>1735.726687141758</v>
       </c>
       <c r="AD14" t="n">
-        <v>1153227.119321625</v>
+        <v>1402425.172468559</v>
       </c>
       <c r="AE14" t="n">
-        <v>1577896.221445648</v>
+        <v>1918859.991603482</v>
       </c>
       <c r="AF14" t="n">
         <v>3.645179972402928e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>52</v>
+        <v>51.22685185185185</v>
       </c>
       <c r="AH14" t="n">
-        <v>1427304.020662131</v>
+        <v>1735726.687141757</v>
       </c>
     </row>
     <row r="15">
@@ -19363,28 +19363,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1156.231481800169</v>
+        <v>1405.429534947103</v>
       </c>
       <c r="AB15" t="n">
-        <v>1582.006922731911</v>
+        <v>1922.970692889744</v>
       </c>
       <c r="AC15" t="n">
-        <v>1431.022402387038</v>
+        <v>1739.445068866665</v>
       </c>
       <c r="AD15" t="n">
-        <v>1156231.481800169</v>
+        <v>1405429.534947103</v>
       </c>
       <c r="AE15" t="n">
-        <v>1582006.922731911</v>
+        <v>1922970.692889744</v>
       </c>
       <c r="AF15" t="n">
         <v>3.644534607914387e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>52</v>
+        <v>51.23842592592593</v>
       </c>
       <c r="AH15" t="n">
-        <v>1431022.402387038</v>
+        <v>1739445.068866665</v>
       </c>
     </row>
     <row r="16">
@@ -19469,28 +19469,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1158.658844059681</v>
+        <v>1407.856897206615</v>
       </c>
       <c r="AB16" t="n">
-        <v>1585.32814686304</v>
+        <v>1926.291917020873</v>
       </c>
       <c r="AC16" t="n">
-        <v>1434.02665354846</v>
+        <v>1742.449320028086</v>
       </c>
       <c r="AD16" t="n">
-        <v>1158658.844059681</v>
+        <v>1407856.897206615</v>
       </c>
       <c r="AE16" t="n">
-        <v>1585328.14686304</v>
+        <v>1926291.917020873</v>
       </c>
       <c r="AF16" t="n">
         <v>3.644373266792251e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>52</v>
+        <v>51.23842592592593</v>
       </c>
       <c r="AH16" t="n">
-        <v>1434026.65354846</v>
+        <v>1742449.320028086</v>
       </c>
     </row>
     <row r="17">
@@ -19575,28 +19575,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1161.742652703964</v>
+        <v>1410.940705850898</v>
       </c>
       <c r="AB17" t="n">
-        <v>1589.547549898184</v>
+        <v>1930.511320056017</v>
       </c>
       <c r="AC17" t="n">
-        <v>1437.843362679899</v>
+        <v>1746.266029159525</v>
       </c>
       <c r="AD17" t="n">
-        <v>1161742.652703964</v>
+        <v>1410940.705850898</v>
       </c>
       <c r="AE17" t="n">
-        <v>1589547.549898184</v>
+        <v>1930511.320056017</v>
       </c>
       <c r="AF17" t="n">
         <v>3.644373266792251e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>52</v>
+        <v>51.23842592592593</v>
       </c>
       <c r="AH17" t="n">
-        <v>1437843.362679899</v>
+        <v>1746266.029159525</v>
       </c>
     </row>
   </sheetData>
@@ -19872,28 +19872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2505.935181746148</v>
+        <v>2911.14532930494</v>
       </c>
       <c r="AB2" t="n">
-        <v>3428.73106972298</v>
+        <v>3983.157470222994</v>
       </c>
       <c r="AC2" t="n">
-        <v>3101.49778868277</v>
+        <v>3603.010511661382</v>
       </c>
       <c r="AD2" t="n">
-        <v>2505935.181746148</v>
+        <v>2911145.32930494</v>
       </c>
       <c r="AE2" t="n">
-        <v>3428731.06972298</v>
+        <v>3983157.470222994</v>
       </c>
       <c r="AF2" t="n">
         <v>2.138938704528399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.4074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>3101497.78868277</v>
+        <v>3603010.511661382</v>
       </c>
     </row>
     <row r="3">
@@ -19978,28 +19978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1727.157082891133</v>
+        <v>2045.473251130274</v>
       </c>
       <c r="AB3" t="n">
-        <v>2363.172517604445</v>
+        <v>2798.706742107468</v>
       </c>
       <c r="AC3" t="n">
-        <v>2137.634649257736</v>
+        <v>2531.602098650313</v>
       </c>
       <c r="AD3" t="n">
-        <v>1727157.082891133</v>
+        <v>2045473.251130274</v>
       </c>
       <c r="AE3" t="n">
-        <v>2363172.517604445</v>
+        <v>2798706.742107468</v>
       </c>
       <c r="AF3" t="n">
         <v>2.77902125170767e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>64</v>
+        <v>63.42592592592592</v>
       </c>
       <c r="AH3" t="n">
-        <v>2137634.649257736</v>
+        <v>2531602.098650313</v>
       </c>
     </row>
     <row r="4">
@@ -20084,28 +20084,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1538.267175719103</v>
+        <v>1827.664238076735</v>
       </c>
       <c r="AB4" t="n">
-        <v>2104.725013377099</v>
+        <v>2500.690841392132</v>
       </c>
       <c r="AC4" t="n">
-        <v>1903.853012100497</v>
+        <v>2262.028417231306</v>
       </c>
       <c r="AD4" t="n">
-        <v>1538267.175719103</v>
+        <v>1827664.238076735</v>
       </c>
       <c r="AE4" t="n">
-        <v>2104725.013377099</v>
+        <v>2500690.841392132</v>
       </c>
       <c r="AF4" t="n">
         <v>3.016139625716265e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>59</v>
+        <v>58.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1903853.012100497</v>
+        <v>2262028.417231306</v>
       </c>
     </row>
     <row r="5">
@@ -20190,28 +20190,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1451.487733845648</v>
+        <v>1721.650946173982</v>
       </c>
       <c r="AB5" t="n">
-        <v>1985.98955256706</v>
+        <v>2355.638778434431</v>
       </c>
       <c r="AC5" t="n">
-        <v>1796.449497023903</v>
+        <v>2130.819919580439</v>
       </c>
       <c r="AD5" t="n">
-        <v>1451487.733845648</v>
+        <v>1721650.946173982</v>
       </c>
       <c r="AE5" t="n">
-        <v>1985989.55256706</v>
+        <v>2355638.778434431</v>
       </c>
       <c r="AF5" t="n">
         <v>3.143303300923187e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>57</v>
+        <v>56.07638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1796449.497023903</v>
+        <v>2130819.919580439</v>
       </c>
     </row>
     <row r="6">
@@ -20296,28 +20296,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1390.327595577198</v>
+        <v>1660.523962294456</v>
       </c>
       <c r="AB6" t="n">
-        <v>1902.307553193296</v>
+        <v>2272.00214235826</v>
       </c>
       <c r="AC6" t="n">
-        <v>1720.753990221947</v>
+        <v>2055.165446666622</v>
       </c>
       <c r="AD6" t="n">
-        <v>1390327.595577198</v>
+        <v>1660523.962294456</v>
       </c>
       <c r="AE6" t="n">
-        <v>1902307.553193296</v>
+        <v>2272002.14235826</v>
       </c>
       <c r="AF6" t="n">
         <v>3.223865677192003e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>55</v>
+        <v>54.67592592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>1720753.990221947</v>
+        <v>2055165.446666622</v>
       </c>
     </row>
     <row r="7">
@@ -20402,28 +20402,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1354.933500523382</v>
+        <v>1625.095701821859</v>
       </c>
       <c r="AB7" t="n">
-        <v>1853.879790863395</v>
+        <v>2223.527633395111</v>
       </c>
       <c r="AC7" t="n">
-        <v>1676.94810556002</v>
+        <v>2011.317276804515</v>
       </c>
       <c r="AD7" t="n">
-        <v>1354933.500523382</v>
+        <v>1625095.701821859</v>
       </c>
       <c r="AE7" t="n">
-        <v>1853879.790863395</v>
+        <v>2223527.633395111</v>
       </c>
       <c r="AF7" t="n">
         <v>3.271380727089679e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>54</v>
+        <v>53.87731481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>1676948.10556002</v>
+        <v>2011317.276804515</v>
       </c>
     </row>
     <row r="8">
@@ -20508,28 +20508,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1333.841785180238</v>
+        <v>1594.319741656361</v>
       </c>
       <c r="AB8" t="n">
-        <v>1825.021175430096</v>
+        <v>2181.41860695714</v>
       </c>
       <c r="AC8" t="n">
-        <v>1650.843715880354</v>
+        <v>1973.227076749393</v>
       </c>
       <c r="AD8" t="n">
-        <v>1333841.785180238</v>
+        <v>1594319.741656361</v>
       </c>
       <c r="AE8" t="n">
-        <v>1825021.175430096</v>
+        <v>2181418.606957139</v>
       </c>
       <c r="AF8" t="n">
         <v>3.309149100085267e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>54</v>
+        <v>53.26388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1650843.715880354</v>
+        <v>1973227.076749393</v>
       </c>
     </row>
     <row r="9">
@@ -20614,28 +20614,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1306.21335168691</v>
+        <v>1576.341387566606</v>
       </c>
       <c r="AB9" t="n">
-        <v>1787.218733844063</v>
+        <v>2156.819829742532</v>
       </c>
       <c r="AC9" t="n">
-        <v>1616.649086263232</v>
+        <v>1950.975972307546</v>
       </c>
       <c r="AD9" t="n">
-        <v>1306213.35168691</v>
+        <v>1576341.387566606</v>
       </c>
       <c r="AE9" t="n">
-        <v>1787218.733844063</v>
+        <v>2156819.829742531</v>
       </c>
       <c r="AF9" t="n">
         <v>3.33838913079153e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>53</v>
+        <v>52.80092592592592</v>
       </c>
       <c r="AH9" t="n">
-        <v>1616649.086263232</v>
+        <v>1950975.972307547</v>
       </c>
     </row>
     <row r="10">
@@ -20720,28 +20720,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1291.221373333665</v>
+        <v>1551.665164391007</v>
       </c>
       <c r="AB10" t="n">
-        <v>1766.706047661748</v>
+        <v>2123.056732555543</v>
       </c>
       <c r="AC10" t="n">
-        <v>1598.094102060421</v>
+        <v>1920.43517772928</v>
       </c>
       <c r="AD10" t="n">
-        <v>1291221.373333665</v>
+        <v>1551665.164391007</v>
       </c>
       <c r="AE10" t="n">
-        <v>1766706.047661748</v>
+        <v>2123056.732555544</v>
       </c>
       <c r="AF10" t="n">
         <v>3.360319153821227e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>53</v>
+        <v>52.4537037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>1598094.102060421</v>
+        <v>1920435.17772928</v>
       </c>
     </row>
     <row r="11">
@@ -20826,28 +20826,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1276.83586867712</v>
+        <v>1537.279659734463</v>
       </c>
       <c r="AB11" t="n">
-        <v>1747.023165546989</v>
+        <v>2103.373850440785</v>
       </c>
       <c r="AC11" t="n">
-        <v>1580.289726589596</v>
+        <v>1902.630802258456</v>
       </c>
       <c r="AD11" t="n">
-        <v>1276835.86867712</v>
+        <v>1537279.659734463</v>
       </c>
       <c r="AE11" t="n">
-        <v>1747023.165546989</v>
+        <v>2103373.850440785</v>
       </c>
       <c r="AF11" t="n">
         <v>3.378746464839236e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>53</v>
+        <v>52.16435185185185</v>
       </c>
       <c r="AH11" t="n">
-        <v>1580289.726589596</v>
+        <v>1902630.802258456</v>
       </c>
     </row>
     <row r="12">
@@ -20932,28 +20932,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1252.101888990391</v>
+        <v>1512.612999855438</v>
       </c>
       <c r="AB12" t="n">
-        <v>1713.181043353434</v>
+        <v>2069.623838178071</v>
       </c>
       <c r="AC12" t="n">
-        <v>1549.677449040477</v>
+        <v>1872.101843797656</v>
       </c>
       <c r="AD12" t="n">
-        <v>1252101.888990391</v>
+        <v>1512612.999855438</v>
       </c>
       <c r="AE12" t="n">
-        <v>1713181.043353434</v>
+        <v>2069623.838178071</v>
       </c>
       <c r="AF12" t="n">
         <v>3.39763065133703e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>52</v>
+        <v>51.875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1549677.449040477</v>
+        <v>1872101.843797656</v>
       </c>
     </row>
     <row r="13">
@@ -21038,28 +21038,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1237.781180772981</v>
+        <v>1498.292291638028</v>
       </c>
       <c r="AB13" t="n">
-        <v>1693.586818585317</v>
+        <v>2050.029613409954</v>
       </c>
       <c r="AC13" t="n">
-        <v>1531.953269583562</v>
+        <v>1854.377664340741</v>
       </c>
       <c r="AD13" t="n">
-        <v>1237781.180772981</v>
+        <v>1498292.291638028</v>
       </c>
       <c r="AE13" t="n">
-        <v>1693586.818585317</v>
+        <v>2050029.613409954</v>
       </c>
       <c r="AF13" t="n">
         <v>3.410270872944424e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>52</v>
+        <v>51.68981481481481</v>
       </c>
       <c r="AH13" t="n">
-        <v>1531953.269583562</v>
+        <v>1854377.664340741</v>
       </c>
     </row>
     <row r="14">
@@ -21144,28 +21144,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1228.781734800253</v>
+        <v>1489.2928456653</v>
       </c>
       <c r="AB14" t="n">
-        <v>1681.273379577894</v>
+        <v>2037.716174402531</v>
       </c>
       <c r="AC14" t="n">
-        <v>1520.815007912987</v>
+        <v>1843.239402670166</v>
       </c>
       <c r="AD14" t="n">
-        <v>1228781.734800253</v>
+        <v>1489292.8456653</v>
       </c>
       <c r="AE14" t="n">
-        <v>1681273.379577894</v>
+        <v>2037716.174402531</v>
       </c>
       <c r="AF14" t="n">
         <v>3.420322133499702e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>52</v>
+        <v>51.53935185185185</v>
       </c>
       <c r="AH14" t="n">
-        <v>1520815.007912987</v>
+        <v>1843239.402670166</v>
       </c>
     </row>
     <row r="15">
@@ -21250,28 +21250,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1220.519359662959</v>
+        <v>1471.346225705652</v>
       </c>
       <c r="AB15" t="n">
-        <v>1669.968433404784</v>
+        <v>2013.160817224748</v>
       </c>
       <c r="AC15" t="n">
-        <v>1510.588989936047</v>
+        <v>1821.02757431777</v>
       </c>
       <c r="AD15" t="n">
-        <v>1220519.359662959</v>
+        <v>1471346.225705652</v>
       </c>
       <c r="AE15" t="n">
-        <v>1669968.433404783</v>
+        <v>2013160.817224748</v>
       </c>
       <c r="AF15" t="n">
         <v>3.427784433002862e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>52</v>
+        <v>51.42361111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>1510588.989936047</v>
+        <v>1821027.57431777</v>
       </c>
     </row>
     <row r="16">
@@ -21356,28 +21356,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1206.034073455973</v>
+        <v>1456.860939498667</v>
       </c>
       <c r="AB16" t="n">
-        <v>1650.14902577066</v>
+        <v>1993.341409590624</v>
       </c>
       <c r="AC16" t="n">
-        <v>1492.661118749811</v>
+        <v>1803.099703131534</v>
       </c>
       <c r="AD16" t="n">
-        <v>1206034.073455973</v>
+        <v>1456860.939498667</v>
       </c>
       <c r="AE16" t="n">
-        <v>1650149.02577066</v>
+        <v>1993341.409590624</v>
       </c>
       <c r="AF16" t="n">
         <v>3.43783569355814e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>52</v>
+        <v>51.27314814814815</v>
       </c>
       <c r="AH16" t="n">
-        <v>1492661.118749811</v>
+        <v>1803099.703131534</v>
       </c>
     </row>
     <row r="17">
@@ -21462,28 +21462,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1199.928865306079</v>
+        <v>1450.755731348773</v>
       </c>
       <c r="AB17" t="n">
-        <v>1641.7956106372</v>
+        <v>1984.987994457165</v>
       </c>
       <c r="AC17" t="n">
-        <v>1485.104941832597</v>
+        <v>1795.54352621432</v>
       </c>
       <c r="AD17" t="n">
-        <v>1199928.865306079</v>
+        <v>1450755.731348773</v>
       </c>
       <c r="AE17" t="n">
-        <v>1641795.6106372</v>
+        <v>1984987.994457165</v>
       </c>
       <c r="AF17" t="n">
         <v>3.441795281049613e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>52</v>
+        <v>51.21527777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>1485104.941832597</v>
+        <v>1795543.52621432</v>
       </c>
     </row>
     <row r="18">
@@ -21568,28 +21568,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1204.032602027611</v>
+        <v>1454.859468070304</v>
       </c>
       <c r="AB18" t="n">
-        <v>1647.410524263687</v>
+        <v>1990.602908083651</v>
       </c>
       <c r="AC18" t="n">
-        <v>1490.183975983152</v>
+        <v>1800.622560364875</v>
       </c>
       <c r="AD18" t="n">
-        <v>1204032.602027611</v>
+        <v>1454859.468070304</v>
       </c>
       <c r="AE18" t="n">
-        <v>1647410.524263687</v>
+        <v>1990602.908083651</v>
       </c>
       <c r="AF18" t="n">
         <v>3.440576946436852e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>52</v>
+        <v>51.22685185185185</v>
       </c>
       <c r="AH18" t="n">
-        <v>1490183.975983152</v>
+        <v>1800622.560364875</v>
       </c>
     </row>
     <row r="19">
@@ -21674,28 +21674,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1207.371644670881</v>
+        <v>1458.198510713575</v>
       </c>
       <c r="AB19" t="n">
-        <v>1651.979149716374</v>
+        <v>1995.171533536339</v>
       </c>
       <c r="AC19" t="n">
-        <v>1494.316578234741</v>
+        <v>1804.755162616465</v>
       </c>
       <c r="AD19" t="n">
-        <v>1207371.644670881</v>
+        <v>1458198.510713575</v>
       </c>
       <c r="AE19" t="n">
-        <v>1651979.149716374</v>
+        <v>1995171.533536339</v>
       </c>
       <c r="AF19" t="n">
         <v>3.440424654610258e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>52</v>
+        <v>51.22685185185185</v>
       </c>
       <c r="AH19" t="n">
-        <v>1494316.578234741</v>
+        <v>1804755.162616465</v>
       </c>
     </row>
   </sheetData>
@@ -21971,28 +21971,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3251.011418023683</v>
+        <v>3719.491846263434</v>
       </c>
       <c r="AB2" t="n">
-        <v>4448.177246641627</v>
+        <v>5089.172836457119</v>
       </c>
       <c r="AC2" t="n">
-        <v>4023.649453277957</v>
+        <v>4603.469323644396</v>
       </c>
       <c r="AD2" t="n">
-        <v>3251011.418023683</v>
+        <v>3719491.846263434</v>
       </c>
       <c r="AE2" t="n">
-        <v>4448177.246641627</v>
+        <v>5089172.836457119</v>
       </c>
       <c r="AF2" t="n">
         <v>1.702967302871952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>95</v>
+        <v>94.08564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>4023649.453277958</v>
+        <v>4603469.323644396</v>
       </c>
     </row>
     <row r="3">
@@ -22077,28 +22077,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2038.727469179436</v>
+        <v>2380.358362528869</v>
       </c>
       <c r="AB3" t="n">
-        <v>2789.476865639434</v>
+        <v>3256.911325611623</v>
       </c>
       <c r="AC3" t="n">
-        <v>2523.253108638176</v>
+        <v>2946.076279798882</v>
       </c>
       <c r="AD3" t="n">
-        <v>2038727.469179436</v>
+        <v>2380358.362528869</v>
       </c>
       <c r="AE3" t="n">
-        <v>2789476.865639434</v>
+        <v>3256911.325611623</v>
       </c>
       <c r="AF3" t="n">
         <v>2.360979138539816e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>68</v>
+        <v>67.87037037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>2523253.108638176</v>
+        <v>2946076.279798882</v>
       </c>
     </row>
     <row r="4">
@@ -22183,28 +22183,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1773.793287269096</v>
+        <v>2076.339686322518</v>
       </c>
       <c r="AB4" t="n">
-        <v>2426.982229878505</v>
+        <v>2840.93956046851</v>
       </c>
       <c r="AC4" t="n">
-        <v>2195.354452149853</v>
+        <v>2569.804276101111</v>
       </c>
       <c r="AD4" t="n">
-        <v>1773793.287269096</v>
+        <v>2076339.686322518</v>
       </c>
       <c r="AE4" t="n">
-        <v>2426982.229878505</v>
+        <v>2840939.56046851</v>
       </c>
       <c r="AF4" t="n">
         <v>2.617372557360957e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>62</v>
+        <v>61.21527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>2195354.452149853</v>
+        <v>2569804.276101111</v>
       </c>
     </row>
     <row r="5">
@@ -22289,28 +22289,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1652.616303497155</v>
+        <v>1945.365702155024</v>
       </c>
       <c r="AB5" t="n">
-        <v>2261.182534730509</v>
+        <v>2661.735177166166</v>
       </c>
       <c r="AC5" t="n">
-        <v>2045.378447205448</v>
+        <v>2407.702907626211</v>
       </c>
       <c r="AD5" t="n">
-        <v>1652616.303497155</v>
+        <v>1945365.702155024</v>
       </c>
       <c r="AE5" t="n">
-        <v>2261182.534730509</v>
+        <v>2661735.177166166</v>
       </c>
       <c r="AF5" t="n">
         <v>2.754706397247875e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>59</v>
+        <v>58.1712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>2045378.447205448</v>
+        <v>2407702.907626211</v>
       </c>
     </row>
     <row r="6">
@@ -22395,28 +22395,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1582.05673618375</v>
+        <v>1865.144785091333</v>
       </c>
       <c r="AB6" t="n">
-        <v>2164.639821863893</v>
+        <v>2551.97337934254</v>
       </c>
       <c r="AC6" t="n">
-        <v>1958.049635356273</v>
+        <v>2308.416621735221</v>
       </c>
       <c r="AD6" t="n">
-        <v>1582056.73618375</v>
+        <v>1865144.785091333</v>
       </c>
       <c r="AE6" t="n">
-        <v>2164639.821863893</v>
+        <v>2551973.37934254</v>
       </c>
       <c r="AF6" t="n">
         <v>2.835971481939025e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>57</v>
+        <v>56.50462962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>1958049.635356274</v>
+        <v>2308416.621735221</v>
       </c>
     </row>
     <row r="7">
@@ -22501,28 +22501,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1534.454571162779</v>
+        <v>1807.712465285887</v>
       </c>
       <c r="AB7" t="n">
-        <v>2099.508439622895</v>
+        <v>2473.3919456496</v>
       </c>
       <c r="AC7" t="n">
-        <v>1899.134300823887</v>
+        <v>2237.3348897842</v>
       </c>
       <c r="AD7" t="n">
-        <v>1534454.571162779</v>
+        <v>1807712.465285887</v>
       </c>
       <c r="AE7" t="n">
-        <v>2099508.439622895</v>
+        <v>2473391.9456496</v>
       </c>
       <c r="AF7" t="n">
         <v>2.896608802372966e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>56</v>
+        <v>55.3125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1899134.300823887</v>
+        <v>2237334.8897842</v>
       </c>
     </row>
     <row r="8">
@@ -22607,28 +22607,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1499.646070980691</v>
+        <v>1772.971284911504</v>
       </c>
       <c r="AB8" t="n">
-        <v>2051.881914031114</v>
+        <v>2425.857529988662</v>
       </c>
       <c r="AC8" t="n">
-        <v>1856.053183990338</v>
+        <v>2194.33709203897</v>
       </c>
       <c r="AD8" t="n">
-        <v>1499646.070980691</v>
+        <v>1772971.284911504</v>
       </c>
       <c r="AE8" t="n">
-        <v>2051881.914031114</v>
+        <v>2425857.529988661</v>
       </c>
       <c r="AF8" t="n">
         <v>2.937172124033114e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>55</v>
+        <v>54.54861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1856053.183990338</v>
+        <v>2194337.09203897</v>
       </c>
     </row>
     <row r="9">
@@ -22713,28 +22713,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1468.86545619257</v>
+        <v>1742.156504704602</v>
       </c>
       <c r="AB9" t="n">
-        <v>2009.766518933122</v>
+        <v>2383.695388257421</v>
       </c>
       <c r="AC9" t="n">
-        <v>1817.957223091169</v>
+        <v>2156.198845939622</v>
       </c>
       <c r="AD9" t="n">
-        <v>1468865.45619257</v>
+        <v>1742156.504704602</v>
       </c>
       <c r="AE9" t="n">
-        <v>2009766.518933122</v>
+        <v>2383695.388257421</v>
       </c>
       <c r="AF9" t="n">
         <v>2.969982728925453e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>54</v>
+        <v>53.94675925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>1817957.223091169</v>
+        <v>2156198.845939622</v>
       </c>
     </row>
     <row r="10">
@@ -22819,28 +22819,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1452.153476773988</v>
+        <v>1725.343040059535</v>
       </c>
       <c r="AB10" t="n">
-        <v>1986.900451412121</v>
+        <v>2360.690464172332</v>
       </c>
       <c r="AC10" t="n">
-        <v>1797.273460961646</v>
+        <v>2135.389479521599</v>
       </c>
       <c r="AD10" t="n">
-        <v>1452153.476773988</v>
+        <v>1725343.040059535</v>
       </c>
       <c r="AE10" t="n">
-        <v>1986900.451412121</v>
+        <v>2360690.464172332</v>
       </c>
       <c r="AF10" t="n">
         <v>2.995317499791689e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>54</v>
+        <v>53.49537037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>1797273.460961646</v>
+        <v>2135389.479521599</v>
       </c>
     </row>
     <row r="11">
@@ -22925,28 +22925,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1437.791790517962</v>
+        <v>1701.286849664299</v>
       </c>
       <c r="AB11" t="n">
-        <v>1967.250158683746</v>
+        <v>2327.775723189351</v>
       </c>
       <c r="AC11" t="n">
-        <v>1779.498564591907</v>
+        <v>2105.616075221906</v>
       </c>
       <c r="AD11" t="n">
-        <v>1437791.790517962</v>
+        <v>1701286.849664299</v>
       </c>
       <c r="AE11" t="n">
-        <v>1967250.158683746</v>
+        <v>2327775.723189351</v>
       </c>
       <c r="AF11" t="n">
         <v>3.016083705419751e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>54</v>
+        <v>53.125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1779498.564591907</v>
+        <v>2105616.075221905</v>
       </c>
     </row>
     <row r="12">
@@ -23031,28 +23031,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1413.056843303365</v>
+        <v>1676.619222257406</v>
       </c>
       <c r="AB12" t="n">
-        <v>1933.406712675877</v>
+        <v>2294.024387112325</v>
       </c>
       <c r="AC12" t="n">
-        <v>1748.885089571455</v>
+        <v>2075.085919289772</v>
       </c>
       <c r="AD12" t="n">
-        <v>1413056.843303365</v>
+        <v>1676619.222257406</v>
       </c>
       <c r="AE12" t="n">
-        <v>1933406.712675877</v>
+        <v>2294024.387112325</v>
       </c>
       <c r="AF12" t="n">
         <v>3.035465497339276e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>53</v>
+        <v>52.78935185185185</v>
       </c>
       <c r="AH12" t="n">
-        <v>1748885.089571455</v>
+        <v>2075085.919289772</v>
       </c>
     </row>
     <row r="13">
@@ -23137,28 +23137,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1403.862260138067</v>
+        <v>1667.424639092109</v>
       </c>
       <c r="AB13" t="n">
-        <v>1920.826278352737</v>
+        <v>2281.443952789183</v>
       </c>
       <c r="AC13" t="n">
-        <v>1737.505314243364</v>
+        <v>2063.706143961681</v>
       </c>
       <c r="AD13" t="n">
-        <v>1403862.260138067</v>
+        <v>1667424.639092109</v>
       </c>
       <c r="AE13" t="n">
-        <v>1920826.278352736</v>
+        <v>2281443.952789183</v>
       </c>
       <c r="AF13" t="n">
         <v>3.04820210345782e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>53</v>
+        <v>52.56944444444445</v>
       </c>
       <c r="AH13" t="n">
-        <v>1737505.314243364</v>
+        <v>2063706.143961682</v>
       </c>
     </row>
     <row r="14">
@@ -23243,28 +23243,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1391.20487209093</v>
+        <v>1654.665765818486</v>
       </c>
       <c r="AB14" t="n">
-        <v>1903.507881622093</v>
+        <v>2263.98669949445</v>
       </c>
       <c r="AC14" t="n">
-        <v>1721.83976099017</v>
+        <v>2047.914986419989</v>
       </c>
       <c r="AD14" t="n">
-        <v>1391204.87209093</v>
+        <v>1654665.765818486</v>
       </c>
       <c r="AE14" t="n">
-        <v>1903507.881622093</v>
+        <v>2263986.69949445</v>
       </c>
       <c r="AF14" t="n">
         <v>3.062323123284903e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>53</v>
+        <v>52.32638888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>1721839.76099017</v>
+        <v>2047914.986419989</v>
       </c>
     </row>
     <row r="15">
@@ -23349,28 +23349,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1382.634227813363</v>
+        <v>1646.095121540918</v>
       </c>
       <c r="AB15" t="n">
-        <v>1891.781148011385</v>
+        <v>2252.259965883743</v>
       </c>
       <c r="AC15" t="n">
-        <v>1711.232210376695</v>
+        <v>2037.307435806514</v>
       </c>
       <c r="AD15" t="n">
-        <v>1382634.227813363</v>
+        <v>1646095.121540918</v>
       </c>
       <c r="AE15" t="n">
-        <v>1891781.148011385</v>
+        <v>2252259.965883743</v>
       </c>
       <c r="AF15" t="n">
         <v>3.070768046906982e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>53</v>
+        <v>52.17592592592592</v>
       </c>
       <c r="AH15" t="n">
-        <v>1711232.210376695</v>
+        <v>2037307.435806514</v>
       </c>
     </row>
     <row r="16">
@@ -23455,28 +23455,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1375.127559579753</v>
+        <v>1628.8939491681</v>
       </c>
       <c r="AB16" t="n">
-        <v>1881.510193363331</v>
+        <v>2228.724562981085</v>
       </c>
       <c r="AC16" t="n">
-        <v>1701.941501224876</v>
+        <v>2016.018218724739</v>
       </c>
       <c r="AD16" t="n">
-        <v>1375127.559579753</v>
+        <v>1628893.9491681</v>
       </c>
       <c r="AE16" t="n">
-        <v>1881510.193363331</v>
+        <v>2228724.562981085</v>
       </c>
       <c r="AF16" t="n">
         <v>3.079074529158206e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>53</v>
+        <v>52.03703703703704</v>
       </c>
       <c r="AH16" t="n">
-        <v>1701941.501224876</v>
+        <v>2016018.21872474</v>
       </c>
     </row>
     <row r="17">
@@ -23561,28 +23561,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1354.168696838088</v>
+        <v>1617.696910373349</v>
       </c>
       <c r="AB17" t="n">
-        <v>1852.833352720419</v>
+        <v>2213.404280523618</v>
       </c>
       <c r="AC17" t="n">
-        <v>1676.001538004724</v>
+        <v>2002.160082522862</v>
       </c>
       <c r="AD17" t="n">
-        <v>1354168.696838088</v>
+        <v>1617696.910373349</v>
       </c>
       <c r="AE17" t="n">
-        <v>1852833.352720419</v>
+        <v>2213404.280523618</v>
       </c>
       <c r="AF17" t="n">
         <v>3.088488542376262e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>52</v>
+        <v>51.88657407407408</v>
       </c>
       <c r="AH17" t="n">
-        <v>1676001.538004724</v>
+        <v>2002160.082522862</v>
       </c>
     </row>
     <row r="18">
@@ -23667,28 +23667,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1347.021202507305</v>
+        <v>1610.549416042566</v>
       </c>
       <c r="AB18" t="n">
-        <v>1843.053835651846</v>
+        <v>2203.624763455045</v>
       </c>
       <c r="AC18" t="n">
-        <v>1667.155364319538</v>
+        <v>1993.313908837675</v>
       </c>
       <c r="AD18" t="n">
-        <v>1347021.202507305</v>
+        <v>1610549.416042566</v>
       </c>
       <c r="AE18" t="n">
-        <v>1843053.835651846</v>
+        <v>2203624.763455045</v>
       </c>
       <c r="AF18" t="n">
         <v>3.093749314468704e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>52</v>
+        <v>51.79398148148149</v>
       </c>
       <c r="AH18" t="n">
-        <v>1667155.364319538</v>
+        <v>1993313.908837675</v>
       </c>
     </row>
     <row r="19">
@@ -23773,28 +23773,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1338.670241695392</v>
+        <v>1602.198455230652</v>
       </c>
       <c r="AB19" t="n">
-        <v>1831.627682650597</v>
+        <v>2192.198610453796</v>
       </c>
       <c r="AC19" t="n">
-        <v>1656.819707324021</v>
+        <v>1982.978251842159</v>
       </c>
       <c r="AD19" t="n">
-        <v>1338670.241695392</v>
+        <v>1602198.455230652</v>
       </c>
       <c r="AE19" t="n">
-        <v>1831627.682650597</v>
+        <v>2192198.610453797</v>
       </c>
       <c r="AF19" t="n">
         <v>3.097764114223463e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>52</v>
+        <v>51.72453703703704</v>
       </c>
       <c r="AH19" t="n">
-        <v>1656819.707324021</v>
+        <v>1982978.251842159</v>
       </c>
     </row>
     <row r="20">
@@ -23879,28 +23879,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1329.895697325539</v>
+        <v>1593.423910860799</v>
       </c>
       <c r="AB20" t="n">
-        <v>1819.621963938187</v>
+        <v>2180.192891741386</v>
       </c>
       <c r="AC20" t="n">
-        <v>1645.959797555392</v>
+        <v>1972.11834207353</v>
       </c>
       <c r="AD20" t="n">
-        <v>1329895.697325539</v>
+        <v>1593423.910860799</v>
       </c>
       <c r="AE20" t="n">
-        <v>1819621.963938187</v>
+        <v>2180192.891741386</v>
       </c>
       <c r="AF20" t="n">
         <v>3.106485920587248e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>52</v>
+        <v>51.58564814814815</v>
       </c>
       <c r="AH20" t="n">
-        <v>1645959.797555392</v>
+        <v>1972118.34207353</v>
       </c>
     </row>
     <row r="21">
@@ -23985,28 +23985,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1323.754511416407</v>
+        <v>1587.282724951668</v>
       </c>
       <c r="AB21" t="n">
-        <v>1811.219322447312</v>
+        <v>2171.790250250512</v>
       </c>
       <c r="AC21" t="n">
-        <v>1638.359092375225</v>
+        <v>1964.517636893363</v>
       </c>
       <c r="AD21" t="n">
-        <v>1323754.511416408</v>
+        <v>1587282.724951668</v>
       </c>
       <c r="AE21" t="n">
-        <v>1811219.322447312</v>
+        <v>2171790.250250512</v>
       </c>
       <c r="AF21" t="n">
         <v>3.110085396229446e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>52</v>
+        <v>51.5162037037037</v>
       </c>
       <c r="AH21" t="n">
-        <v>1638359.092375225</v>
+        <v>1964517.636893363</v>
       </c>
     </row>
     <row r="22">
@@ -24091,28 +24091,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1312.786220159408</v>
+        <v>1566.518444328974</v>
       </c>
       <c r="AB22" t="n">
-        <v>1796.212022462626</v>
+        <v>2143.379645447133</v>
       </c>
       <c r="AC22" t="n">
-        <v>1624.7840680382</v>
+        <v>1938.818500337884</v>
       </c>
       <c r="AD22" t="n">
-        <v>1312786.220159408</v>
+        <v>1566518.444328974</v>
       </c>
       <c r="AE22" t="n">
-        <v>1796212.022462626</v>
+        <v>2143379.645447133</v>
       </c>
       <c r="AF22" t="n">
         <v>3.116730582030426e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>52</v>
+        <v>51.41203703703704</v>
       </c>
       <c r="AH22" t="n">
-        <v>1624784.0680382</v>
+        <v>1938818.500337884</v>
       </c>
     </row>
     <row r="23">
@@ -24197,28 +24197,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1307.336098601938</v>
+        <v>1561.068322771504</v>
       </c>
       <c r="AB23" t="n">
-        <v>1788.754925705303</v>
+        <v>2135.922548689809</v>
       </c>
       <c r="AC23" t="n">
-        <v>1618.038666129294</v>
+        <v>1932.073098428978</v>
       </c>
       <c r="AD23" t="n">
-        <v>1307336.098601938</v>
+        <v>1561068.322771504</v>
       </c>
       <c r="AE23" t="n">
-        <v>1788754.925705303</v>
+        <v>2135922.548689809</v>
       </c>
       <c r="AF23" t="n">
         <v>3.119914733560062e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>52</v>
+        <v>51.35416666666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>1618038.666129294</v>
+        <v>1932073.098428978</v>
       </c>
     </row>
     <row r="24">
@@ -24303,28 +24303,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1305.546728904336</v>
+        <v>1559.278953073902</v>
       </c>
       <c r="AB24" t="n">
-        <v>1786.306631143624</v>
+        <v>2133.47425412813</v>
       </c>
       <c r="AC24" t="n">
-        <v>1615.824033364379</v>
+        <v>1929.858465664063</v>
       </c>
       <c r="AD24" t="n">
-        <v>1305546.728904336</v>
+        <v>1559278.953073902</v>
       </c>
       <c r="AE24" t="n">
-        <v>1786306.631143624</v>
+        <v>2133474.25412813</v>
       </c>
       <c r="AF24" t="n">
         <v>3.119776292189208e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>52</v>
+        <v>51.36574074074074</v>
       </c>
       <c r="AH24" t="n">
-        <v>1615824.033364379</v>
+        <v>1929858.465664063</v>
       </c>
     </row>
     <row r="25">
@@ -24409,28 +24409,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1305.181022502424</v>
+        <v>1558.91324667199</v>
       </c>
       <c r="AB25" t="n">
-        <v>1785.8062555107</v>
+        <v>2132.973878495206</v>
       </c>
       <c r="AC25" t="n">
-        <v>1615.371412879579</v>
+        <v>1929.405845179263</v>
       </c>
       <c r="AD25" t="n">
-        <v>1305181.022502424</v>
+        <v>1558913.24667199</v>
       </c>
       <c r="AE25" t="n">
-        <v>1785806.2555107</v>
+        <v>2132973.878495206</v>
       </c>
       <c r="AF25" t="n">
         <v>3.119222526705793e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>52</v>
+        <v>51.36574074074074</v>
       </c>
       <c r="AH25" t="n">
-        <v>1615371.412879579</v>
+        <v>1929405.845179263</v>
       </c>
     </row>
     <row r="26">
@@ -24515,28 +24515,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1305.530176422665</v>
+        <v>1559.262400592231</v>
       </c>
       <c r="AB26" t="n">
-        <v>1786.283983307957</v>
+        <v>2133.451606292464</v>
       </c>
       <c r="AC26" t="n">
-        <v>1615.803547006362</v>
+        <v>1929.837979306046</v>
       </c>
       <c r="AD26" t="n">
-        <v>1305530.176422665</v>
+        <v>1559262.40059223</v>
       </c>
       <c r="AE26" t="n">
-        <v>1786283.983307957</v>
+        <v>2133451.606292463</v>
       </c>
       <c r="AF26" t="n">
         <v>3.124344857427382e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>52</v>
+        <v>51.28472222222223</v>
       </c>
       <c r="AH26" t="n">
-        <v>1615803.547006362</v>
+        <v>1929837.979306046</v>
       </c>
     </row>
   </sheetData>
@@ -24812,28 +24812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1909.25387796285</v>
+        <v>2261.450166144696</v>
       </c>
       <c r="AB2" t="n">
-        <v>2612.325386165188</v>
+        <v>3094.215885459398</v>
       </c>
       <c r="AC2" t="n">
-        <v>2363.008717731288</v>
+        <v>2798.908264110306</v>
       </c>
       <c r="AD2" t="n">
-        <v>1909253.87796285</v>
+        <v>2261450.166144696</v>
       </c>
       <c r="AE2" t="n">
-        <v>2612325.386165188</v>
+        <v>3094215.885459398</v>
       </c>
       <c r="AF2" t="n">
         <v>2.754843917760406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.51157407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>2363008.717731289</v>
+        <v>2798908.264110306</v>
       </c>
     </row>
     <row r="3">
@@ -24918,28 +24918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1437.190291879451</v>
+        <v>1732.132477480793</v>
       </c>
       <c r="AB3" t="n">
-        <v>1966.427161710288</v>
+        <v>2369.980071980935</v>
       </c>
       <c r="AC3" t="n">
-        <v>1778.754113294513</v>
+        <v>2143.792500198997</v>
       </c>
       <c r="AD3" t="n">
-        <v>1437190.291879451</v>
+        <v>1732132.477480793</v>
       </c>
       <c r="AE3" t="n">
-        <v>1966427.161710288</v>
+        <v>2369980.071980936</v>
       </c>
       <c r="AF3" t="n">
         <v>3.358382896610684e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.47916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1778754.113294513</v>
+        <v>2143792.500198997</v>
       </c>
     </row>
     <row r="4">
@@ -25024,28 +25024,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1305.350758890758</v>
+        <v>1581.354945740173</v>
       </c>
       <c r="AB4" t="n">
-        <v>1786.03849632546</v>
+        <v>2163.679601218182</v>
       </c>
       <c r="AC4" t="n">
-        <v>1615.581488956931</v>
+        <v>1957.181056821311</v>
       </c>
       <c r="AD4" t="n">
-        <v>1305350.758890758</v>
+        <v>1581354.945740173</v>
       </c>
       <c r="AE4" t="n">
-        <v>1786038.49632546</v>
+        <v>2163679.601218182</v>
       </c>
       <c r="AF4" t="n">
         <v>3.576878849491568e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>55.84490740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>1615581.488956931</v>
+        <v>1957181.056821311</v>
       </c>
     </row>
     <row r="5">
@@ -25130,28 +25130,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1249.540632300622</v>
+        <v>1515.957757353126</v>
       </c>
       <c r="AB5" t="n">
-        <v>1709.676618955821</v>
+        <v>2074.200282946694</v>
       </c>
       <c r="AC5" t="n">
-        <v>1546.507481988882</v>
+        <v>1876.241519100642</v>
       </c>
       <c r="AD5" t="n">
-        <v>1249540.632300622</v>
+        <v>1515957.757353126</v>
       </c>
       <c r="AE5" t="n">
-        <v>1709676.618955821</v>
+        <v>2074200.282946694</v>
       </c>
       <c r="AF5" t="n">
         <v>3.689923754023147e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>55</v>
+        <v>54.13194444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>1546507.481988882</v>
+        <v>1876241.519100642</v>
       </c>
     </row>
     <row r="6">
@@ -25236,28 +25236,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1207.272308456662</v>
+        <v>1464.20385693874</v>
       </c>
       <c r="AB6" t="n">
-        <v>1651.843233525674</v>
+        <v>2003.388313178787</v>
       </c>
       <c r="AC6" t="n">
-        <v>1494.193633694522</v>
+        <v>1812.18774434216</v>
       </c>
       <c r="AD6" t="n">
-        <v>1207272.308456662</v>
+        <v>1464203.85693874</v>
       </c>
       <c r="AE6" t="n">
-        <v>1651843.233525674</v>
+        <v>2003388.313178787</v>
       </c>
       <c r="AF6" t="n">
         <v>3.758786222585133e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>54</v>
+        <v>53.14814814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>1494193.633694522</v>
+        <v>1812187.74434216</v>
       </c>
     </row>
     <row r="7">
@@ -25342,28 +25342,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1174.678108986114</v>
+        <v>1431.575492049412</v>
       </c>
       <c r="AB7" t="n">
-        <v>1607.246411855476</v>
+        <v>1958.744744875342</v>
       </c>
       <c r="AC7" t="n">
-        <v>1453.853070092496</v>
+        <v>1771.804895539954</v>
       </c>
       <c r="AD7" t="n">
-        <v>1174678.108986114</v>
+        <v>1431575.492049412</v>
       </c>
       <c r="AE7" t="n">
-        <v>1607246.411855476</v>
+        <v>1958744.744875342</v>
       </c>
       <c r="AF7" t="n">
         <v>3.805384885521814e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>53</v>
+        <v>52.48842592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>1453853.070092496</v>
+        <v>1771804.895539954</v>
       </c>
     </row>
     <row r="8">
@@ -25448,28 +25448,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1143.594810487275</v>
+        <v>1400.559513358277</v>
       </c>
       <c r="AB8" t="n">
-        <v>1564.716871551017</v>
+        <v>1916.307314501723</v>
       </c>
       <c r="AC8" t="n">
-        <v>1415.382489424109</v>
+        <v>1733.417633959886</v>
       </c>
       <c r="AD8" t="n">
-        <v>1143594.810487275</v>
+        <v>1400559.513358277</v>
       </c>
       <c r="AE8" t="n">
-        <v>1564716.871551017</v>
+        <v>1916307.314501723</v>
       </c>
       <c r="AF8" t="n">
         <v>3.844044516995209e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>52</v>
+        <v>51.96759259259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>1415382.489424109</v>
+        <v>1733417.633959886</v>
       </c>
     </row>
     <row r="9">
@@ -25554,28 +25554,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1126.749152977818</v>
+        <v>1383.71385584882</v>
       </c>
       <c r="AB9" t="n">
-        <v>1541.667899768619</v>
+        <v>1893.258342719326</v>
       </c>
       <c r="AC9" t="n">
-        <v>1394.533279159188</v>
+        <v>1712.568423694966</v>
       </c>
       <c r="AD9" t="n">
-        <v>1126749.152977818</v>
+        <v>1383713.85584882</v>
       </c>
       <c r="AE9" t="n">
-        <v>1541667.899768619</v>
+        <v>1893258.342719326</v>
       </c>
       <c r="AF9" t="n">
         <v>3.864927621496462e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>52</v>
+        <v>51.67824074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>1394533.279159188</v>
+        <v>1712568.423694965</v>
       </c>
     </row>
     <row r="10">
@@ -25660,28 +25660,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1109.031211107648</v>
+        <v>1356.443017600521</v>
       </c>
       <c r="AB10" t="n">
-        <v>1517.425430041424</v>
+        <v>1855.945178723529</v>
       </c>
       <c r="AC10" t="n">
-        <v>1372.604476718237</v>
+        <v>1678.816375701573</v>
       </c>
       <c r="AD10" t="n">
-        <v>1109031.211107648</v>
+        <v>1356443.017600521</v>
       </c>
       <c r="AE10" t="n">
-        <v>1517425.430041424</v>
+        <v>1855945.178723529</v>
       </c>
       <c r="AF10" t="n">
         <v>3.886328488919234e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>52</v>
+        <v>51.40046296296296</v>
       </c>
       <c r="AH10" t="n">
-        <v>1372604.476718237</v>
+        <v>1678816.375701573</v>
       </c>
     </row>
     <row r="11">
@@ -25766,28 +25766,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1099.707219964921</v>
+        <v>1347.119026457794</v>
       </c>
       <c r="AB11" t="n">
-        <v>1504.667934014487</v>
+        <v>1843.187682696592</v>
       </c>
       <c r="AC11" t="n">
-        <v>1361.064538206853</v>
+        <v>1667.276437190189</v>
       </c>
       <c r="AD11" t="n">
-        <v>1099707.219964921</v>
+        <v>1347119.026457794</v>
       </c>
       <c r="AE11" t="n">
-        <v>1504667.934014487</v>
+        <v>1843187.682696593</v>
       </c>
       <c r="AF11" t="n">
         <v>3.895475633866064e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>52</v>
+        <v>51.27314814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>1361064.538206853</v>
+        <v>1667276.437190189</v>
       </c>
     </row>
     <row r="12">
@@ -25872,28 +25872,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1101.099066679242</v>
+        <v>1348.510873172114</v>
       </c>
       <c r="AB12" t="n">
-        <v>1506.572320092964</v>
+        <v>1845.092068775069</v>
       </c>
       <c r="AC12" t="n">
-        <v>1362.787172350822</v>
+        <v>1668.999071334159</v>
       </c>
       <c r="AD12" t="n">
-        <v>1101099.066679242</v>
+        <v>1348510.873172114</v>
       </c>
       <c r="AE12" t="n">
-        <v>1506572.320092964</v>
+        <v>1845092.068775069</v>
       </c>
       <c r="AF12" t="n">
         <v>3.894612695663533e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>52</v>
+        <v>51.2962962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>1362787.172350822</v>
+        <v>1668999.071334159</v>
       </c>
     </row>
   </sheetData>
@@ -26169,28 +26169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1522.241905873723</v>
+        <v>1841.805309570154</v>
       </c>
       <c r="AB2" t="n">
-        <v>2082.798532189643</v>
+        <v>2520.039279269472</v>
       </c>
       <c r="AC2" t="n">
-        <v>1884.019163503562</v>
+        <v>2279.530267353336</v>
       </c>
       <c r="AD2" t="n">
-        <v>1522241.905873724</v>
+        <v>1841805.309570154</v>
       </c>
       <c r="AE2" t="n">
-        <v>2082798.532189643</v>
+        <v>2520039.279269472</v>
       </c>
       <c r="AF2" t="n">
         <v>3.441532519452097e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.99537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1884019.163503562</v>
+        <v>2279530.267353335</v>
       </c>
     </row>
     <row r="3">
@@ -26275,28 +26275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1220.427172683668</v>
+        <v>1493.020074955644</v>
       </c>
       <c r="AB3" t="n">
-        <v>1669.842299112714</v>
+        <v>2042.815933951332</v>
       </c>
       <c r="AC3" t="n">
-        <v>1510.474893723783</v>
+        <v>1847.852448325187</v>
       </c>
       <c r="AD3" t="n">
-        <v>1220427.172683668</v>
+        <v>1493020.074955644</v>
       </c>
       <c r="AE3" t="n">
-        <v>1669842.299112715</v>
+        <v>2042815.933951332</v>
       </c>
       <c r="AF3" t="n">
         <v>4.007500460724825e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.67824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1510474.893723783</v>
+        <v>1847852.448325187</v>
       </c>
     </row>
     <row r="4">
@@ -26381,28 +26381,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1125.510275842556</v>
+        <v>1388.668079327105</v>
       </c>
       <c r="AB4" t="n">
-        <v>1539.972813416751</v>
+        <v>1900.036929847229</v>
       </c>
       <c r="AC4" t="n">
-        <v>1392.999969469674</v>
+        <v>1718.700071981188</v>
       </c>
       <c r="AD4" t="n">
-        <v>1125510.275842556</v>
+        <v>1388668.079327105</v>
       </c>
       <c r="AE4" t="n">
-        <v>1539972.813416751</v>
+        <v>1900036.929847229</v>
       </c>
       <c r="AF4" t="n">
         <v>4.20806191564186e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.98148148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>1392999.969469674</v>
+        <v>1718700.071981188</v>
       </c>
     </row>
     <row r="5">
@@ -26487,28 +26487,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1078.525876612182</v>
+        <v>1332.316912146865</v>
       </c>
       <c r="AB5" t="n">
-        <v>1475.686685584351</v>
+        <v>1822.934776873185</v>
       </c>
       <c r="AC5" t="n">
-        <v>1334.849219451451</v>
+        <v>1648.956440273436</v>
       </c>
       <c r="AD5" t="n">
-        <v>1078525.876612182</v>
+        <v>1332316.912146865</v>
       </c>
       <c r="AE5" t="n">
-        <v>1475686.685584351</v>
+        <v>1822934.776873185</v>
       </c>
       <c r="AF5" t="n">
         <v>4.309323863525608e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.70833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1334849.219451451</v>
+        <v>1648956.440273436</v>
       </c>
     </row>
     <row r="6">
@@ -26593,28 +26593,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1040.309012739782</v>
+        <v>1294.065882855684</v>
       </c>
       <c r="AB6" t="n">
-        <v>1423.396686425092</v>
+        <v>1770.598031080678</v>
       </c>
       <c r="AC6" t="n">
-        <v>1287.549704422477</v>
+        <v>1601.614640044281</v>
       </c>
       <c r="AD6" t="n">
-        <v>1040309.012739782</v>
+        <v>1294065.882855684</v>
       </c>
       <c r="AE6" t="n">
-        <v>1423396.686425092</v>
+        <v>1770598.031080678</v>
       </c>
       <c r="AF6" t="n">
         <v>4.371533238485197e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.95601851851853</v>
       </c>
       <c r="AH6" t="n">
-        <v>1287549.704422477</v>
+        <v>1601614.640044281</v>
       </c>
     </row>
     <row r="7">
@@ -26699,28 +26699,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1019.83758536752</v>
+        <v>1273.594455483422</v>
       </c>
       <c r="AB7" t="n">
-        <v>1395.386776358727</v>
+        <v>1742.588121014313</v>
       </c>
       <c r="AC7" t="n">
-        <v>1262.21302086069</v>
+        <v>1576.277956482495</v>
       </c>
       <c r="AD7" t="n">
-        <v>1019837.58536752</v>
+        <v>1273594.455483422</v>
       </c>
       <c r="AE7" t="n">
-        <v>1395386.776358727</v>
+        <v>1742588.121014313</v>
       </c>
       <c r="AF7" t="n">
         <v>4.407642150133665e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>52</v>
+        <v>51.52777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1262213.02086069</v>
+        <v>1576277.956482495</v>
       </c>
     </row>
     <row r="8">
@@ -26805,28 +26805,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1019.081853004114</v>
+        <v>1272.838723120017</v>
       </c>
       <c r="AB8" t="n">
-        <v>1394.352749998557</v>
+        <v>1741.554094654143</v>
       </c>
       <c r="AC8" t="n">
-        <v>1261.27768052507</v>
+        <v>1575.342616146875</v>
       </c>
       <c r="AD8" t="n">
-        <v>1019081.853004114</v>
+        <v>1272838.723120017</v>
       </c>
       <c r="AE8" t="n">
-        <v>1394352.749998557</v>
+        <v>1741554.094654143</v>
       </c>
       <c r="AF8" t="n">
         <v>4.408819614643941e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>52</v>
+        <v>51.5162037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1261277.68052507</v>
+        <v>1575342.616146875</v>
       </c>
     </row>
     <row r="9">
@@ -26911,28 +26911,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1022.701127003777</v>
+        <v>1276.457997119679</v>
       </c>
       <c r="AB9" t="n">
-        <v>1399.304800355995</v>
+        <v>1746.506145011582</v>
       </c>
       <c r="AC9" t="n">
-        <v>1265.757114146641</v>
+        <v>1579.822049768445</v>
       </c>
       <c r="AD9" t="n">
-        <v>1022701.127003777</v>
+        <v>1276457.99711968</v>
       </c>
       <c r="AE9" t="n">
-        <v>1399304.800355996</v>
+        <v>1746506.145011581</v>
       </c>
       <c r="AF9" t="n">
         <v>4.408623370558896e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>52</v>
+        <v>51.5162037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>1265757.114146641</v>
+        <v>1579822.049768445</v>
       </c>
     </row>
   </sheetData>
@@ -50957,28 +50957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1283.334831564163</v>
+        <v>1581.057458091476</v>
       </c>
       <c r="AB2" t="n">
-        <v>1755.915333283049</v>
+        <v>2163.272565493006</v>
       </c>
       <c r="AC2" t="n">
-        <v>1588.333238317162</v>
+        <v>1956.812868014467</v>
       </c>
       <c r="AD2" t="n">
-        <v>1283334.831564163</v>
+        <v>1581057.458091476</v>
       </c>
       <c r="AE2" t="n">
-        <v>1755915.333283049</v>
+        <v>2163272.565493006</v>
       </c>
       <c r="AF2" t="n">
         <v>4.120420741172703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.90972222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>1588333.238317162</v>
+        <v>1956812.868014467</v>
       </c>
     </row>
     <row r="3">
@@ -51063,28 +51063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1068.328924198002</v>
+        <v>1338.099483053576</v>
       </c>
       <c r="AB3" t="n">
-        <v>1461.734765433479</v>
+        <v>1830.846745496771</v>
       </c>
       <c r="AC3" t="n">
-        <v>1322.228850978135</v>
+        <v>1656.113301716104</v>
       </c>
       <c r="AD3" t="n">
-        <v>1068328.924198002</v>
+        <v>1338099.483053576</v>
       </c>
       <c r="AE3" t="n">
-        <v>1461734.765433479</v>
+        <v>1830846.745496771</v>
       </c>
       <c r="AF3" t="n">
         <v>4.65200262113144e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.83796296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>1322228.850978135</v>
+        <v>1656113.301716104</v>
       </c>
     </row>
     <row r="4">
@@ -51169,28 +51169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>994.9785155025462</v>
+        <v>1246.205470360378</v>
       </c>
       <c r="AB4" t="n">
-        <v>1361.373500264709</v>
+        <v>1705.113303252219</v>
       </c>
       <c r="AC4" t="n">
-        <v>1231.445924099153</v>
+        <v>1542.379682731378</v>
       </c>
       <c r="AD4" t="n">
-        <v>994978.5155025462</v>
+        <v>1246205.470360378</v>
       </c>
       <c r="AE4" t="n">
-        <v>1361373.50026471</v>
+        <v>1705113.303252219</v>
       </c>
       <c r="AF4" t="n">
         <v>4.838673372509985e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.71990740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>1231445.924099153</v>
+        <v>1542379.682731378</v>
       </c>
     </row>
     <row r="5">
@@ -51275,28 +51275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>955.0508592971662</v>
+        <v>1206.243648736217</v>
       </c>
       <c r="AB5" t="n">
-        <v>1306.742719560636</v>
+        <v>1650.435775914898</v>
       </c>
       <c r="AC5" t="n">
-        <v>1182.029028430694</v>
+        <v>1492.920501862739</v>
       </c>
       <c r="AD5" t="n">
-        <v>955050.8592971662</v>
+        <v>1206243.648736217</v>
       </c>
       <c r="AE5" t="n">
-        <v>1306742.719560636</v>
+        <v>1650435.775914898</v>
       </c>
       <c r="AF5" t="n">
         <v>4.919556685090772e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.85185185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>1182029.028430694</v>
+        <v>1492920.501862739</v>
       </c>
     </row>
     <row r="6">
@@ -51381,28 +51381,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>956.8152680561456</v>
+        <v>1208.008057495196</v>
       </c>
       <c r="AB6" t="n">
-        <v>1309.156861464892</v>
+        <v>1652.849917819154</v>
       </c>
       <c r="AC6" t="n">
-        <v>1184.212768019877</v>
+        <v>1495.104241451923</v>
       </c>
       <c r="AD6" t="n">
-        <v>956815.2680561455</v>
+        <v>1208008.057495196</v>
       </c>
       <c r="AE6" t="n">
-        <v>1309156.861464892</v>
+        <v>1652849.917819154</v>
       </c>
       <c r="AF6" t="n">
         <v>4.922201371060715e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.8287037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>1184212.768019877</v>
+        <v>1495104.241451923</v>
       </c>
     </row>
     <row r="7">
@@ -51487,28 +51487,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>960.7024553138579</v>
+        <v>1211.895244752908</v>
       </c>
       <c r="AB7" t="n">
-        <v>1314.475482561493</v>
+        <v>1658.168538915754</v>
       </c>
       <c r="AC7" t="n">
-        <v>1189.02378738375</v>
+        <v>1499.915260815795</v>
       </c>
       <c r="AD7" t="n">
-        <v>960702.4553138579</v>
+        <v>1211895.244752908</v>
       </c>
       <c r="AE7" t="n">
-        <v>1314475.482561493</v>
+        <v>1658168.538915754</v>
       </c>
       <c r="AF7" t="n">
         <v>4.92198098056322e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>52</v>
+        <v>51.8287037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1189023.78738375</v>
+        <v>1499915.260815795</v>
       </c>
     </row>
   </sheetData>
@@ -51784,28 +51784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>905.6560002818738</v>
+        <v>1170.001417557792</v>
       </c>
       <c r="AB2" t="n">
-        <v>1239.15849430853</v>
+        <v>1600.847556322182</v>
       </c>
       <c r="AC2" t="n">
-        <v>1120.894946781593</v>
+        <v>1448.064912350448</v>
       </c>
       <c r="AD2" t="n">
-        <v>905656.0002818739</v>
+        <v>1170001.417557792</v>
       </c>
       <c r="AE2" t="n">
-        <v>1239158.49430853</v>
+        <v>1600847.556322182</v>
       </c>
       <c r="AF2" t="n">
         <v>6.06671257829569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.61342592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>1120894.946781593</v>
+        <v>1448064.912350448</v>
       </c>
     </row>
     <row r="3">
@@ -51890,28 +51890,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>850.0772494241183</v>
+        <v>1105.304951247847</v>
       </c>
       <c r="AB3" t="n">
-        <v>1163.113195423512</v>
+        <v>1512.326996910261</v>
       </c>
       <c r="AC3" t="n">
-        <v>1052.107304491914</v>
+        <v>1367.992630889417</v>
       </c>
       <c r="AD3" t="n">
-        <v>850077.2494241183</v>
+        <v>1105304.951247847</v>
       </c>
       <c r="AE3" t="n">
-        <v>1163113.195423512</v>
+        <v>1512326.996910261</v>
       </c>
       <c r="AF3" t="n">
         <v>6.305440181314195e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.50694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1052107.304491914</v>
+        <v>1367992.630889417</v>
       </c>
     </row>
     <row r="4">
@@ -51996,28 +51996,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>854.9185710453647</v>
+        <v>1110.146272869094</v>
       </c>
       <c r="AB4" t="n">
-        <v>1169.737305249737</v>
+        <v>1518.951106736487</v>
       </c>
       <c r="AC4" t="n">
-        <v>1058.099218573321</v>
+        <v>1373.984544970823</v>
       </c>
       <c r="AD4" t="n">
-        <v>854918.5710453647</v>
+        <v>1110146.272869094</v>
       </c>
       <c r="AE4" t="n">
-        <v>1169737.305249737</v>
+        <v>1518951.106736487</v>
       </c>
       <c r="AF4" t="n">
         <v>6.305440181314195e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.50694444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1058099.218573321</v>
+        <v>1373984.544970823</v>
       </c>
     </row>
   </sheetData>
@@ -52293,28 +52293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2341.27990223041</v>
+        <v>2735.649414273754</v>
       </c>
       <c r="AB2" t="n">
-        <v>3203.442452211275</v>
+        <v>3743.036216943966</v>
       </c>
       <c r="AC2" t="n">
-        <v>2897.71040063183</v>
+        <v>3385.806093783018</v>
       </c>
       <c r="AD2" t="n">
-        <v>2341279.90223041</v>
+        <v>2735649.414273754</v>
       </c>
       <c r="AE2" t="n">
-        <v>3203442.452211275</v>
+        <v>3743036.216943966</v>
       </c>
       <c r="AF2" t="n">
         <v>2.271957913825515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>79.76851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>2897710.40063183</v>
+        <v>3385806.093783018</v>
       </c>
     </row>
     <row r="3">
@@ -52399,28 +52399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1653.213013558165</v>
+        <v>1960.931289063848</v>
       </c>
       <c r="AB3" t="n">
-        <v>2261.998979760972</v>
+        <v>2683.032699880049</v>
       </c>
       <c r="AC3" t="n">
-        <v>2046.116971868092</v>
+        <v>2426.967824663541</v>
       </c>
       <c r="AD3" t="n">
-        <v>1653213.013558165</v>
+        <v>1960931.289063849</v>
       </c>
       <c r="AE3" t="n">
-        <v>2261998.979760972</v>
+        <v>2683032.699880049</v>
       </c>
       <c r="AF3" t="n">
         <v>2.904736322383576e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>63</v>
+        <v>62.39583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2046116.971868092</v>
+        <v>2426967.824663541</v>
       </c>
     </row>
     <row r="4">
@@ -52505,28 +52505,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1476.499664123685</v>
+        <v>1765.044389052639</v>
       </c>
       <c r="AB4" t="n">
-        <v>2020.211979021958</v>
+        <v>2415.0116013646</v>
       </c>
       <c r="AC4" t="n">
-        <v>1827.405783129422</v>
+        <v>2184.526283620432</v>
       </c>
       <c r="AD4" t="n">
-        <v>1476499.664123685</v>
+        <v>1765044.389052639</v>
       </c>
       <c r="AE4" t="n">
-        <v>2020211.979021958</v>
+        <v>2415011.6013646</v>
       </c>
       <c r="AF4" t="n">
         <v>3.139464071561635e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>58</v>
+        <v>57.73148148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>1827405.783129422</v>
+        <v>2184526.283620432</v>
       </c>
     </row>
     <row r="5">
@@ -52611,28 +52611,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1397.382853632653</v>
+        <v>1676.30714336939</v>
       </c>
       <c r="AB5" t="n">
-        <v>1911.960868520788</v>
+        <v>2293.597387009791</v>
       </c>
       <c r="AC5" t="n">
-        <v>1729.486006683096</v>
+        <v>2074.699671477727</v>
       </c>
       <c r="AD5" t="n">
-        <v>1397382.853632653</v>
+        <v>1676307.14336939</v>
       </c>
       <c r="AE5" t="n">
-        <v>1911960.868520788</v>
+        <v>2293597.387009792</v>
       </c>
       <c r="AF5" t="n">
         <v>3.26050780079088e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>56</v>
+        <v>55.59027777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1729486.006683096</v>
+        <v>2074699.671477727</v>
       </c>
     </row>
     <row r="6">
@@ -52717,28 +52717,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1348.95125944748</v>
+        <v>1618.187794184295</v>
       </c>
       <c r="AB6" t="n">
-        <v>1845.694624705497</v>
+        <v>2214.075929410021</v>
       </c>
       <c r="AC6" t="n">
-        <v>1669.544120172279</v>
+        <v>2002.767630182212</v>
       </c>
       <c r="AD6" t="n">
-        <v>1348951.25944748</v>
+        <v>1618187.794184295</v>
       </c>
       <c r="AE6" t="n">
-        <v>1845694.624705497</v>
+        <v>2214075.929410021</v>
       </c>
       <c r="AF6" t="n">
         <v>3.337706453455845e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>55</v>
+        <v>54.30555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1669544.120172278</v>
+        <v>2002767.630182212</v>
       </c>
     </row>
     <row r="7">
@@ -52823,28 +52823,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1314.333747152589</v>
+        <v>1583.637601697109</v>
       </c>
       <c r="AB7" t="n">
-        <v>1798.329417166769</v>
+        <v>2166.802831802135</v>
       </c>
       <c r="AC7" t="n">
-        <v>1626.699381563561</v>
+        <v>1960.006210661814</v>
       </c>
       <c r="AD7" t="n">
-        <v>1314333.747152589</v>
+        <v>1583637.601697109</v>
       </c>
       <c r="AE7" t="n">
-        <v>1798329.417166769</v>
+        <v>2166802.831802135</v>
       </c>
       <c r="AF7" t="n">
         <v>3.385622858558238e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>54</v>
+        <v>53.53009259259259</v>
       </c>
       <c r="AH7" t="n">
-        <v>1626699.381563561</v>
+        <v>1960006.210661814</v>
       </c>
     </row>
     <row r="8">
@@ -52929,28 +52929,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1281.909911070833</v>
+        <v>1551.179600196572</v>
       </c>
       <c r="AB8" t="n">
-        <v>1753.965694201018</v>
+        <v>2122.392362203137</v>
       </c>
       <c r="AC8" t="n">
-        <v>1586.569670052785</v>
+        <v>1919.834213950858</v>
       </c>
       <c r="AD8" t="n">
-        <v>1281909.911070833</v>
+        <v>1551179.600196572</v>
       </c>
       <c r="AE8" t="n">
-        <v>1753965.694201018</v>
+        <v>2122392.362203137</v>
       </c>
       <c r="AF8" t="n">
         <v>3.425396606584406e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>53</v>
+        <v>52.90509259259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>1586569.670052785</v>
+        <v>1919834.213950858</v>
       </c>
     </row>
     <row r="9">
@@ -53035,28 +53035,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1265.708916070184</v>
+        <v>1525.426500841268</v>
       </c>
       <c r="AB9" t="n">
-        <v>1731.798778103675</v>
+        <v>2087.155835518651</v>
       </c>
       <c r="AC9" t="n">
-        <v>1566.518333316311</v>
+        <v>1887.960611918364</v>
       </c>
       <c r="AD9" t="n">
-        <v>1265708.916070184</v>
+        <v>1525426.500841268</v>
       </c>
       <c r="AE9" t="n">
-        <v>1731798.778103675</v>
+        <v>2087155.835518651</v>
       </c>
       <c r="AF9" t="n">
         <v>3.451390473404658e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>53</v>
+        <v>52.51157407407408</v>
       </c>
       <c r="AH9" t="n">
-        <v>1566518.333316311</v>
+        <v>1887960.611918364</v>
       </c>
     </row>
     <row r="10">
@@ -53141,28 +53141,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1251.122347593656</v>
+        <v>1510.738447138254</v>
       </c>
       <c r="AB10" t="n">
-        <v>1711.840791600105</v>
+        <v>2067.058992450991</v>
       </c>
       <c r="AC10" t="n">
-        <v>1548.465109033431</v>
+        <v>1869.781783346985</v>
       </c>
       <c r="AD10" t="n">
-        <v>1251122.347593656</v>
+        <v>1510738.447138254</v>
       </c>
       <c r="AE10" t="n">
-        <v>1711840.791600105</v>
+        <v>2067058.992450991</v>
       </c>
       <c r="AF10" t="n">
         <v>3.470494399621951e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>53</v>
+        <v>52.22222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1548465.109033431</v>
+        <v>1869781.783346985</v>
       </c>
     </row>
     <row r="11">
@@ -53247,28 +53247,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1226.790623475881</v>
+        <v>1486.474042828184</v>
       </c>
       <c r="AB11" t="n">
-        <v>1678.549053222257</v>
+        <v>2033.859364003985</v>
       </c>
       <c r="AC11" t="n">
-        <v>1518.350687441117</v>
+        <v>1839.75068084299</v>
       </c>
       <c r="AD11" t="n">
-        <v>1226790.623475881</v>
+        <v>1486474.042828184</v>
       </c>
       <c r="AE11" t="n">
-        <v>1678549.053222257</v>
+        <v>2033859.364003985</v>
       </c>
       <c r="AF11" t="n">
         <v>3.491633990108301e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>52</v>
+        <v>51.90972222222223</v>
       </c>
       <c r="AH11" t="n">
-        <v>1518350.687441117</v>
+        <v>1839750.68084299</v>
       </c>
     </row>
     <row r="12">
@@ -53353,28 +53353,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1213.036902423909</v>
+        <v>1472.720321776212</v>
       </c>
       <c r="AB12" t="n">
-        <v>1659.7306053076</v>
+        <v>2015.040916089328</v>
       </c>
       <c r="AC12" t="n">
-        <v>1501.328245783577</v>
+        <v>1822.72823918545</v>
       </c>
       <c r="AD12" t="n">
-        <v>1213036.902423909</v>
+        <v>1472720.321776212</v>
       </c>
       <c r="AE12" t="n">
-        <v>1659730.6053076</v>
+        <v>2015040.916089328</v>
       </c>
       <c r="AF12" t="n">
         <v>3.50431774440011e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>52</v>
+        <v>51.72453703703704</v>
       </c>
       <c r="AH12" t="n">
-        <v>1501328.245783577</v>
+        <v>1822728.23918545</v>
       </c>
     </row>
     <row r="13">
@@ -53459,28 +53459,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1200.206895378943</v>
+        <v>1459.890314731246</v>
       </c>
       <c r="AB13" t="n">
-        <v>1642.176023648714</v>
+        <v>1997.486334430443</v>
       </c>
       <c r="AC13" t="n">
-        <v>1485.449048760205</v>
+        <v>1806.849042162078</v>
       </c>
       <c r="AD13" t="n">
-        <v>1200206.895378944</v>
+        <v>1459890.314731246</v>
       </c>
       <c r="AE13" t="n">
-        <v>1642176.023648714</v>
+        <v>1997486.334430443</v>
       </c>
       <c r="AF13" t="n">
         <v>3.517784446487711e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>52</v>
+        <v>51.5162037037037</v>
       </c>
       <c r="AH13" t="n">
-        <v>1485449.048760205</v>
+        <v>1806849.042162078</v>
       </c>
     </row>
     <row r="14">
@@ -53565,28 +53565,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1187.770432321038</v>
+        <v>1437.800262092201</v>
       </c>
       <c r="AB14" t="n">
-        <v>1625.159906234861</v>
+        <v>1967.261749865358</v>
       </c>
       <c r="AC14" t="n">
-        <v>1470.056925710059</v>
+        <v>1779.509049527415</v>
       </c>
       <c r="AD14" t="n">
-        <v>1187770.432321039</v>
+        <v>1437800.262092201</v>
       </c>
       <c r="AE14" t="n">
-        <v>1625159.906234861</v>
+        <v>1967261.749865358</v>
       </c>
       <c r="AF14" t="n">
         <v>3.527336409596358e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>52</v>
+        <v>51.37731481481482</v>
       </c>
       <c r="AH14" t="n">
-        <v>1470056.925710059</v>
+        <v>1779509.049527415</v>
       </c>
     </row>
     <row r="15">
@@ -53671,28 +53671,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1178.566517820854</v>
+        <v>1428.596347592015</v>
       </c>
       <c r="AB15" t="n">
-        <v>1612.566704367658</v>
+        <v>1954.668547998154</v>
       </c>
       <c r="AC15" t="n">
-        <v>1458.665601354392</v>
+        <v>1768.117725171747</v>
       </c>
       <c r="AD15" t="n">
-        <v>1178566.517820854</v>
+        <v>1428596.347592016</v>
       </c>
       <c r="AE15" t="n">
-        <v>1612566.704367658</v>
+        <v>1954668.547998154</v>
       </c>
       <c r="AF15" t="n">
         <v>3.534382939758474e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>52</v>
+        <v>51.27314814814815</v>
       </c>
       <c r="AH15" t="n">
-        <v>1458665.601354392</v>
+        <v>1768117.725171747</v>
       </c>
     </row>
     <row r="16">
@@ -53777,28 +53777,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1176.266248894941</v>
+        <v>1426.296078666103</v>
       </c>
       <c r="AB16" t="n">
-        <v>1609.419374942521</v>
+        <v>1951.521218573018</v>
       </c>
       <c r="AC16" t="n">
-        <v>1455.818648632286</v>
+        <v>1765.270772449641</v>
       </c>
       <c r="AD16" t="n">
-        <v>1176266.248894941</v>
+        <v>1426296.078666103</v>
       </c>
       <c r="AE16" t="n">
-        <v>1609419.374942521</v>
+        <v>1951521.218573018</v>
       </c>
       <c r="AF16" t="n">
         <v>3.540176753447326e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>52</v>
+        <v>51.19212962962963</v>
       </c>
       <c r="AH16" t="n">
-        <v>1455818.648632286</v>
+        <v>1765270.772449641</v>
       </c>
     </row>
     <row r="17">
@@ -53883,28 +53883,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1179.477543716878</v>
+        <v>1429.50737348804</v>
       </c>
       <c r="AB17" t="n">
-        <v>1613.813210190224</v>
+        <v>1955.91505382072</v>
       </c>
       <c r="AC17" t="n">
-        <v>1459.793142410734</v>
+        <v>1769.24526622809</v>
       </c>
       <c r="AD17" t="n">
-        <v>1179477.543716878</v>
+        <v>1429507.37348804</v>
       </c>
       <c r="AE17" t="n">
-        <v>1613813.210190224</v>
+        <v>1955915.05382072</v>
       </c>
       <c r="AF17" t="n">
         <v>3.540333343006484e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>52</v>
+        <v>51.19212962962963</v>
       </c>
       <c r="AH17" t="n">
-        <v>1459793.142410734</v>
+        <v>1769245.26622809</v>
       </c>
     </row>
   </sheetData>
@@ -54180,28 +54180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3039.589522475821</v>
+        <v>3497.094479488595</v>
       </c>
       <c r="AB2" t="n">
-        <v>4158.90048187728</v>
+        <v>4784.878947756404</v>
       </c>
       <c r="AC2" t="n">
-        <v>3761.980856940243</v>
+        <v>4328.216816602133</v>
       </c>
       <c r="AD2" t="n">
-        <v>3039589.522475821</v>
+        <v>3497094.479488595</v>
       </c>
       <c r="AE2" t="n">
-        <v>4158900.48187728</v>
+        <v>4784878.947756404</v>
       </c>
       <c r="AF2" t="n">
         <v>1.800367126461699e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>91</v>
+        <v>90.96064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>3761980.856940242</v>
+        <v>4328216.816602133</v>
       </c>
     </row>
     <row r="3">
@@ -54286,28 +54286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1957.218558731981</v>
+        <v>2297.887570229238</v>
       </c>
       <c r="AB3" t="n">
-        <v>2677.952778445885</v>
+        <v>3144.071149232688</v>
       </c>
       <c r="AC3" t="n">
-        <v>2422.372723801339</v>
+        <v>2844.005411481374</v>
       </c>
       <c r="AD3" t="n">
-        <v>1957218.558731981</v>
+        <v>2297887.570229238</v>
       </c>
       <c r="AE3" t="n">
-        <v>2677952.778445885</v>
+        <v>3144071.149232688</v>
       </c>
       <c r="AF3" t="n">
         <v>2.455907907418713e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>67</v>
+        <v>66.67824074074075</v>
       </c>
       <c r="AH3" t="n">
-        <v>2422372.723801339</v>
+        <v>2844005.411481374</v>
       </c>
     </row>
     <row r="4">
@@ -54392,28 +54392,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1712.576292103493</v>
+        <v>2014.36831926647</v>
       </c>
       <c r="AB4" t="n">
-        <v>2343.222436389706</v>
+        <v>2756.147602078665</v>
       </c>
       <c r="AC4" t="n">
-        <v>2119.588575794016</v>
+        <v>2493.104743213731</v>
       </c>
       <c r="AD4" t="n">
-        <v>1712576.292103493</v>
+        <v>2014368.31926647</v>
       </c>
       <c r="AE4" t="n">
-        <v>2343222.436389706</v>
+        <v>2756147.602078665</v>
       </c>
       <c r="AF4" t="n">
         <v>2.705361478933329e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>61</v>
+        <v>60.53240740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>2119588.575794016</v>
+        <v>2493104.743213731</v>
       </c>
     </row>
     <row r="5">
@@ -54498,28 +54498,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1599.429845788486</v>
+        <v>1891.451378739723</v>
       </c>
       <c r="AB5" t="n">
-        <v>2188.410476872597</v>
+        <v>2587.96722133727</v>
       </c>
       <c r="AC5" t="n">
-        <v>1979.55165241327</v>
+        <v>2340.975261967647</v>
       </c>
       <c r="AD5" t="n">
-        <v>1599429.845788486</v>
+        <v>1891451.378739723</v>
       </c>
       <c r="AE5" t="n">
-        <v>2188410.476872597</v>
+        <v>2587967.22133727</v>
       </c>
       <c r="AF5" t="n">
         <v>2.837799676856007e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>58</v>
+        <v>57.70833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1979551.65241327</v>
+        <v>2340975.261967647</v>
       </c>
     </row>
     <row r="6">
@@ -54604,28 +54604,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1527.822419011563</v>
+        <v>1810.107623169839</v>
       </c>
       <c r="AB6" t="n">
-        <v>2090.434036459698</v>
+        <v>2476.669106333332</v>
       </c>
       <c r="AC6" t="n">
-        <v>1890.925945962581</v>
+        <v>2240.2992828518</v>
       </c>
       <c r="AD6" t="n">
-        <v>1527822.419011563</v>
+        <v>1810107.623169839</v>
       </c>
       <c r="AE6" t="n">
-        <v>2090434.036459698</v>
+        <v>2476669.106333332</v>
       </c>
       <c r="AF6" t="n">
         <v>2.924393883190066e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>56</v>
+        <v>55.99537037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>1890925.945962581</v>
+        <v>2240299.2828518</v>
       </c>
     </row>
     <row r="7">
@@ -54710,28 +54710,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1484.786099779369</v>
+        <v>1767.037138518864</v>
       </c>
       <c r="AB7" t="n">
-        <v>2031.549845857805</v>
+        <v>2417.738169098191</v>
       </c>
       <c r="AC7" t="n">
-        <v>1837.661579867252</v>
+        <v>2186.992631556291</v>
       </c>
       <c r="AD7" t="n">
-        <v>1484786.099779369</v>
+        <v>1767037.138518864</v>
       </c>
       <c r="AE7" t="n">
-        <v>2031549.845857805</v>
+        <v>2417738.169098191</v>
       </c>
       <c r="AF7" t="n">
         <v>2.981415885073441e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>54.93055555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1837661.579867252</v>
+        <v>2186992.631556291</v>
       </c>
     </row>
     <row r="8">
@@ -54816,28 +54816,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1459.959426236091</v>
+        <v>1732.440981793703</v>
       </c>
       <c r="AB8" t="n">
-        <v>1997.580895840356</v>
+        <v>2370.402181192109</v>
       </c>
       <c r="AC8" t="n">
-        <v>1806.934578763747</v>
+        <v>2144.17432389949</v>
       </c>
       <c r="AD8" t="n">
-        <v>1459959.426236091</v>
+        <v>1732440.981793703</v>
       </c>
       <c r="AE8" t="n">
-        <v>1997580.895840356</v>
+        <v>2370402.181192109</v>
       </c>
       <c r="AF8" t="n">
         <v>3.022873568824877e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>55</v>
+        <v>54.17824074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>1806934.578763747</v>
+        <v>2144174.323899489</v>
       </c>
     </row>
     <row r="9">
@@ -54922,28 +54922,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1431.665719268525</v>
+        <v>1704.214594633841</v>
       </c>
       <c r="AB9" t="n">
-        <v>1958.868197737075</v>
+        <v>2331.78159301967</v>
       </c>
       <c r="AC9" t="n">
-        <v>1771.916566233831</v>
+        <v>2109.239630457892</v>
       </c>
       <c r="AD9" t="n">
-        <v>1431665.719268525</v>
+        <v>1704214.594633841</v>
       </c>
       <c r="AE9" t="n">
-        <v>1958868.197737075</v>
+        <v>2331781.59301967</v>
       </c>
       <c r="AF9" t="n">
         <v>3.05272876087796e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>54</v>
+        <v>53.64583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1771916.566233831</v>
+        <v>2109239.630457893</v>
       </c>
     </row>
     <row r="10">
@@ -55028,28 +55028,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1414.283021981616</v>
+        <v>1677.062414165049</v>
       </c>
       <c r="AB10" t="n">
-        <v>1935.084424438646</v>
+        <v>2294.630781832609</v>
       </c>
       <c r="AC10" t="n">
-        <v>1750.402682878268</v>
+        <v>2075.634440549033</v>
       </c>
       <c r="AD10" t="n">
-        <v>1414283.021981616</v>
+        <v>1677062.414165049</v>
       </c>
       <c r="AE10" t="n">
-        <v>1935084.424438647</v>
+        <v>2294630.781832608</v>
       </c>
       <c r="AF10" t="n">
         <v>3.078763620298656e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>54</v>
+        <v>53.19444444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>1750402.682878268</v>
+        <v>2075634.440549033</v>
       </c>
     </row>
     <row r="11">
@@ -55134,28 +55134,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1389.495421605241</v>
+        <v>1662.010131551776</v>
       </c>
       <c r="AB11" t="n">
-        <v>1901.16893605194</v>
+        <v>2274.035584701287</v>
       </c>
       <c r="AC11" t="n">
-        <v>1719.724041102502</v>
+        <v>2057.004820126384</v>
       </c>
       <c r="AD11" t="n">
-        <v>1389495.421605241</v>
+        <v>1662010.131551776</v>
       </c>
       <c r="AE11" t="n">
-        <v>1901168.93605194</v>
+        <v>2274035.584701287</v>
       </c>
       <c r="AF11" t="n">
         <v>3.095459888840191e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>53</v>
+        <v>52.90509259259259</v>
       </c>
       <c r="AH11" t="n">
-        <v>1719724.041102502</v>
+        <v>2057004.820126384</v>
       </c>
     </row>
     <row r="12">
@@ -55240,28 +55240,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1377.218899490263</v>
+        <v>1640.065611481401</v>
       </c>
       <c r="AB12" t="n">
-        <v>1884.371656892297</v>
+        <v>2244.0101242171</v>
       </c>
       <c r="AC12" t="n">
-        <v>1704.529870690726</v>
+        <v>2029.84494744981</v>
       </c>
       <c r="AD12" t="n">
-        <v>1377218.899490263</v>
+        <v>1640065.611481401</v>
       </c>
       <c r="AE12" t="n">
-        <v>1884371.656892297</v>
+        <v>2244010.1242171</v>
       </c>
       <c r="AF12" t="n">
         <v>3.114703045803315e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>53</v>
+        <v>52.58101851851853</v>
       </c>
       <c r="AH12" t="n">
-        <v>1704529.870690726</v>
+        <v>2029844.94744981</v>
       </c>
     </row>
     <row r="13">
@@ -55346,28 +55346,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1368.1330790536</v>
+        <v>1630.878305818252</v>
       </c>
       <c r="AB13" t="n">
-        <v>1871.940036532746</v>
+        <v>2231.43964729346</v>
       </c>
       <c r="AC13" t="n">
-        <v>1693.284706730402</v>
+        <v>2018.474179200987</v>
       </c>
       <c r="AD13" t="n">
-        <v>1368133.0790536</v>
+        <v>1630878.305818252</v>
       </c>
       <c r="AE13" t="n">
-        <v>1871940.036532746</v>
+        <v>2231439.64729346</v>
       </c>
       <c r="AF13" t="n">
         <v>3.126305537501669e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>53</v>
+        <v>52.38425925925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>1693284.706730402</v>
+        <v>2018474.179200987</v>
       </c>
     </row>
     <row r="14">
@@ -55452,28 +55452,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1356.574662430972</v>
+        <v>1619.319889195624</v>
       </c>
       <c r="AB14" t="n">
-        <v>1856.125300988313</v>
+        <v>2215.624911749028</v>
       </c>
       <c r="AC14" t="n">
-        <v>1678.979307350209</v>
+        <v>2004.168779820794</v>
       </c>
       <c r="AD14" t="n">
-        <v>1356574.662430972</v>
+        <v>1619319.889195624</v>
       </c>
       <c r="AE14" t="n">
-        <v>1856125.300988313</v>
+        <v>2215624.911749028</v>
       </c>
       <c r="AF14" t="n">
         <v>3.139322967212018e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>53</v>
+        <v>52.16435185185185</v>
       </c>
       <c r="AH14" t="n">
-        <v>1678979.307350209</v>
+        <v>2004168.779820794</v>
       </c>
     </row>
     <row r="15">
@@ -55558,28 +55558,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1344.741591368271</v>
+        <v>1597.818820177525</v>
       </c>
       <c r="AB15" t="n">
-        <v>1839.934771122074</v>
+        <v>2186.206200558245</v>
       </c>
       <c r="AC15" t="n">
-        <v>1664.333978930853</v>
+        <v>1977.55774913664</v>
       </c>
       <c r="AD15" t="n">
-        <v>1344741.591368271</v>
+        <v>1597818.820177525</v>
       </c>
       <c r="AE15" t="n">
-        <v>1839934.771122074</v>
+        <v>2186206.200558245</v>
       </c>
       <c r="AF15" t="n">
         <v>3.149086039494779e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>53</v>
+        <v>52.00231481481482</v>
       </c>
       <c r="AH15" t="n">
-        <v>1664333.978930853</v>
+        <v>1977557.74913664</v>
       </c>
     </row>
     <row r="16">
@@ -55664,28 +55664,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1326.900211651623</v>
+        <v>1589.71275822398</v>
       </c>
       <c r="AB16" t="n">
-        <v>1815.523408287635</v>
+        <v>2175.11512897919</v>
       </c>
       <c r="AC16" t="n">
-        <v>1642.252402303769</v>
+        <v>1967.525193862672</v>
       </c>
       <c r="AD16" t="n">
-        <v>1326900.211651623</v>
+        <v>1589712.75822398</v>
       </c>
       <c r="AE16" t="n">
-        <v>1815523.408287635</v>
+        <v>2175115.12897919</v>
       </c>
       <c r="AF16" t="n">
         <v>3.158990605578741e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>52</v>
+        <v>51.84027777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>1642252.402303769</v>
+        <v>1967525.193862672</v>
       </c>
     </row>
     <row r="17">
@@ -55770,28 +55770,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1317.282398493636</v>
+        <v>1580.094945065993</v>
       </c>
       <c r="AB17" t="n">
-        <v>1802.363892016907</v>
+        <v>2161.955612708462</v>
       </c>
       <c r="AC17" t="n">
-        <v>1630.348811796423</v>
+        <v>1955.621603355326</v>
       </c>
       <c r="AD17" t="n">
-        <v>1317282.398493636</v>
+        <v>1580094.945065993</v>
       </c>
       <c r="AE17" t="n">
-        <v>1802363.892016907</v>
+        <v>2161955.612708462</v>
       </c>
       <c r="AF17" t="n">
         <v>3.167904715054305e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>52</v>
+        <v>51.68981481481481</v>
       </c>
       <c r="AH17" t="n">
-        <v>1630348.811796423</v>
+        <v>1955621.603355326</v>
       </c>
     </row>
     <row r="18">
@@ -55876,28 +55876,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1309.0843397112</v>
+        <v>1571.896886283557</v>
       </c>
       <c r="AB18" t="n">
-        <v>1791.146946317949</v>
+        <v>2150.738667009506</v>
       </c>
       <c r="AC18" t="n">
-        <v>1620.202395651891</v>
+        <v>1945.475187210795</v>
       </c>
       <c r="AD18" t="n">
-        <v>1309084.3397112</v>
+        <v>1571896.886283556</v>
       </c>
       <c r="AE18" t="n">
-        <v>1791146.946317949</v>
+        <v>2150738.667009505</v>
       </c>
       <c r="AF18" t="n">
         <v>3.170734591078294e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>52</v>
+        <v>51.64351851851851</v>
       </c>
       <c r="AH18" t="n">
-        <v>1620202.395651891</v>
+        <v>1945475.187210795</v>
       </c>
     </row>
     <row r="19">
@@ -55982,28 +55982,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1296.344261725347</v>
+        <v>1559.055323071218</v>
       </c>
       <c r="AB19" t="n">
-        <v>1773.715409565132</v>
+        <v>2133.168273692599</v>
       </c>
       <c r="AC19" t="n">
-        <v>1604.434500301448</v>
+        <v>1929.581687571852</v>
       </c>
       <c r="AD19" t="n">
-        <v>1296344.261725347</v>
+        <v>1559055.323071218</v>
       </c>
       <c r="AE19" t="n">
-        <v>1773715.409565132</v>
+        <v>2133168.273692599</v>
       </c>
       <c r="AF19" t="n">
         <v>3.181205132367053e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>52</v>
+        <v>51.48148148148147</v>
       </c>
       <c r="AH19" t="n">
-        <v>1604434.500301448</v>
+        <v>1929581.687571852</v>
       </c>
     </row>
     <row r="20">
@@ -56088,28 +56088,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1289.560842572993</v>
+        <v>1542.603905963465</v>
       </c>
       <c r="AB20" t="n">
-        <v>1764.434036217549</v>
+        <v>2110.658719020472</v>
       </c>
       <c r="AC20" t="n">
-        <v>1596.038928199669</v>
+        <v>1909.220413205275</v>
       </c>
       <c r="AD20" t="n">
-        <v>1289560.842572993</v>
+        <v>1542603.905963465</v>
       </c>
       <c r="AE20" t="n">
-        <v>1764434.036217549</v>
+        <v>2110658.719020472</v>
       </c>
       <c r="AF20" t="n">
         <v>3.185308452601836e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>52</v>
+        <v>51.41203703703704</v>
       </c>
       <c r="AH20" t="n">
-        <v>1596038.928199669</v>
+        <v>1909220.413205275</v>
       </c>
     </row>
     <row r="21">
@@ -56194,28 +56194,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1279.23649239296</v>
+        <v>1532.279555783433</v>
       </c>
       <c r="AB21" t="n">
-        <v>1750.307804823045</v>
+        <v>2096.532487625968</v>
       </c>
       <c r="AC21" t="n">
-        <v>1583.260884503165</v>
+        <v>1896.442369508772</v>
       </c>
       <c r="AD21" t="n">
-        <v>1279236.49239296</v>
+        <v>1532279.555783433</v>
       </c>
       <c r="AE21" t="n">
-        <v>1750307.804823045</v>
+        <v>2096532.487625968</v>
       </c>
       <c r="AF21" t="n">
         <v>3.191534179854612e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>52</v>
+        <v>51.30787037037037</v>
       </c>
       <c r="AH21" t="n">
-        <v>1583260.884503165</v>
+        <v>1896442.369508772</v>
       </c>
     </row>
     <row r="22">
@@ -56300,28 +56300,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1277.787502110079</v>
+        <v>1530.830565500551</v>
       </c>
       <c r="AB22" t="n">
-        <v>1748.325232393066</v>
+        <v>2094.549915195989</v>
       </c>
       <c r="AC22" t="n">
-        <v>1581.467526003346</v>
+        <v>1894.649011008953</v>
       </c>
       <c r="AD22" t="n">
-        <v>1277787.502110078</v>
+        <v>1530830.565500551</v>
       </c>
       <c r="AE22" t="n">
-        <v>1748325.232393066</v>
+        <v>2094549.915195989</v>
       </c>
       <c r="AF22" t="n">
         <v>3.189128785234221e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>52</v>
+        <v>51.35416666666666</v>
       </c>
       <c r="AH22" t="n">
-        <v>1581467.526003346</v>
+        <v>1894649.011008953</v>
       </c>
     </row>
     <row r="23">
@@ -56406,28 +56406,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1278.31634895725</v>
+        <v>1531.359412347723</v>
       </c>
       <c r="AB23" t="n">
-        <v>1749.048823980443</v>
+        <v>2095.273506783366</v>
       </c>
       <c r="AC23" t="n">
-        <v>1582.122059025191</v>
+        <v>1895.303544030798</v>
       </c>
       <c r="AD23" t="n">
-        <v>1278316.34895725</v>
+        <v>1531359.412347723</v>
       </c>
       <c r="AE23" t="n">
-        <v>1749048.823980443</v>
+        <v>2095273.506783366</v>
       </c>
       <c r="AF23" t="n">
         <v>3.193656586872603e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>52</v>
+        <v>51.28472222222223</v>
       </c>
       <c r="AH23" t="n">
-        <v>1582122.059025191</v>
+        <v>1895303.544030798</v>
       </c>
     </row>
     <row r="24">
@@ -56512,28 +56512,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1281.466239680486</v>
+        <v>1534.509303070959</v>
       </c>
       <c r="AB24" t="n">
-        <v>1753.358643431345</v>
+        <v>2099.583326234268</v>
       </c>
       <c r="AC24" t="n">
-        <v>1586.020555356569</v>
+        <v>1899.202040362175</v>
       </c>
       <c r="AD24" t="n">
-        <v>1281466.239680486</v>
+        <v>1534509.303070959</v>
       </c>
       <c r="AE24" t="n">
-        <v>1753358.643431345</v>
+        <v>2099583.326234268</v>
       </c>
       <c r="AF24" t="n">
         <v>3.193939574475002e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>52</v>
+        <v>51.27314814814815</v>
       </c>
       <c r="AH24" t="n">
-        <v>1586020.555356569</v>
+        <v>1899202.040362175</v>
       </c>
     </row>
     <row r="25">
@@ -56618,28 +56618,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1284.716960441886</v>
+        <v>1537.760023832359</v>
       </c>
       <c r="AB25" t="n">
-        <v>1757.806422988771</v>
+        <v>2104.031105791695</v>
       </c>
       <c r="AC25" t="n">
-        <v>1590.043845075532</v>
+        <v>1903.225330081138</v>
       </c>
       <c r="AD25" t="n">
-        <v>1284716.960441886</v>
+        <v>1537760.023832359</v>
       </c>
       <c r="AE25" t="n">
-        <v>1757806.422988771</v>
+        <v>2104031.105791694</v>
       </c>
       <c r="AF25" t="n">
         <v>3.193656586872603e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>52</v>
+        <v>51.27314814814815</v>
       </c>
       <c r="AH25" t="n">
-        <v>1590043.845075532</v>
+        <v>1903225.330081138</v>
       </c>
     </row>
     <row r="26">
@@ -56724,28 +56724,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1287.928362080406</v>
+        <v>1540.971425470879</v>
       </c>
       <c r="AB26" t="n">
-        <v>1762.200404387636</v>
+        <v>2108.425087190559</v>
       </c>
       <c r="AC26" t="n">
-        <v>1594.018471056681</v>
+        <v>1907.199956062287</v>
       </c>
       <c r="AD26" t="n">
-        <v>1287928.362080406</v>
+        <v>1540971.425470879</v>
       </c>
       <c r="AE26" t="n">
-        <v>1762200.404387636</v>
+        <v>2108425.087190559</v>
       </c>
       <c r="AF26" t="n">
         <v>3.193656586872603e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>52</v>
+        <v>51.28472222222223</v>
       </c>
       <c r="AH26" t="n">
-        <v>1594018.471056681</v>
+        <v>1907199.956062287</v>
       </c>
     </row>
   </sheetData>
@@ -57021,28 +57021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>805.9768416392096</v>
+        <v>1067.768922176025</v>
       </c>
       <c r="AB2" t="n">
-        <v>1102.77307191952</v>
+        <v>1460.968545961465</v>
       </c>
       <c r="AC2" t="n">
-        <v>997.5259576872476</v>
+        <v>1321.535758417135</v>
       </c>
       <c r="AD2" t="n">
-        <v>805976.8416392097</v>
+        <v>1067768.922176025</v>
       </c>
       <c r="AE2" t="n">
-        <v>1102773.07191952</v>
+        <v>1460968.545961465</v>
       </c>
       <c r="AF2" t="n">
         <v>7.15498199229508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.53240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>997525.9576872475</v>
+        <v>1321535.758417135</v>
       </c>
     </row>
     <row r="3">
@@ -57127,28 +57127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>811.6368915620975</v>
+        <v>1073.428972098913</v>
       </c>
       <c r="AB3" t="n">
-        <v>1110.517401927795</v>
+        <v>1468.71287596974</v>
       </c>
       <c r="AC3" t="n">
-        <v>1004.531179708768</v>
+        <v>1328.540980438655</v>
       </c>
       <c r="AD3" t="n">
-        <v>811636.8915620975</v>
+        <v>1073428.972098913</v>
       </c>
       <c r="AE3" t="n">
-        <v>1110517.401927795</v>
+        <v>1468712.87596974</v>
       </c>
       <c r="AF3" t="n">
         <v>7.155325272148859e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.53240740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>1004531.179708768</v>
+        <v>1328540.980438655</v>
       </c>
     </row>
   </sheetData>
@@ -57424,28 +57424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1655.235301312768</v>
+        <v>1985.60842578551</v>
       </c>
       <c r="AB2" t="n">
-        <v>2264.765963083859</v>
+        <v>2716.797047021064</v>
       </c>
       <c r="AC2" t="n">
-        <v>2048.619878186129</v>
+        <v>2457.509749901977</v>
       </c>
       <c r="AD2" t="n">
-        <v>1655235.301312768</v>
+        <v>1985608.425785511</v>
       </c>
       <c r="AE2" t="n">
-        <v>2264765.96308386</v>
+        <v>2716797.047021064</v>
       </c>
       <c r="AF2" t="n">
         <v>3.17817417245042e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.14814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>2048619.878186129</v>
+        <v>2457509.749901976</v>
       </c>
     </row>
     <row r="3">
@@ -57530,28 +57530,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1292.898321221418</v>
+        <v>1576.123226199292</v>
       </c>
       <c r="AB3" t="n">
-        <v>1769.00052174349</v>
+        <v>2156.521331735172</v>
       </c>
       <c r="AC3" t="n">
-        <v>1600.169594756117</v>
+        <v>1950.705962531065</v>
       </c>
       <c r="AD3" t="n">
-        <v>1292898.321221418</v>
+        <v>1576123.226199292</v>
       </c>
       <c r="AE3" t="n">
-        <v>1769000.52174349</v>
+        <v>2156521.331735172</v>
       </c>
       <c r="AF3" t="n">
         <v>3.761485065433283e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.58101851851853</v>
       </c>
       <c r="AH3" t="n">
-        <v>1600169.594756117</v>
+        <v>1950705.962531065</v>
       </c>
     </row>
     <row r="4">
@@ -57636,28 +57636,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1190.564626525046</v>
+        <v>1454.937481200672</v>
       </c>
       <c r="AB4" t="n">
-        <v>1628.983046015933</v>
+        <v>1990.709649090317</v>
       </c>
       <c r="AC4" t="n">
-        <v>1473.515190396236</v>
+        <v>1800.719114159677</v>
       </c>
       <c r="AD4" t="n">
-        <v>1190564.626525046</v>
+        <v>1454937.481200672</v>
       </c>
       <c r="AE4" t="n">
-        <v>1628983.046015933</v>
+        <v>1990709.649090318</v>
       </c>
       <c r="AF4" t="n">
         <v>3.966027512026247e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.61805555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>1473515.190396236</v>
+        <v>1800719.114159677</v>
       </c>
     </row>
     <row r="5">
@@ -57742,28 +57742,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1140.810385760547</v>
+        <v>1395.672812767954</v>
       </c>
       <c r="AB5" t="n">
-        <v>1560.907098799758</v>
+        <v>1909.621115168029</v>
       </c>
       <c r="AC5" t="n">
-        <v>1411.936316037181</v>
+        <v>1727.369556106459</v>
       </c>
       <c r="AD5" t="n">
-        <v>1140810.385760547</v>
+        <v>1395672.812767954</v>
       </c>
       <c r="AE5" t="n">
-        <v>1560907.098799758</v>
+        <v>1909621.115168029</v>
       </c>
       <c r="AF5" t="n">
         <v>4.073070768614696e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>54</v>
+        <v>53.18287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1411936.316037181</v>
+        <v>1727369.556106459</v>
       </c>
     </row>
     <row r="6">
@@ -57848,28 +57848,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1102.449086614018</v>
+        <v>1357.277348202644</v>
       </c>
       <c r="AB6" t="n">
-        <v>1508.419476926401</v>
+        <v>1857.086746661424</v>
       </c>
       <c r="AC6" t="n">
-        <v>1364.458039128577</v>
+        <v>1679.848993997676</v>
       </c>
       <c r="AD6" t="n">
-        <v>1102449.086614018</v>
+        <v>1357277.348202644</v>
       </c>
       <c r="AE6" t="n">
-        <v>1508419.476926401</v>
+        <v>1857086.746661424</v>
       </c>
       <c r="AF6" t="n">
         <v>4.138007849097549e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>53</v>
+        <v>52.33796296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>1364458.039128577</v>
+        <v>1679848.993997676</v>
       </c>
     </row>
     <row r="7">
@@ -57954,28 +57954,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1068.120579506595</v>
+        <v>1323.016160902926</v>
       </c>
       <c r="AB7" t="n">
-        <v>1461.449699035177</v>
+        <v>1810.209078701041</v>
       </c>
       <c r="AC7" t="n">
-        <v>1321.970990916794</v>
+        <v>1637.445264874212</v>
       </c>
       <c r="AD7" t="n">
-        <v>1068120.579506595</v>
+        <v>1323016.160902926</v>
       </c>
       <c r="AE7" t="n">
-        <v>1461449.699035177</v>
+        <v>1810209.078701041</v>
       </c>
       <c r="AF7" t="n">
         <v>4.179739748082207e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>52</v>
+        <v>51.81712962962964</v>
       </c>
       <c r="AH7" t="n">
-        <v>1321970.990916794</v>
+        <v>1637445.264874212</v>
       </c>
     </row>
     <row r="8">
@@ -58060,28 +58060,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1050.14821971899</v>
+        <v>1295.567538865883</v>
       </c>
       <c r="AB8" t="n">
-        <v>1436.859123489221</v>
+        <v>1772.652663082219</v>
       </c>
       <c r="AC8" t="n">
-        <v>1299.727305387855</v>
+        <v>1603.473180851289</v>
       </c>
       <c r="AD8" t="n">
-        <v>1050148.21971899</v>
+        <v>1295567.538865883</v>
       </c>
       <c r="AE8" t="n">
-        <v>1436859.123489221</v>
+        <v>1772652.663082219</v>
       </c>
       <c r="AF8" t="n">
         <v>4.209494779196829e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>52</v>
+        <v>51.45833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1299727.305387855</v>
+        <v>1603473.18085129</v>
       </c>
     </row>
     <row r="9">
@@ -58166,28 +58166,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1047.992971422321</v>
+        <v>1293.412290569214</v>
       </c>
       <c r="AB9" t="n">
-        <v>1433.910217686874</v>
+        <v>1769.703757279872</v>
       </c>
       <c r="AC9" t="n">
-        <v>1297.059839016469</v>
+        <v>1600.805714479904</v>
       </c>
       <c r="AD9" t="n">
-        <v>1047992.971422321</v>
+        <v>1293412.290569214</v>
       </c>
       <c r="AE9" t="n">
-        <v>1433910.217686874</v>
+        <v>1769703.757279872</v>
       </c>
       <c r="AF9" t="n">
         <v>4.215108936010909e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>52</v>
+        <v>51.38888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1297059.839016469</v>
+        <v>1600805.714479904</v>
       </c>
     </row>
     <row r="10">
@@ -58272,28 +58272,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1051.21365926654</v>
+        <v>1296.632978413432</v>
       </c>
       <c r="AB10" t="n">
-        <v>1438.316904882054</v>
+        <v>1774.110444475052</v>
       </c>
       <c r="AC10" t="n">
-        <v>1301.045958170564</v>
+        <v>1604.791833633999</v>
       </c>
       <c r="AD10" t="n">
-        <v>1051213.65926654</v>
+        <v>1296632.978413432</v>
       </c>
       <c r="AE10" t="n">
-        <v>1438316.904882054</v>
+        <v>1774110.444475052</v>
       </c>
       <c r="AF10" t="n">
         <v>4.214547520329501e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>52</v>
+        <v>51.38888888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1301045.958170564</v>
+        <v>1604791.833633999</v>
       </c>
     </row>
   </sheetData>
@@ -58569,28 +58569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2045.283455044492</v>
+        <v>2417.823928803918</v>
       </c>
       <c r="AB2" t="n">
-        <v>2798.447054729688</v>
+        <v>3308.173366253279</v>
       </c>
       <c r="AC2" t="n">
-        <v>2531.367195471395</v>
+        <v>2992.445943228422</v>
       </c>
       <c r="AD2" t="n">
-        <v>2045283.455044492</v>
+        <v>2417823.928803918</v>
       </c>
       <c r="AE2" t="n">
-        <v>2798447.054729688</v>
+        <v>3308173.366253279</v>
       </c>
       <c r="AF2" t="n">
         <v>2.576015026162537e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>75</v>
+        <v>74.87268518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>2531367.195471395</v>
+        <v>2992445.943228422</v>
       </c>
     </row>
     <row r="3">
@@ -58675,28 +58675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1508.712177124049</v>
+        <v>1804.77991290157</v>
       </c>
       <c r="AB3" t="n">
-        <v>2064.286560424831</v>
+        <v>2469.379498102298</v>
       </c>
       <c r="AC3" t="n">
-        <v>1867.273948342269</v>
+        <v>2233.705384599308</v>
       </c>
       <c r="AD3" t="n">
-        <v>1508712.177124049</v>
+        <v>1804779.91290157</v>
       </c>
       <c r="AE3" t="n">
-        <v>2064286.560424831</v>
+        <v>2469379.498102298</v>
       </c>
       <c r="AF3" t="n">
         <v>3.191399170778505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>61</v>
+        <v>60.42824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1867273.948342269</v>
+        <v>2233705.384599308</v>
       </c>
     </row>
     <row r="4">
@@ -58781,28 +58781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1365.874902018439</v>
+        <v>1642.832741897716</v>
       </c>
       <c r="AB4" t="n">
-        <v>1868.850299089499</v>
+        <v>2247.796234129882</v>
       </c>
       <c r="AC4" t="n">
-        <v>1690.489849492265</v>
+        <v>2033.269716346354</v>
       </c>
       <c r="AD4" t="n">
-        <v>1365874.902018439</v>
+        <v>1642832.741897716</v>
       </c>
       <c r="AE4" t="n">
-        <v>1868850.299089499</v>
+        <v>2247796.234129881</v>
       </c>
       <c r="AF4" t="n">
         <v>3.416023548504561e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>57</v>
+        <v>56.45833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1690489.849492265</v>
+        <v>2033269.716346354</v>
       </c>
     </row>
     <row r="5">
@@ -58887,28 +58887,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1295.291541091575</v>
+        <v>1562.795918248216</v>
       </c>
       <c r="AB5" t="n">
-        <v>1772.27503075125</v>
+        <v>2138.28632103718</v>
       </c>
       <c r="AC5" t="n">
-        <v>1603.131589219978</v>
+        <v>1934.211275661091</v>
       </c>
       <c r="AD5" t="n">
-        <v>1295291.541091576</v>
+        <v>1562795.918248216</v>
       </c>
       <c r="AE5" t="n">
-        <v>1772275.03075125</v>
+        <v>2138286.32103718</v>
       </c>
       <c r="AF5" t="n">
         <v>3.53150180797352e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>55</v>
+        <v>54.60648148148149</v>
       </c>
       <c r="AH5" t="n">
-        <v>1603131.589219978</v>
+        <v>1934211.275661091</v>
       </c>
     </row>
     <row r="6">
@@ -58993,28 +58993,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1253.665505441593</v>
+        <v>1521.135717179453</v>
       </c>
       <c r="AB6" t="n">
-        <v>1715.320452363858</v>
+        <v>2081.28499601654</v>
       </c>
       <c r="AC6" t="n">
-        <v>1551.612675857626</v>
+        <v>1882.65007709856</v>
       </c>
       <c r="AD6" t="n">
-        <v>1253665.505441593</v>
+        <v>1521135.717179453</v>
       </c>
       <c r="AE6" t="n">
-        <v>1715320.452363858</v>
+        <v>2081284.996016541</v>
       </c>
       <c r="AF6" t="n">
         <v>3.603154984844592e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>54</v>
+        <v>53.53009259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>1551612.675857626</v>
+        <v>1882650.07709856</v>
       </c>
     </row>
     <row r="7">
@@ -59099,28 +59099,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1219.336471151789</v>
+        <v>1486.772517470868</v>
       </c>
       <c r="AB7" t="n">
-        <v>1668.349953158442</v>
+        <v>2034.267750177877</v>
       </c>
       <c r="AC7" t="n">
-        <v>1509.124975172866</v>
+        <v>1840.120091213619</v>
       </c>
       <c r="AD7" t="n">
-        <v>1219336.471151789</v>
+        <v>1486772.517470868</v>
       </c>
       <c r="AE7" t="n">
-        <v>1668349.953158442</v>
+        <v>2034267.750177877</v>
       </c>
       <c r="AF7" t="n">
         <v>3.651479220408803e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>53</v>
+        <v>52.8125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1509124.975172866</v>
+        <v>1840120.091213619</v>
       </c>
     </row>
     <row r="8">
@@ -59205,28 +59205,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1197.274759062675</v>
+        <v>1455.122703043708</v>
       </c>
       <c r="AB8" t="n">
-        <v>1638.164145384071</v>
+        <v>1990.96307778737</v>
       </c>
       <c r="AC8" t="n">
-        <v>1481.820058526433</v>
+        <v>1800.948355977573</v>
       </c>
       <c r="AD8" t="n">
-        <v>1197274.759062675</v>
+        <v>1455122.703043708</v>
       </c>
       <c r="AE8" t="n">
-        <v>1638164.145384071</v>
+        <v>1990963.07778737</v>
       </c>
       <c r="AF8" t="n">
         <v>3.688138985319583e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>53</v>
+        <v>52.29166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1481820.058526433</v>
+        <v>1800948.355977573</v>
       </c>
     </row>
     <row r="9">
@@ -59311,28 +59311,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1170.069875967398</v>
+        <v>1427.985139756135</v>
       </c>
       <c r="AB9" t="n">
-        <v>1600.941224138376</v>
+        <v>1953.832266472516</v>
       </c>
       <c r="AC9" t="n">
-        <v>1448.149640641728</v>
+        <v>1767.361257181187</v>
       </c>
       <c r="AD9" t="n">
-        <v>1170069.875967398</v>
+        <v>1427985.139756135</v>
       </c>
       <c r="AE9" t="n">
-        <v>1600941.224138376</v>
+        <v>1953832.266472516</v>
       </c>
       <c r="AF9" t="n">
         <v>3.713134279576933e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>52</v>
+        <v>51.94444444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>1448149.640641728</v>
+        <v>1767361.257181187</v>
       </c>
     </row>
     <row r="10">
@@ -59417,28 +59417,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1155.850518527569</v>
+        <v>1413.765782316307</v>
       </c>
       <c r="AB10" t="n">
-        <v>1581.485671975426</v>
+        <v>1934.376714309566</v>
       </c>
       <c r="AC10" t="n">
-        <v>1430.550899071172</v>
+        <v>1749.762515610631</v>
       </c>
       <c r="AD10" t="n">
-        <v>1155850.518527569</v>
+        <v>1413765.782316307</v>
       </c>
       <c r="AE10" t="n">
-        <v>1581485.671975426</v>
+        <v>1934376.714309566</v>
       </c>
       <c r="AF10" t="n">
         <v>3.731130891442226e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>52</v>
+        <v>51.68981481481481</v>
       </c>
       <c r="AH10" t="n">
-        <v>1430550.899071172</v>
+        <v>1749762.515610631</v>
       </c>
     </row>
     <row r="11">
@@ -59523,28 +59523,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1140.246153087902</v>
+        <v>1388.573314538594</v>
       </c>
       <c r="AB11" t="n">
-        <v>1560.135090764856</v>
+        <v>1899.907268482861</v>
       </c>
       <c r="AC11" t="n">
-        <v>1411.23798736561</v>
+        <v>1718.582785315455</v>
       </c>
       <c r="AD11" t="n">
-        <v>1140246.153087902</v>
+        <v>1388573.314538594</v>
       </c>
       <c r="AE11" t="n">
-        <v>1560135.090764856</v>
+        <v>1899907.268482861</v>
       </c>
       <c r="AF11" t="n">
         <v>3.749960679782763e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>52</v>
+        <v>51.43518518518518</v>
       </c>
       <c r="AH11" t="n">
-        <v>1411237.98736561</v>
+        <v>1718582.785315455</v>
       </c>
     </row>
     <row r="12">
@@ -59629,28 +59629,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1126.711193161871</v>
+        <v>1375.038354612563</v>
       </c>
       <c r="AB12" t="n">
-        <v>1541.615961473771</v>
+        <v>1881.388139191776</v>
       </c>
       <c r="AC12" t="n">
-        <v>1394.486297782305</v>
+        <v>1701.83109573215</v>
       </c>
       <c r="AD12" t="n">
-        <v>1126711.193161871</v>
+        <v>1375038.354612563</v>
       </c>
       <c r="AE12" t="n">
-        <v>1541615.961473771</v>
+        <v>1881388.139191776</v>
       </c>
       <c r="AF12" t="n">
         <v>3.763458138681733e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>52</v>
+        <v>51.25</v>
       </c>
       <c r="AH12" t="n">
-        <v>1394486.297782305</v>
+        <v>1701831.09573215</v>
       </c>
     </row>
     <row r="13">
@@ -59735,28 +59735,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1128.268391960816</v>
+        <v>1376.595553411508</v>
       </c>
       <c r="AB13" t="n">
-        <v>1543.746589569251</v>
+        <v>1883.518767287255</v>
       </c>
       <c r="AC13" t="n">
-        <v>1396.413581722707</v>
+        <v>1703.758379672552</v>
       </c>
       <c r="AD13" t="n">
-        <v>1128268.391960816</v>
+        <v>1376595.553411508</v>
       </c>
       <c r="AE13" t="n">
-        <v>1543746.589569251</v>
+        <v>1883518.767287255</v>
       </c>
       <c r="AF13" t="n">
         <v>3.760791973960948e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>52</v>
+        <v>51.28472222222223</v>
       </c>
       <c r="AH13" t="n">
-        <v>1396413.581722707</v>
+        <v>1703758.379672552</v>
       </c>
     </row>
     <row r="14">
@@ -59841,28 +59841,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1131.413482395974</v>
+        <v>1379.740643846666</v>
       </c>
       <c r="AB14" t="n">
-        <v>1548.049841054231</v>
+        <v>1887.822018772236</v>
       </c>
       <c r="AC14" t="n">
-        <v>1400.306136925612</v>
+        <v>1707.650934875457</v>
       </c>
       <c r="AD14" t="n">
-        <v>1131413.482395974</v>
+        <v>1379740.643846666</v>
       </c>
       <c r="AE14" t="n">
-        <v>1548049.841054231</v>
+        <v>1887822.018772236</v>
       </c>
       <c r="AF14" t="n">
         <v>3.760292068075802e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>52</v>
+        <v>51.28472222222223</v>
       </c>
       <c r="AH14" t="n">
-        <v>1400306.136925612</v>
+        <v>1707650.934875457</v>
       </c>
     </row>
   </sheetData>
